--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -4205,13 +4205,13 @@
     <t>To provide a regional reliability standard that ensures the development of an effective automatic underfrequency load shedding (UFLS) program in order to preserve the security and integrity of the bulk power system during declinin... See Standard details..</t>
   </si>
   <si>
+    <t>NPCC</t>
+  </si>
+  <si>
     <t>PRC-006-NPCC-2</t>
   </si>
   <si>
     <t>The NPCC Automatic Underfrequency Load Shedding (UFLS) regional Reliability Standard establishes more stringent and specific NPCC UFLS program requirements than the NERC continent-wide PRC-006 standard. The program is designed suc... See Standard details..</t>
-  </si>
-  <si>
-    <t>NPCC</t>
   </si>
   <si>
     <t>PRC-006-SERC-01</t>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="M478" s="6"/>
       <c r="N478" s="8" t="s">
-        <v>68</v>
+        <v>1390</v>
       </c>
       <c r="O478" s="10"/>
       <c r="P478" s="10"/>
@@ -26153,13 +26153,13 @@
         <v>30</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C479" s="13" t="s">
         <v>1378</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E479" s="15">
         <v>43785</v>
@@ -26185,7 +26185,7 @@
       </c>
       <c r="M479" s="12"/>
       <c r="N479" s="14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="O479" s="16"/>
       <c r="P479" s="16"/>
@@ -35181,13 +35181,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E86F4F-E53E-4D37-9910-AEB5B714CA98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74060A2F-801D-429F-AF35-8782A3D5D878}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57CABF7-AB57-4380-84C7-D921E6DD7D7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97FF3AE2-7D0E-43B4-8DBA-C8FDC688A344}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94EBA0DB-40C0-408D-846E-7039CA916AB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B87D73-4338-421B-BB2F-79DA4269B256}"/>
 </file>
--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1834">
   <si>
     <t>Status</t>
   </si>
@@ -4348,9 +4348,6 @@
   </si>
   <si>
     <t>To ensure that Remedial Action Schemes (RAS) do not introduce unintentional or unacceptable reliability risks to the Bulk Electric System (BES).... See Standard details..</t>
-  </si>
-  <si>
-    <t>PRC-012-2 will replace PRC-015-1 and PRC-016-1. PRC-012-1, PRC-013-1 and PRC-014-1 are withdrawn the date PRC-012-2 goes into effect.</t>
   </si>
   <si>
     <t>Project 2010-05.3</t>
@@ -26803,11 +26800,9 @@
       <c r="L493" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M493" s="12" t="s">
+      <c r="M493" s="12"/>
+      <c r="N493" s="14" t="s">
         <v>1437</v>
-      </c>
-      <c r="N493" s="14" t="s">
-        <v>1438</v>
       </c>
       <c r="O493" s="16"/>
       <c r="P493" s="19" t="s">
@@ -26821,13 +26816,13 @@
         <v>18</v>
       </c>
       <c r="B494" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C494" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="C494" s="7" t="s">
+      <c r="D494" s="6" t="s">
         <v>1440</v>
-      </c>
-      <c r="D494" s="6" t="s">
-        <v>1441</v>
       </c>
       <c r="E494" s="9">
         <v>38391</v>
@@ -26861,13 +26856,13 @@
         <v>18</v>
       </c>
       <c r="B495" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C495" s="13" t="s">
         <v>1442</v>
       </c>
-      <c r="C495" s="13" t="s">
+      <c r="D495" s="12" t="s">
         <v>1443</v>
-      </c>
-      <c r="D495" s="12" t="s">
-        <v>1444</v>
       </c>
       <c r="E495" s="15">
         <v>41956</v>
@@ -26903,13 +26898,13 @@
         <v>18</v>
       </c>
       <c r="B496" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C496" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="C496" s="7" t="s">
+      <c r="D496" s="11" t="s">
         <v>1446</v>
-      </c>
-      <c r="D496" s="11" t="s">
-        <v>1447</v>
       </c>
       <c r="E496" s="9">
         <v>38391</v>
@@ -26943,10 +26938,10 @@
         <v>18</v>
       </c>
       <c r="B497" s="14" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C497" s="13" t="s">
         <v>1448</v>
-      </c>
-      <c r="C497" s="13" t="s">
-        <v>1449</v>
       </c>
       <c r="D497" s="18" t="s">
         <v>1432</v>
@@ -26985,13 +26980,13 @@
         <v>18</v>
       </c>
       <c r="B498" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C498" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="C498" s="7" t="s">
+      <c r="D498" s="11" t="s">
         <v>1451</v>
-      </c>
-      <c r="D498" s="11" t="s">
-        <v>1452</v>
       </c>
       <c r="E498" s="9">
         <v>38391</v>
@@ -27029,10 +27024,10 @@
         <v>18</v>
       </c>
       <c r="B499" s="14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C499" s="13" t="s">
         <v>1453</v>
-      </c>
-      <c r="C499" s="13" t="s">
-        <v>1454</v>
       </c>
       <c r="D499" s="18" t="s">
         <v>1432</v>
@@ -27077,13 +27072,13 @@
         <v>18</v>
       </c>
       <c r="B500" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C500" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="C500" s="7" t="s">
-        <v>1456</v>
-      </c>
       <c r="D500" s="11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E500" s="9">
         <v>38391</v>
@@ -27106,7 +27101,7 @@
       </c>
       <c r="L500" s="7"/>
       <c r="M500" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="N500" s="7"/>
       <c r="O500" s="10"/>
@@ -27119,13 +27114,13 @@
         <v>18</v>
       </c>
       <c r="B501" s="14" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C501" s="13" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D501" s="18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E501" s="15">
         <v>39750</v>
@@ -27163,13 +27158,13 @@
         <v>18</v>
       </c>
       <c r="B502" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C502" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="C502" s="7" t="s">
-        <v>1460</v>
-      </c>
       <c r="D502" s="11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E502" s="9">
         <v>41956</v>
@@ -27211,13 +27206,13 @@
         <v>18</v>
       </c>
       <c r="B503" s="14" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C503" s="13" t="s">
         <v>1461</v>
       </c>
-      <c r="C503" s="13" t="s">
-        <v>1462</v>
-      </c>
       <c r="D503" s="18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E503" s="15">
         <v>38391</v>
@@ -27255,10 +27250,10 @@
         <v>30</v>
       </c>
       <c r="B504" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C504" s="7" t="s">
         <v>1463</v>
-      </c>
-      <c r="C504" s="7" t="s">
-        <v>1464</v>
       </c>
       <c r="D504" s="11" t="s">
         <v>1432</v>
@@ -27301,13 +27296,13 @@
         <v>18</v>
       </c>
       <c r="B505" s="14" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C505" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="C505" s="13" t="s">
+      <c r="D505" s="12" t="s">
         <v>1466</v>
-      </c>
-      <c r="D505" s="12" t="s">
-        <v>1467</v>
       </c>
       <c r="E505" s="15">
         <v>38931</v>
@@ -27333,7 +27328,7 @@
       </c>
       <c r="M505" s="12"/>
       <c r="N505" s="14" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="O505" s="16"/>
       <c r="P505" s="19" t="s">
@@ -27347,13 +27342,13 @@
         <v>18</v>
       </c>
       <c r="B506" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C506" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="D506" s="6" t="s">
         <v>1470</v>
-      </c>
-      <c r="D506" s="6" t="s">
-        <v>1471</v>
       </c>
       <c r="E506" s="9">
         <v>41312</v>
@@ -27378,7 +27373,7 @@
         <v>11</v>
       </c>
       <c r="M506" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="N506" s="8" t="s">
         <v>1145</v>
@@ -27393,13 +27388,13 @@
         <v>30</v>
       </c>
       <c r="B507" s="14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C507" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="C507" s="13" t="s">
-        <v>1474</v>
-      </c>
       <c r="D507" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E507" s="15">
         <v>42047</v>
@@ -27422,7 +27417,7 @@
         <v>11</v>
       </c>
       <c r="M507" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N507" s="14" t="s">
         <v>1260</v>
@@ -27433,7 +27428,7 @@
       </c>
       <c r="Q507" s="13"/>
       <c r="R507" s="14" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="508" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -27441,13 +27436,13 @@
         <v>18</v>
       </c>
       <c r="B508" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C508" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C508" s="7" t="s">
+      <c r="D508" s="11" t="s">
         <v>1478</v>
-      </c>
-      <c r="D508" s="11" t="s">
-        <v>1479</v>
       </c>
       <c r="E508" s="9">
         <v>38755</v>
@@ -27467,7 +27462,7 @@
         <v>1101</v>
       </c>
       <c r="N508" s="8" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="O508" s="10"/>
       <c r="P508" s="10"/>
@@ -27479,13 +27474,13 @@
         <v>18</v>
       </c>
       <c r="B509" s="14" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C509" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D509" s="18" t="s">
         <v>1478</v>
-      </c>
-      <c r="D509" s="18" t="s">
-        <v>1479</v>
       </c>
       <c r="E509" s="15">
         <v>41956</v>
@@ -27517,13 +27512,13 @@
         <v>18</v>
       </c>
       <c r="B510" s="8" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C510" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="C510" s="7" t="s">
+      <c r="D510" s="11" t="s">
         <v>1482</v>
-      </c>
-      <c r="D510" s="11" t="s">
-        <v>1483</v>
       </c>
       <c r="E510" s="9">
         <v>38755</v>
@@ -27559,13 +27554,13 @@
         <v>18</v>
       </c>
       <c r="B511" s="14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C511" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D511" s="18" t="s">
         <v>1482</v>
-      </c>
-      <c r="D511" s="18" t="s">
-        <v>1483</v>
       </c>
       <c r="E511" s="15">
         <v>41956</v>
@@ -27597,13 +27592,13 @@
         <v>18</v>
       </c>
       <c r="B512" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C512" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="C512" s="7" t="s">
+      <c r="D512" s="6" t="s">
         <v>1486</v>
-      </c>
-      <c r="D512" s="6" t="s">
-        <v>1487</v>
       </c>
       <c r="E512" s="9">
         <v>38755</v>
@@ -27639,13 +27634,13 @@
         <v>18</v>
       </c>
       <c r="B513" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C513" s="13" t="s">
         <v>1488</v>
       </c>
-      <c r="C513" s="13" t="s">
+      <c r="D513" s="18" t="s">
         <v>1489</v>
-      </c>
-      <c r="D513" s="18" t="s">
-        <v>1490</v>
       </c>
       <c r="E513" s="15">
         <v>39490</v>
@@ -27670,10 +27665,10 @@
         <v>11</v>
       </c>
       <c r="M513" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N513" s="14" t="s">
         <v>1491</v>
-      </c>
-      <c r="N513" s="14" t="s">
-        <v>1492</v>
       </c>
       <c r="O513" s="16"/>
       <c r="P513" s="16"/>
@@ -27685,13 +27680,13 @@
         <v>18</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C514" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D514" s="11" t="s">
         <v>1489</v>
-      </c>
-      <c r="D514" s="11" t="s">
-        <v>1490</v>
       </c>
       <c r="E514" s="9">
         <v>40612</v>
@@ -27716,10 +27711,10 @@
         <v>11</v>
       </c>
       <c r="M514" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N514" s="8" t="s">
         <v>1494</v>
-      </c>
-      <c r="N514" s="8" t="s">
-        <v>1495</v>
       </c>
       <c r="O514" s="10"/>
       <c r="P514" s="10"/>
@@ -27731,13 +27726,13 @@
         <v>18</v>
       </c>
       <c r="B515" s="14" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C515" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D515" s="18" t="s">
         <v>1489</v>
-      </c>
-      <c r="D515" s="18" t="s">
-        <v>1490</v>
       </c>
       <c r="E515" s="15">
         <v>41585</v>
@@ -27763,7 +27758,7 @@
       </c>
       <c r="M515" s="12"/>
       <c r="N515" s="14" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="O515" s="16"/>
       <c r="P515" s="16"/>
@@ -27775,13 +27770,13 @@
         <v>18</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C516" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D516" s="11" t="s">
         <v>1489</v>
-      </c>
-      <c r="D516" s="11" t="s">
-        <v>1490</v>
       </c>
       <c r="E516" s="9">
         <v>41956</v>
@@ -27825,13 +27820,13 @@
         <v>18</v>
       </c>
       <c r="B517" s="14" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C517" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D517" s="18" t="s">
         <v>1489</v>
-      </c>
-      <c r="D517" s="18" t="s">
-        <v>1490</v>
       </c>
       <c r="E517" s="15">
         <v>44329</v>
@@ -27856,7 +27851,7 @@
         <v>11</v>
       </c>
       <c r="M517" s="12" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="N517" s="14" t="s">
         <v>452</v>
@@ -27871,13 +27866,13 @@
         <v>30</v>
       </c>
       <c r="B518" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D518" s="11" t="s">
         <v>1501</v>
-      </c>
-      <c r="C518" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D518" s="11" t="s">
-        <v>1502</v>
       </c>
       <c r="E518" s="9">
         <v>44973</v>
@@ -27900,13 +27895,13 @@
         <v>11</v>
       </c>
       <c r="M518" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="N518" s="8" t="s">
         <v>1503</v>
       </c>
-      <c r="N518" s="8" t="s">
+      <c r="O518" s="17" t="s">
         <v>1504</v>
-      </c>
-      <c r="O518" s="17" t="s">
-        <v>1505</v>
       </c>
       <c r="P518" s="17" t="s">
         <v>721</v>
@@ -27921,13 +27916,13 @@
         <v>18</v>
       </c>
       <c r="B519" s="14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C519" s="13" t="s">
         <v>1506</v>
       </c>
-      <c r="C519" s="13" t="s">
+      <c r="D519" s="12" t="s">
         <v>1507</v>
-      </c>
-      <c r="D519" s="12" t="s">
-        <v>1508</v>
       </c>
       <c r="E519" s="15">
         <v>41403</v>
@@ -27952,10 +27947,10 @@
         <v>11</v>
       </c>
       <c r="M519" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="N519" s="14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="O519" s="16"/>
       <c r="P519" s="16"/>
@@ -27967,13 +27962,13 @@
         <v>18</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C520" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D520" s="6" t="s">
         <v>1507</v>
-      </c>
-      <c r="D520" s="6" t="s">
-        <v>1508</v>
       </c>
       <c r="E520" s="9">
         <v>42047</v>
@@ -27998,7 +27993,7 @@
         <v>11</v>
       </c>
       <c r="M520" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N520" s="8" t="s">
         <v>1260</v>
@@ -28009,7 +28004,7 @@
       </c>
       <c r="Q520" s="7"/>
       <c r="R520" s="8" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="521" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -28017,13 +28012,13 @@
         <v>30</v>
       </c>
       <c r="B521" s="14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C521" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="C521" s="13" t="s">
+      <c r="D521" s="12" t="s">
         <v>1513</v>
-      </c>
-      <c r="D521" s="12" t="s">
-        <v>1514</v>
       </c>
       <c r="E521" s="15">
         <v>43867</v>
@@ -28049,7 +28044,7 @@
       </c>
       <c r="M521" s="12"/>
       <c r="N521" s="14" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="O521" s="16"/>
       <c r="P521" s="19" t="s">
@@ -28063,13 +28058,13 @@
         <v>108</v>
       </c>
       <c r="B522" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C522" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C522" s="7" t="s">
+      <c r="D522" s="6" t="s">
         <v>1517</v>
-      </c>
-      <c r="D522" s="6" t="s">
-        <v>1518</v>
       </c>
       <c r="E522" s="9">
         <v>45573</v>
@@ -28092,10 +28087,10 @@
         <v>11</v>
       </c>
       <c r="M522" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N522" s="8" t="s">
         <v>1519</v>
-      </c>
-      <c r="N522" s="8" t="s">
-        <v>1520</v>
       </c>
       <c r="O522" s="10"/>
       <c r="P522" s="10"/>
@@ -28107,13 +28102,13 @@
         <v>18</v>
       </c>
       <c r="B523" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C523" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="C523" s="13" t="s">
+      <c r="D523" s="18" t="s">
         <v>1522</v>
-      </c>
-      <c r="D523" s="18" t="s">
-        <v>1523</v>
       </c>
       <c r="E523" s="15">
         <v>41501</v>
@@ -28138,10 +28133,10 @@
         <v>11</v>
       </c>
       <c r="M523" s="12" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="N523" s="14" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="O523" s="16"/>
       <c r="P523" s="19" t="s">
@@ -28155,13 +28150,13 @@
         <v>30</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C524" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D524" s="11" t="s">
         <v>1522</v>
-      </c>
-      <c r="D524" s="11" t="s">
-        <v>1523</v>
       </c>
       <c r="E524" s="9">
         <v>43139</v>
@@ -28186,10 +28181,10 @@
         <v>11</v>
       </c>
       <c r="M524" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N524" s="8" t="s">
         <v>1526</v>
-      </c>
-      <c r="N524" s="8" t="s">
-        <v>1527</v>
       </c>
       <c r="O524" s="10"/>
       <c r="P524" s="17" t="s">
@@ -28203,13 +28198,13 @@
         <v>18</v>
       </c>
       <c r="B525" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C525" s="13" t="s">
         <v>1528</v>
       </c>
-      <c r="C525" s="13" t="s">
+      <c r="D525" s="12" t="s">
         <v>1529</v>
-      </c>
-      <c r="D525" s="12" t="s">
-        <v>1530</v>
       </c>
       <c r="E525" s="15">
         <v>41990</v>
@@ -28236,10 +28231,10 @@
         <v>11</v>
       </c>
       <c r="M525" s="12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="N525" s="14" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="O525" s="16"/>
       <c r="P525" s="19" t="s">
@@ -28253,13 +28248,13 @@
         <v>30</v>
       </c>
       <c r="B526" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D526" s="6" t="s">
         <v>1532</v>
-      </c>
-      <c r="C526" s="7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D526" s="6" t="s">
-        <v>1533</v>
       </c>
       <c r="E526" s="9">
         <v>44329</v>
@@ -28299,13 +28294,13 @@
         <v>30</v>
       </c>
       <c r="B527" s="14" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C527" s="13" t="s">
         <v>1534</v>
       </c>
-      <c r="C527" s="13" t="s">
+      <c r="D527" s="12" t="s">
         <v>1535</v>
-      </c>
-      <c r="D527" s="12" t="s">
-        <v>1536</v>
       </c>
       <c r="E527" s="15">
         <v>42313</v>
@@ -28329,7 +28324,7 @@
       </c>
       <c r="M527" s="12"/>
       <c r="N527" s="14" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="O527" s="16"/>
       <c r="P527" s="19" t="s">
@@ -28343,13 +28338,13 @@
         <v>30</v>
       </c>
       <c r="B528" s="8" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>1538</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="D528" s="6" t="s">
         <v>1539</v>
-      </c>
-      <c r="D528" s="6" t="s">
-        <v>1540</v>
       </c>
       <c r="E528" s="9">
         <v>45573</v>
@@ -28387,13 +28382,13 @@
         <v>108</v>
       </c>
       <c r="B529" s="14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C529" s="13" t="s">
         <v>1541</v>
       </c>
-      <c r="C529" s="13" t="s">
+      <c r="D529" s="12" t="s">
         <v>1542</v>
-      </c>
-      <c r="D529" s="12" t="s">
-        <v>1543</v>
       </c>
       <c r="E529" s="15">
         <v>45573</v>
@@ -28416,10 +28411,10 @@
         <v>11</v>
       </c>
       <c r="M529" s="18" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N529" s="14" t="s">
         <v>1519</v>
-      </c>
-      <c r="N529" s="14" t="s">
-        <v>1520</v>
       </c>
       <c r="O529" s="16"/>
       <c r="P529" s="16"/>
@@ -28431,13 +28426,13 @@
         <v>108</v>
       </c>
       <c r="B530" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="D530" s="6" t="s">
         <v>1545</v>
-      </c>
-      <c r="D530" s="6" t="s">
-        <v>1546</v>
       </c>
       <c r="E530" s="9">
         <v>45573</v>
@@ -28460,10 +28455,10 @@
         <v>11</v>
       </c>
       <c r="M530" s="11" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N530" s="8" t="s">
         <v>1547</v>
-      </c>
-      <c r="N530" s="8" t="s">
-        <v>1548</v>
       </c>
       <c r="O530" s="10"/>
       <c r="P530" s="10"/>
@@ -28475,13 +28470,13 @@
         <v>18</v>
       </c>
       <c r="B531" s="14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C531" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="C531" s="13" t="s">
+      <c r="D531" s="12" t="s">
         <v>1550</v>
-      </c>
-      <c r="D531" s="12" t="s">
-        <v>1551</v>
       </c>
       <c r="E531" s="15">
         <v>39153</v>
@@ -28504,7 +28499,7 @@
       </c>
       <c r="L531" s="13"/>
       <c r="M531" s="12" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="N531" s="13"/>
       <c r="O531" s="16"/>
@@ -28517,13 +28512,13 @@
         <v>18</v>
       </c>
       <c r="B532" s="8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C532" s="7" t="s">
         <v>1553</v>
       </c>
-      <c r="C532" s="7" t="s">
+      <c r="D532" s="11" t="s">
         <v>1554</v>
-      </c>
-      <c r="D532" s="11" t="s">
-        <v>1555</v>
       </c>
       <c r="E532" s="9">
         <v>39153</v>
@@ -28546,7 +28541,7 @@
       </c>
       <c r="L532" s="7"/>
       <c r="M532" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="N532" s="7"/>
       <c r="O532" s="10"/>
@@ -28559,13 +28554,13 @@
         <v>18</v>
       </c>
       <c r="B533" s="14" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C533" s="13" t="s">
         <v>1556</v>
       </c>
-      <c r="C533" s="13" t="s">
+      <c r="D533" s="18" t="s">
         <v>1557</v>
-      </c>
-      <c r="D533" s="18" t="s">
-        <v>1558</v>
       </c>
       <c r="E533" s="15">
         <v>39153</v>
@@ -28588,7 +28583,7 @@
       </c>
       <c r="L533" s="13"/>
       <c r="M533" s="12" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="N533" s="13"/>
       <c r="O533" s="16"/>
@@ -28601,13 +28596,13 @@
         <v>18</v>
       </c>
       <c r="B534" s="8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C534" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="C534" s="7" t="s">
+      <c r="D534" s="6" t="s">
         <v>1561</v>
-      </c>
-      <c r="D534" s="6" t="s">
-        <v>1562</v>
       </c>
       <c r="E534" s="9">
         <v>38391</v>
@@ -28624,7 +28619,7 @@
       </c>
       <c r="L534" s="7"/>
       <c r="M534" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="N534" s="7"/>
       <c r="O534" s="10"/>
@@ -28637,13 +28632,13 @@
         <v>18</v>
       </c>
       <c r="B535" s="14" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C535" s="13" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D535" s="12" t="s">
         <v>1561</v>
-      </c>
-      <c r="D535" s="12" t="s">
-        <v>1562</v>
       </c>
       <c r="E535" s="15">
         <v>39022</v>
@@ -28666,7 +28661,7 @@
       </c>
       <c r="L535" s="13"/>
       <c r="M535" s="12" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="N535" s="13"/>
       <c r="O535" s="16"/>
@@ -28679,13 +28674,13 @@
         <v>18</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C536" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D536" s="6" t="s">
         <v>1561</v>
-      </c>
-      <c r="D536" s="6" t="s">
-        <v>1562</v>
       </c>
       <c r="E536" s="9">
         <v>40310</v>
@@ -28709,7 +28704,7 @@
       <c r="L536" s="7"/>
       <c r="M536" s="6"/>
       <c r="N536" s="8" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O536" s="10"/>
       <c r="P536" s="10"/>
@@ -28721,13 +28716,13 @@
         <v>18</v>
       </c>
       <c r="B537" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C537" s="13" t="s">
         <v>1568</v>
       </c>
-      <c r="C537" s="13" t="s">
+      <c r="D537" s="12" t="s">
         <v>1569</v>
-      </c>
-      <c r="D537" s="12" t="s">
-        <v>1570</v>
       </c>
       <c r="E537" s="15">
         <v>41038</v>
@@ -28759,13 +28754,13 @@
         <v>18</v>
       </c>
       <c r="B538" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D538" s="6" t="s">
         <v>1571</v>
-      </c>
-      <c r="C538" s="7" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D538" s="6" t="s">
-        <v>1572</v>
       </c>
       <c r="E538" s="9">
         <v>42047</v>
@@ -28790,7 +28785,7 @@
         <v>11</v>
       </c>
       <c r="M538" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="N538" s="8" t="s">
         <v>863</v>
@@ -28809,13 +28804,13 @@
         <v>18</v>
       </c>
       <c r="B539" s="14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E539" s="15">
         <v>42775</v>
@@ -28840,7 +28835,7 @@
         <v>11</v>
       </c>
       <c r="M539" s="12" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="N539" s="14" t="s">
         <v>885</v>
@@ -28859,13 +28854,13 @@
         <v>18</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E540" s="9">
         <v>43594</v>
@@ -28905,13 +28900,13 @@
         <v>30</v>
       </c>
       <c r="B541" s="14" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E541" s="15">
         <v>44329</v>
@@ -28938,7 +28933,7 @@
         <v>452</v>
       </c>
       <c r="O541" s="19" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="P541" s="19" t="s">
         <v>721</v>
@@ -28951,13 +28946,13 @@
         <v>18</v>
       </c>
       <c r="B542" s="8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C542" s="7" t="s">
         <v>1579</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="D542" s="6" t="s">
         <v>1580</v>
-      </c>
-      <c r="D542" s="6" t="s">
-        <v>1581</v>
       </c>
       <c r="E542" s="9">
         <v>38391</v>
@@ -28987,13 +28982,13 @@
         <v>18</v>
       </c>
       <c r="B543" s="14" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C543" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D543" s="12" t="s">
         <v>1580</v>
-      </c>
-      <c r="D543" s="12" t="s">
-        <v>1581</v>
       </c>
       <c r="E543" s="15">
         <v>38931</v>
@@ -29008,7 +29003,7 @@
       </c>
       <c r="L543" s="13"/>
       <c r="M543" s="12" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="N543" s="13"/>
       <c r="O543" s="16"/>
@@ -29021,13 +29016,13 @@
         <v>18</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C544" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D544" s="6" t="s">
         <v>1580</v>
-      </c>
-      <c r="D544" s="6" t="s">
-        <v>1581</v>
       </c>
       <c r="E544" s="9">
         <v>39022</v>
@@ -29050,7 +29045,7 @@
       </c>
       <c r="L544" s="7"/>
       <c r="M544" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N544" s="7"/>
       <c r="O544" s="10"/>
@@ -29063,13 +29058,13 @@
         <v>18</v>
       </c>
       <c r="B545" s="14" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C545" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D545" s="12" t="s">
         <v>1580</v>
-      </c>
-      <c r="D545" s="12" t="s">
-        <v>1581</v>
       </c>
       <c r="E545" s="15">
         <v>41010</v>
@@ -29093,7 +29088,7 @@
       <c r="L545" s="13"/>
       <c r="M545" s="12"/>
       <c r="N545" s="14" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O545" s="16"/>
       <c r="P545" s="16"/>
@@ -29105,13 +29100,13 @@
         <v>18</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C546" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D546" s="6" t="s">
         <v>1580</v>
-      </c>
-      <c r="D546" s="6" t="s">
-        <v>1581</v>
       </c>
       <c r="E546" s="9">
         <v>39854</v>
@@ -29134,7 +29129,7 @@
       </c>
       <c r="L546" s="7"/>
       <c r="M546" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="N546" s="7"/>
       <c r="O546" s="10"/>
@@ -29147,13 +29142,13 @@
         <v>18</v>
       </c>
       <c r="B547" s="14" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C547" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D547" s="12" t="s">
         <v>1580</v>
-      </c>
-      <c r="D547" s="12" t="s">
-        <v>1581</v>
       </c>
       <c r="E547" s="15">
         <v>40486</v>
@@ -29176,7 +29171,7 @@
       </c>
       <c r="L547" s="13"/>
       <c r="M547" s="12" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="N547" s="13"/>
       <c r="O547" s="16"/>
@@ -29189,13 +29184,13 @@
         <v>18</v>
       </c>
       <c r="B548" s="8" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C548" s="7" t="s">
         <v>1591</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="D548" s="6" t="s">
         <v>1592</v>
-      </c>
-      <c r="D548" s="6" t="s">
-        <v>1593</v>
       </c>
       <c r="E548" s="9">
         <v>41038</v>
@@ -29227,13 +29222,13 @@
         <v>30</v>
       </c>
       <c r="B549" s="14" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C549" s="13" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D549" s="12" t="s">
         <v>1594</v>
-      </c>
-      <c r="C549" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D549" s="12" t="s">
-        <v>1595</v>
       </c>
       <c r="E549" s="15">
         <v>41956</v>
@@ -29258,13 +29253,13 @@
         <v>11</v>
       </c>
       <c r="M549" s="12" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="N549" s="14" t="s">
         <v>863</v>
       </c>
       <c r="O549" s="19" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="P549" s="19" t="s">
         <v>34</v>
@@ -29277,13 +29272,13 @@
         <v>108</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E550" s="9">
         <v>45222</v>
@@ -29321,13 +29316,13 @@
         <v>18</v>
       </c>
       <c r="B551" s="14" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C551" s="13" t="s">
         <v>1599</v>
       </c>
-      <c r="C551" s="13" t="s">
+      <c r="D551" s="12" t="s">
         <v>1600</v>
-      </c>
-      <c r="D551" s="12" t="s">
-        <v>1601</v>
       </c>
       <c r="E551" s="15">
         <v>38391</v>
@@ -29350,7 +29345,7 @@
       </c>
       <c r="L551" s="13"/>
       <c r="M551" s="12" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="N551" s="13"/>
       <c r="O551" s="16"/>
@@ -29363,13 +29358,13 @@
         <v>18</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C552" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D552" s="6" t="s">
         <v>1600</v>
-      </c>
-      <c r="D552" s="6" t="s">
-        <v>1601</v>
       </c>
       <c r="E552" s="9">
         <v>39738</v>
@@ -29407,13 +29402,13 @@
         <v>18</v>
       </c>
       <c r="B553" s="14" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C553" s="13" t="s">
         <v>1604</v>
       </c>
-      <c r="C553" s="13" t="s">
+      <c r="D553" s="12" t="s">
         <v>1605</v>
-      </c>
-      <c r="D553" s="12" t="s">
-        <v>1606</v>
       </c>
       <c r="E553" s="15">
         <v>41038</v>
@@ -29445,13 +29440,13 @@
         <v>18</v>
       </c>
       <c r="B554" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D554" s="6" t="s">
         <v>1607</v>
-      </c>
-      <c r="C554" s="7" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D554" s="6" t="s">
-        <v>1608</v>
       </c>
       <c r="E554" s="9">
         <v>41956</v>
@@ -29478,7 +29473,7 @@
         <v>11</v>
       </c>
       <c r="M554" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="N554" s="8" t="s">
         <v>863</v>
@@ -29495,13 +29490,13 @@
         <v>18</v>
       </c>
       <c r="B555" s="14" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C555" s="13" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E555" s="15">
         <v>43867</v>
@@ -29541,13 +29536,13 @@
         <v>18</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E556" s="9">
         <v>44358</v>
@@ -29587,13 +29582,13 @@
         <v>30</v>
       </c>
       <c r="B557" s="14" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C557" s="13" t="s">
         <v>1612</v>
       </c>
-      <c r="C557" s="13" t="s">
+      <c r="D557" s="18" t="s">
         <v>1613</v>
-      </c>
-      <c r="D557" s="18" t="s">
-        <v>1614</v>
       </c>
       <c r="E557" s="15">
         <v>45161</v>
@@ -29633,13 +29628,13 @@
         <v>108</v>
       </c>
       <c r="B558" s="8" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="C558" s="7" t="s">
+      <c r="D558" s="6" t="s">
         <v>1616</v>
-      </c>
-      <c r="D558" s="6" t="s">
-        <v>1617</v>
       </c>
       <c r="E558" s="9">
         <v>45636</v>
@@ -29675,13 +29670,13 @@
         <v>18</v>
       </c>
       <c r="B559" s="14" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C559" s="13" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D559" s="12" t="s">
         <v>1618</v>
-      </c>
-      <c r="C559" s="13" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D559" s="12" t="s">
-        <v>1619</v>
       </c>
       <c r="E559" s="15">
         <v>38391</v>
@@ -29698,7 +29693,7 @@
       </c>
       <c r="L559" s="13"/>
       <c r="M559" s="12" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="N559" s="13"/>
       <c r="O559" s="16"/>
@@ -29711,13 +29706,13 @@
         <v>18</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E560" s="9">
         <v>39022</v>
@@ -29740,7 +29735,7 @@
       </c>
       <c r="L560" s="7"/>
       <c r="M560" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="N560" s="7"/>
       <c r="O560" s="10"/>
@@ -29753,13 +29748,13 @@
         <v>18</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C561" s="13" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D561" s="12" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E561" s="15">
         <v>39022</v>
@@ -29797,13 +29792,13 @@
         <v>18</v>
       </c>
       <c r="B562" s="8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>1624</v>
       </c>
-      <c r="C562" s="7" t="s">
+      <c r="D562" s="6" t="s">
         <v>1625</v>
-      </c>
-      <c r="D562" s="6" t="s">
-        <v>1626</v>
       </c>
       <c r="E562" s="9">
         <v>38391</v>
@@ -29818,7 +29813,7 @@
       </c>
       <c r="L562" s="7"/>
       <c r="M562" s="6" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="N562" s="7"/>
       <c r="O562" s="10"/>
@@ -29831,13 +29826,13 @@
         <v>18</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C563" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D563" s="12" t="s">
         <v>1625</v>
-      </c>
-      <c r="D563" s="12" t="s">
-        <v>1626</v>
       </c>
       <c r="E563" s="15">
         <v>38755</v>
@@ -29860,7 +29855,7 @@
       </c>
       <c r="L563" s="13"/>
       <c r="M563" s="12" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="N563" s="13"/>
       <c r="O563" s="16"/>
@@ -29873,13 +29868,13 @@
         <v>18</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C564" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D564" s="6" t="s">
         <v>1625</v>
-      </c>
-      <c r="D564" s="6" t="s">
-        <v>1626</v>
       </c>
       <c r="E564" s="9">
         <v>39750</v>
@@ -29902,7 +29897,7 @@
       </c>
       <c r="L564" s="7"/>
       <c r="M564" s="6" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="N564" s="7"/>
       <c r="O564" s="10"/>
@@ -29915,13 +29910,13 @@
         <v>18</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C565" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D565" s="12" t="s">
         <v>1625</v>
-      </c>
-      <c r="D565" s="12" t="s">
-        <v>1626</v>
       </c>
       <c r="E565" s="15">
         <v>40122</v>
@@ -29944,7 +29939,7 @@
       </c>
       <c r="L565" s="13"/>
       <c r="M565" s="12" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="N565" s="13"/>
       <c r="O565" s="16"/>
@@ -29957,13 +29952,13 @@
         <v>18</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C566" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D566" s="6" t="s">
         <v>1625</v>
-      </c>
-      <c r="D566" s="6" t="s">
-        <v>1626</v>
       </c>
       <c r="E566" s="9">
         <v>39738</v>
@@ -29984,7 +29979,7 @@
       </c>
       <c r="L566" s="7"/>
       <c r="M566" s="6" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="N566" s="7"/>
       <c r="O566" s="10"/>
@@ -29997,13 +29992,13 @@
         <v>18</v>
       </c>
       <c r="B567" s="14" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C567" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D567" s="12" t="s">
         <v>1625</v>
-      </c>
-      <c r="D567" s="12" t="s">
-        <v>1626</v>
       </c>
       <c r="E567" s="15">
         <v>39738</v>
@@ -30041,13 +30036,13 @@
         <v>18</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C568" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D568" s="6" t="s">
         <v>1625</v>
-      </c>
-      <c r="D568" s="6" t="s">
-        <v>1626</v>
       </c>
       <c r="E568" s="9">
         <v>41956</v>
@@ -30079,13 +30074,13 @@
         <v>18</v>
       </c>
       <c r="B569" s="14" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C569" s="13" t="s">
         <v>1637</v>
       </c>
-      <c r="C569" s="13" t="s">
+      <c r="D569" s="12" t="s">
         <v>1638</v>
-      </c>
-      <c r="D569" s="12" t="s">
-        <v>1639</v>
       </c>
       <c r="E569" s="15">
         <v>38391</v>
@@ -30104,7 +30099,7 @@
         <v>11</v>
       </c>
       <c r="M569" s="12" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="N569" s="13"/>
       <c r="O569" s="16"/>
@@ -30117,13 +30112,13 @@
         <v>18</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C570" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D570" s="6" t="s">
         <v>1638</v>
-      </c>
-      <c r="D570" s="6" t="s">
-        <v>1639</v>
       </c>
       <c r="E570" s="9">
         <v>39022</v>
@@ -30148,10 +30143,10 @@
         <v>11</v>
       </c>
       <c r="M570" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="N570" s="8" t="s">
         <v>1642</v>
-      </c>
-      <c r="N570" s="8" t="s">
-        <v>1643</v>
       </c>
       <c r="O570" s="10"/>
       <c r="P570" s="10"/>
@@ -30163,13 +30158,13 @@
         <v>18</v>
       </c>
       <c r="B571" s="14" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C571" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D571" s="12" t="s">
         <v>1638</v>
-      </c>
-      <c r="D571" s="12" t="s">
-        <v>1639</v>
       </c>
       <c r="E571" s="15">
         <v>39738</v>
@@ -30191,7 +30186,7 @@
         <v>42825</v>
       </c>
       <c r="L571" s="14" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="M571" s="12"/>
       <c r="N571" s="14" t="s">
@@ -30207,13 +30202,13 @@
         <v>18</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C572" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D572" s="6" t="s">
         <v>1638</v>
-      </c>
-      <c r="D572" s="6" t="s">
-        <v>1639</v>
       </c>
       <c r="E572" s="9">
         <v>41220</v>
@@ -30233,7 +30228,7 @@
       </c>
       <c r="M572" s="6"/>
       <c r="N572" s="8" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="O572" s="10"/>
       <c r="P572" s="10"/>
@@ -30245,13 +30240,13 @@
         <v>18</v>
       </c>
       <c r="B573" s="14" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C573" s="13" t="s">
         <v>1648</v>
       </c>
-      <c r="C573" s="13" t="s">
+      <c r="D573" s="12" t="s">
         <v>1649</v>
-      </c>
-      <c r="D573" s="12" t="s">
-        <v>1650</v>
       </c>
       <c r="E573" s="15">
         <v>38391</v>
@@ -30273,11 +30268,11 @@
         <v>42825</v>
       </c>
       <c r="L573" s="14" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="M573" s="12"/>
       <c r="N573" s="14" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="O573" s="16"/>
       <c r="P573" s="16"/>
@@ -30289,13 +30284,13 @@
         <v>18</v>
       </c>
       <c r="B574" s="8" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C574" s="7" t="s">
         <v>1652</v>
       </c>
-      <c r="C574" s="7" t="s">
+      <c r="D574" s="6" t="s">
         <v>1653</v>
-      </c>
-      <c r="D574" s="6" t="s">
-        <v>1654</v>
       </c>
       <c r="E574" s="9">
         <v>39750</v>
@@ -30318,7 +30313,7 @@
       </c>
       <c r="L574" s="7"/>
       <c r="M574" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="N574" s="7"/>
       <c r="O574" s="10"/>
@@ -30331,13 +30326,13 @@
         <v>18</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C575" s="13" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D575" s="12" t="s">
         <v>1653</v>
-      </c>
-      <c r="D575" s="12" t="s">
-        <v>1654</v>
       </c>
       <c r="E575" s="15">
         <v>41676</v>
@@ -30373,13 +30368,13 @@
         <v>18</v>
       </c>
       <c r="B576" s="8" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="C576" s="7" t="s">
+      <c r="D576" s="6" t="s">
         <v>1658</v>
-      </c>
-      <c r="D576" s="6" t="s">
-        <v>1659</v>
       </c>
       <c r="E576" s="9">
         <v>38391</v>
@@ -30396,10 +30391,10 @@
       </c>
       <c r="L576" s="7"/>
       <c r="M576" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N576" s="8" t="s">
         <v>1660</v>
-      </c>
-      <c r="N576" s="8" t="s">
-        <v>1661</v>
       </c>
       <c r="O576" s="10"/>
       <c r="P576" s="10"/>
@@ -30411,13 +30406,13 @@
         <v>18</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C577" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D577" s="12" t="s">
         <v>1658</v>
-      </c>
-      <c r="D577" s="12" t="s">
-        <v>1659</v>
       </c>
       <c r="E577" s="15">
         <v>39022</v>
@@ -30451,10 +30446,10 @@
         <v>18</v>
       </c>
       <c r="B578" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C578" s="7" t="s">
         <v>1663</v>
-      </c>
-      <c r="C578" s="7" t="s">
-        <v>1664</v>
       </c>
       <c r="D578" s="6" t="s">
         <v>1016</v>
@@ -30480,7 +30475,7 @@
         <v>11</v>
       </c>
       <c r="M578" s="6" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="N578" s="8" t="s">
         <v>1018</v>
@@ -30497,10 +30492,10 @@
         <v>30</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D579" s="12" t="s">
         <v>1016</v>
@@ -30526,7 +30521,7 @@
         <v>11</v>
       </c>
       <c r="M579" s="12" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="N579" s="14" t="s">
         <v>1018</v>
@@ -30545,13 +30540,13 @@
         <v>18</v>
       </c>
       <c r="B580" s="8" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C580" s="7" t="s">
         <v>1668</v>
       </c>
-      <c r="C580" s="7" t="s">
+      <c r="D580" s="6" t="s">
         <v>1669</v>
-      </c>
-      <c r="D580" s="6" t="s">
-        <v>1670</v>
       </c>
       <c r="E580" s="9">
         <v>39153</v>
@@ -30574,7 +30569,7 @@
       </c>
       <c r="L580" s="7"/>
       <c r="M580" s="6" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="N580" s="7"/>
       <c r="O580" s="10"/>
@@ -30587,13 +30582,13 @@
         <v>18</v>
       </c>
       <c r="B581" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C581" s="13" t="s">
         <v>1672</v>
       </c>
-      <c r="C581" s="13" t="s">
+      <c r="D581" s="18" t="s">
         <v>1673</v>
-      </c>
-      <c r="D581" s="18" t="s">
-        <v>1674</v>
       </c>
       <c r="E581" s="15">
         <v>38391</v>
@@ -30616,7 +30611,7 @@
       </c>
       <c r="L581" s="13"/>
       <c r="M581" s="12" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="N581" s="13"/>
       <c r="O581" s="16"/>
@@ -30629,13 +30624,13 @@
         <v>18</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C582" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D582" s="11" t="s">
         <v>1673</v>
-      </c>
-      <c r="D582" s="11" t="s">
-        <v>1674</v>
       </c>
       <c r="E582" s="9">
         <v>39750</v>
@@ -30658,7 +30653,7 @@
       </c>
       <c r="L582" s="7"/>
       <c r="M582" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="N582" s="8" t="s">
         <v>1102</v>
@@ -30673,13 +30668,13 @@
         <v>18</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C583" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D583" s="18" t="s">
         <v>1673</v>
-      </c>
-      <c r="D583" s="18" t="s">
-        <v>1674</v>
       </c>
       <c r="E583" s="15">
         <v>41956</v>
@@ -30715,13 +30710,13 @@
         <v>18</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C584" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D584" s="11" t="s">
         <v>1673</v>
-      </c>
-      <c r="D584" s="11" t="s">
-        <v>1674</v>
       </c>
       <c r="E584" s="9">
         <v>40591</v>
@@ -30742,7 +30737,7 @@
       </c>
       <c r="L584" s="7"/>
       <c r="M584" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="N584" s="7"/>
       <c r="O584" s="10"/>
@@ -30755,13 +30750,13 @@
         <v>18</v>
       </c>
       <c r="B585" s="14" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C585" s="13" t="s">
         <v>1681</v>
       </c>
-      <c r="C585" s="13" t="s">
+      <c r="D585" s="18" t="s">
         <v>1682</v>
-      </c>
-      <c r="D585" s="18" t="s">
-        <v>1683</v>
       </c>
       <c r="E585" s="15">
         <v>40759</v>
@@ -30777,10 +30772,10 @@
         <v>41631</v>
       </c>
       <c r="L585" s="14" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="M585" s="12" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="N585" s="14" t="s">
         <v>13</v>
@@ -30795,13 +30790,13 @@
         <v>18</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C586" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D586" s="11" t="s">
         <v>1673</v>
-      </c>
-      <c r="D586" s="11" t="s">
-        <v>1674</v>
       </c>
       <c r="E586" s="9">
         <v>41312</v>
@@ -30817,10 +30812,10 @@
         <v>42004</v>
       </c>
       <c r="L586" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="M586" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="N586" s="8" t="s">
         <v>13</v>
@@ -30835,13 +30830,13 @@
         <v>18</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C587" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D587" s="18" t="s">
         <v>1682</v>
-      </c>
-      <c r="D587" s="18" t="s">
-        <v>1683</v>
       </c>
       <c r="E587" s="15">
         <v>41312</v>
@@ -30866,10 +30861,10 @@
         <v>11</v>
       </c>
       <c r="M587" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="N587" s="14" t="s">
         <v>1688</v>
-      </c>
-      <c r="N587" s="14" t="s">
-        <v>1689</v>
       </c>
       <c r="O587" s="16"/>
       <c r="P587" s="19" t="s">
@@ -30877,7 +30872,7 @@
       </c>
       <c r="Q587" s="13"/>
       <c r="R587" s="14" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="588" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -30885,13 +30880,13 @@
         <v>18</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C588" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D588" s="11" t="s">
         <v>1682</v>
-      </c>
-      <c r="D588" s="11" t="s">
-        <v>1683</v>
       </c>
       <c r="E588" s="9">
         <v>43411</v>
@@ -30915,7 +30910,7 @@
       </c>
       <c r="M588" s="6"/>
       <c r="N588" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O588" s="10"/>
       <c r="P588" s="17" t="s">
@@ -30929,13 +30924,13 @@
         <v>30</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C589" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D589" s="18" t="s">
         <v>1682</v>
-      </c>
-      <c r="D589" s="18" t="s">
-        <v>1683</v>
       </c>
       <c r="E589" s="15">
         <v>43411</v>
@@ -30961,10 +30956,10 @@
       </c>
       <c r="M589" s="12"/>
       <c r="N589" s="14" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O589" s="19" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="P589" s="27" t="s">
         <v>34</v>
@@ -30977,13 +30972,13 @@
         <v>18</v>
       </c>
       <c r="B590" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C590" s="7" t="s">
         <v>1695</v>
       </c>
-      <c r="C590" s="7" t="s">
-        <v>1696</v>
-      </c>
       <c r="D590" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E590" s="9">
         <v>38391</v>
@@ -31008,7 +31003,7 @@
         <v>11</v>
       </c>
       <c r="M590" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="N590" s="8" t="s">
         <v>13</v>
@@ -31023,13 +31018,13 @@
         <v>18</v>
       </c>
       <c r="B591" s="14" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C591" s="13" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D591" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E591" s="15">
         <v>39659</v>
@@ -31052,7 +31047,7 @@
       </c>
       <c r="L591" s="13"/>
       <c r="M591" s="12" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="N591" s="13"/>
       <c r="O591" s="16"/>
@@ -31065,13 +31060,13 @@
         <v>18</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E592" s="9">
         <v>40122</v>
@@ -31094,13 +31089,13 @@
       </c>
       <c r="L592" s="7"/>
       <c r="M592" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N592" s="8" t="s">
         <v>1701</v>
       </c>
-      <c r="N592" s="8" t="s">
+      <c r="O592" s="17" t="s">
         <v>1702</v>
-      </c>
-      <c r="O592" s="17" t="s">
-        <v>1703</v>
       </c>
       <c r="P592" s="10"/>
       <c r="Q592" s="7"/>
@@ -31111,13 +31106,13 @@
         <v>18</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C593" s="13" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D593" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E593" s="15">
         <v>41956</v>
@@ -31153,13 +31148,13 @@
         <v>18</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E594" s="9">
         <v>40591</v>
@@ -31180,10 +31175,10 @@
       </c>
       <c r="L594" s="7"/>
       <c r="M594" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="N594" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="O594" s="10"/>
       <c r="P594" s="10"/>
@@ -31195,13 +31190,13 @@
         <v>18</v>
       </c>
       <c r="B595" s="14" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C595" s="13" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D595" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E595" s="15">
         <v>41312</v>
@@ -31220,10 +31215,10 @@
         <v>11</v>
       </c>
       <c r="M595" s="12" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="N595" s="14" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="O595" s="16"/>
       <c r="P595" s="16"/>
@@ -31235,13 +31230,13 @@
         <v>18</v>
       </c>
       <c r="B596" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C596" s="7" t="s">
         <v>1709</v>
       </c>
-      <c r="C596" s="7" t="s">
+      <c r="D596" s="11" t="s">
         <v>1710</v>
-      </c>
-      <c r="D596" s="11" t="s">
-        <v>1711</v>
       </c>
       <c r="E596" s="9">
         <v>38391</v>
@@ -31263,13 +31258,13 @@
         <v>40290</v>
       </c>
       <c r="L596" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M596" s="6" t="s">
         <v>1712</v>
       </c>
-      <c r="M596" s="6" t="s">
+      <c r="N596" s="8" t="s">
         <v>1713</v>
-      </c>
-      <c r="N596" s="8" t="s">
-        <v>1714</v>
       </c>
       <c r="O596" s="10"/>
       <c r="P596" s="10"/>
@@ -31281,13 +31276,13 @@
         <v>18</v>
       </c>
       <c r="B597" s="14" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C597" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D597" s="18" t="s">
         <v>1710</v>
-      </c>
-      <c r="D597" s="18" t="s">
-        <v>1711</v>
       </c>
       <c r="E597" s="15">
         <v>39659</v>
@@ -31309,13 +31304,13 @@
         <v>41444</v>
       </c>
       <c r="L597" s="25" t="s">
+        <v>1715</v>
+      </c>
+      <c r="M597" s="12" t="s">
         <v>1716</v>
       </c>
-      <c r="M597" s="12" t="s">
+      <c r="N597" s="14" t="s">
         <v>1717</v>
-      </c>
-      <c r="N597" s="14" t="s">
-        <v>1718</v>
       </c>
       <c r="O597" s="16"/>
       <c r="P597" s="16"/>
@@ -31327,13 +31322,13 @@
         <v>18</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C598" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D598" s="11" t="s">
         <v>1710</v>
-      </c>
-      <c r="D598" s="11" t="s">
-        <v>1711</v>
       </c>
       <c r="E598" s="9">
         <v>41312</v>
@@ -31358,7 +31353,7 @@
         <v>11</v>
       </c>
       <c r="M598" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="N598" s="8" t="s">
         <v>1102</v>
@@ -31373,13 +31368,13 @@
         <v>18</v>
       </c>
       <c r="B599" s="14" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C599" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D599" s="18" t="s">
         <v>1710</v>
-      </c>
-      <c r="D599" s="18" t="s">
-        <v>1711</v>
       </c>
       <c r="E599" s="15">
         <v>41956</v>
@@ -31415,13 +31410,13 @@
         <v>18</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C600" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D600" s="11" t="s">
         <v>1710</v>
-      </c>
-      <c r="D600" s="11" t="s">
-        <v>1711</v>
       </c>
       <c r="E600" s="9">
         <v>40591</v>
@@ -31442,10 +31437,10 @@
       </c>
       <c r="L600" s="7"/>
       <c r="M600" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="N600" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="O600" s="17" t="s">
         <v>14</v>
@@ -31459,13 +31454,13 @@
         <v>18</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C601" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D601" s="18" t="s">
         <v>1710</v>
-      </c>
-      <c r="D601" s="18" t="s">
-        <v>1711</v>
       </c>
       <c r="E601" s="15">
         <v>41312</v>
@@ -31482,10 +31477,10 @@
       </c>
       <c r="L601" s="13"/>
       <c r="M601" s="12" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="N601" s="14" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="O601" s="16"/>
       <c r="P601" s="16"/>
@@ -31497,13 +31492,13 @@
         <v>18</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C602" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D602" s="11" t="s">
         <v>1710</v>
-      </c>
-      <c r="D602" s="11" t="s">
-        <v>1711</v>
       </c>
       <c r="E602" s="9">
         <v>41312</v>
@@ -31520,10 +31515,10 @@
       </c>
       <c r="L602" s="7"/>
       <c r="M602" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="N602" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="O602" s="10"/>
       <c r="P602" s="10"/>
@@ -31535,13 +31530,13 @@
         <v>18</v>
       </c>
       <c r="B603" s="14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C603" s="13" t="s">
         <v>1728</v>
       </c>
-      <c r="C603" s="13" t="s">
-        <v>1729</v>
-      </c>
       <c r="D603" s="18" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E603" s="15">
         <v>38391</v>
@@ -31563,10 +31558,10 @@
         <v>41444</v>
       </c>
       <c r="L603" s="14" t="s">
+        <v>1729</v>
+      </c>
+      <c r="M603" s="12" t="s">
         <v>1730</v>
-      </c>
-      <c r="M603" s="12" t="s">
-        <v>1731</v>
       </c>
       <c r="N603" s="14" t="s">
         <v>1213</v>
@@ -31581,13 +31576,13 @@
         <v>18</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D604" s="11" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E604" s="9">
         <v>41312</v>
@@ -31609,10 +31604,10 @@
         <v>42369</v>
       </c>
       <c r="L604" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="M604" s="6" t="s">
         <v>1733</v>
-      </c>
-      <c r="M604" s="6" t="s">
-        <v>1734</v>
       </c>
       <c r="N604" s="8" t="s">
         <v>1102</v>
@@ -31627,13 +31622,13 @@
         <v>18</v>
       </c>
       <c r="B605" s="14" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C605" s="13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D605" s="18" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E605" s="15">
         <v>41956</v>
@@ -31669,13 +31664,13 @@
         <v>18</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D606" s="11" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E606" s="9">
         <v>40591</v>
@@ -31696,7 +31691,7 @@
       </c>
       <c r="L606" s="7"/>
       <c r="M606" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="N606" s="7"/>
       <c r="O606" s="10"/>
@@ -31709,13 +31704,13 @@
         <v>18</v>
       </c>
       <c r="B607" s="14" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C607" s="13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D607" s="18" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E607" s="15">
         <v>41312</v>
@@ -31732,7 +31727,7 @@
       </c>
       <c r="L607" s="13"/>
       <c r="M607" s="12" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="N607" s="13"/>
       <c r="O607" s="16"/>
@@ -31745,13 +31740,13 @@
         <v>18</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D608" s="11" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E608" s="9">
         <v>41312</v>
@@ -31768,13 +31763,13 @@
       </c>
       <c r="L608" s="7"/>
       <c r="M608" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="N608" s="8" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O608" s="17" t="s">
         <v>1740</v>
-      </c>
-      <c r="O608" s="17" t="s">
-        <v>1741</v>
       </c>
       <c r="P608" s="10"/>
       <c r="Q608" s="7"/>
@@ -31785,13 +31780,13 @@
         <v>18</v>
       </c>
       <c r="B609" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C609" s="13" t="s">
         <v>1742</v>
       </c>
-      <c r="C609" s="13" t="s">
+      <c r="D609" s="12" t="s">
         <v>1743</v>
-      </c>
-      <c r="D609" s="12" t="s">
-        <v>1744</v>
       </c>
       <c r="E609" s="15">
         <v>38391</v>
@@ -31807,7 +31802,7 @@
         <v>42004</v>
       </c>
       <c r="L609" s="14" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="M609" s="12" t="s">
         <v>1101</v>
@@ -31825,13 +31820,13 @@
         <v>18</v>
       </c>
       <c r="B610" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C610" s="7" t="s">
         <v>1746</v>
       </c>
-      <c r="C610" s="7" t="s">
-        <v>1747</v>
-      </c>
       <c r="D610" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E610" s="9">
         <v>38391</v>
@@ -31847,7 +31842,7 @@
         <v>39918</v>
       </c>
       <c r="L610" s="8" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="M610" s="6" t="s">
         <v>1101</v>
@@ -31865,13 +31860,13 @@
         <v>18</v>
       </c>
       <c r="B611" s="14" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C611" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E611" s="15">
         <v>39918</v>
@@ -31886,10 +31881,10 @@
       </c>
       <c r="L611" s="13"/>
       <c r="M611" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N611" s="14" t="s">
         <v>1749</v>
-      </c>
-      <c r="N611" s="14" t="s">
-        <v>1750</v>
       </c>
       <c r="O611" s="16"/>
       <c r="P611" s="16"/>
@@ -31901,13 +31896,13 @@
         <v>18</v>
       </c>
       <c r="B612" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C612" s="7" t="s">
         <v>1751</v>
       </c>
-      <c r="C612" s="7" t="s">
+      <c r="D612" s="6" t="s">
         <v>1752</v>
-      </c>
-      <c r="D612" s="6" t="s">
-        <v>1753</v>
       </c>
       <c r="E612" s="9">
         <v>41990</v>
@@ -31943,7 +31938,7 @@
       </c>
       <c r="Q612" s="7"/>
       <c r="R612" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="613" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -31951,13 +31946,13 @@
         <v>18</v>
       </c>
       <c r="B613" s="14" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C613" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D613" s="12" t="s">
         <v>1752</v>
-      </c>
-      <c r="D613" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="E613" s="15">
         <v>43048</v>
@@ -31984,7 +31979,7 @@
         <v>11</v>
       </c>
       <c r="M613" s="12" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="N613" s="14" t="s">
         <v>598</v>
@@ -32001,13 +31996,13 @@
         <v>18</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C614" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D614" s="6" t="s">
         <v>1752</v>
-      </c>
-      <c r="D614" s="6" t="s">
-        <v>1753</v>
       </c>
       <c r="E614" s="9">
         <v>43503</v>
@@ -32034,10 +32029,10 @@
         <v>11</v>
       </c>
       <c r="M614" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="N614" s="8" t="s">
         <v>1758</v>
-      </c>
-      <c r="N614" s="8" t="s">
-        <v>1759</v>
       </c>
       <c r="O614" s="10"/>
       <c r="P614" s="17" t="s">
@@ -32051,13 +32046,13 @@
         <v>30</v>
       </c>
       <c r="B615" s="14" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C615" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D615" s="12" t="s">
         <v>1752</v>
-      </c>
-      <c r="D615" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="E615" s="15">
         <v>43867</v>
@@ -32082,13 +32077,13 @@
         <v>11</v>
       </c>
       <c r="M615" s="12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="N615" s="14" t="s">
         <v>1761</v>
       </c>
-      <c r="N615" s="14" t="s">
+      <c r="O615" s="19" t="s">
         <v>1762</v>
-      </c>
-      <c r="O615" s="19" t="s">
-        <v>1763</v>
       </c>
       <c r="P615" s="19" t="s">
         <v>34</v>
@@ -32101,13 +32096,13 @@
         <v>108</v>
       </c>
       <c r="B616" s="8" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C616" s="7" t="s">
         <v>1764</v>
       </c>
-      <c r="C616" s="7" t="s">
+      <c r="D616" s="6" t="s">
         <v>1765</v>
-      </c>
-      <c r="D616" s="6" t="s">
-        <v>1766</v>
       </c>
       <c r="E616" s="9">
         <v>45636</v>
@@ -32131,7 +32126,7 @@
       </c>
       <c r="M616" s="6"/>
       <c r="N616" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="O616" s="10"/>
       <c r="P616" s="10"/>
@@ -32143,13 +32138,13 @@
         <v>18</v>
       </c>
       <c r="B617" s="14" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C617" s="13" t="s">
         <v>1768</v>
       </c>
-      <c r="C617" s="13" t="s">
+      <c r="D617" s="12" t="s">
         <v>1769</v>
-      </c>
-      <c r="D617" s="12" t="s">
-        <v>1770</v>
       </c>
       <c r="E617" s="15">
         <v>38391</v>
@@ -32166,7 +32161,7 @@
       </c>
       <c r="L617" s="13"/>
       <c r="M617" s="12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="N617" s="13"/>
       <c r="O617" s="16"/>
@@ -32179,13 +32174,13 @@
         <v>18</v>
       </c>
       <c r="B618" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D618" s="6" t="s">
         <v>1772</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D618" s="6" t="s">
-        <v>1773</v>
       </c>
       <c r="E618" s="9">
         <v>38931</v>
@@ -32208,7 +32203,7 @@
       </c>
       <c r="L618" s="7"/>
       <c r="M618" s="6" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="N618" s="7"/>
       <c r="O618" s="10"/>
@@ -32221,13 +32216,13 @@
         <v>18</v>
       </c>
       <c r="B619" s="14" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C619" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D619" s="12" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E619" s="15">
         <v>39533</v>
@@ -32242,7 +32237,7 @@
       </c>
       <c r="L619" s="13"/>
       <c r="M619" s="12" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="N619" s="13"/>
       <c r="O619" s="16"/>
@@ -32255,13 +32250,13 @@
         <v>18</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E620" s="9">
         <v>40395</v>
@@ -32286,7 +32281,7 @@
         <v>11</v>
       </c>
       <c r="M620" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="N620" s="8" t="s">
         <v>48</v>
@@ -32301,13 +32296,13 @@
         <v>18</v>
       </c>
       <c r="B621" s="14" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C621" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E621" s="15">
         <v>41038</v>
@@ -32345,13 +32340,13 @@
         <v>18</v>
       </c>
       <c r="B622" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D622" s="6" t="s">
         <v>1780</v>
-      </c>
-      <c r="C622" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D622" s="6" t="s">
-        <v>1781</v>
       </c>
       <c r="E622" s="9">
         <v>41676</v>
@@ -32377,7 +32372,7 @@
       </c>
       <c r="M622" s="6"/>
       <c r="N622" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O622" s="10"/>
       <c r="P622" s="10"/>
@@ -32389,13 +32384,13 @@
         <v>18</v>
       </c>
       <c r="B623" s="14" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C623" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E623" s="15">
         <v>41676</v>
@@ -32420,10 +32415,10 @@
         <v>11</v>
       </c>
       <c r="M623" s="12" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="N623" s="14" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O623" s="16"/>
       <c r="P623" s="16"/>
@@ -32435,13 +32430,13 @@
         <v>18</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E624" s="9">
         <v>42957</v>
@@ -32466,10 +32461,10 @@
         <v>11</v>
       </c>
       <c r="M624" s="6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="N624" s="8" t="s">
         <v>1786</v>
-      </c>
-      <c r="N624" s="8" t="s">
-        <v>1787</v>
       </c>
       <c r="O624" s="10"/>
       <c r="P624" s="17" t="s">
@@ -32483,13 +32478,13 @@
         <v>30</v>
       </c>
       <c r="B625" s="14" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C625" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E625" s="15">
         <v>43328</v>
@@ -32527,13 +32522,13 @@
         <v>18</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E626" s="9">
         <v>43594</v>
@@ -32552,7 +32547,7 @@
         <v>11</v>
       </c>
       <c r="M626" s="6" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="N626" s="8" t="s">
         <v>698</v>
@@ -32569,13 +32564,13 @@
         <v>18</v>
       </c>
       <c r="B627" s="14" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C627" s="13" t="s">
         <v>1791</v>
       </c>
-      <c r="C627" s="13" t="s">
+      <c r="D627" s="18" t="s">
         <v>1792</v>
-      </c>
-      <c r="D627" s="18" t="s">
-        <v>1793</v>
       </c>
       <c r="E627" s="15">
         <v>38931</v>
@@ -32598,7 +32593,7 @@
       </c>
       <c r="L627" s="13"/>
       <c r="M627" s="12" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="N627" s="13"/>
       <c r="O627" s="16"/>
@@ -32611,13 +32606,13 @@
         <v>18</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C628" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D628" s="11" t="s">
         <v>1792</v>
-      </c>
-      <c r="D628" s="11" t="s">
-        <v>1793</v>
       </c>
       <c r="E628" s="9">
         <v>39750</v>
@@ -32640,7 +32635,7 @@
       </c>
       <c r="L628" s="7"/>
       <c r="M628" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N628" s="7"/>
       <c r="O628" s="10"/>
@@ -32653,13 +32648,13 @@
         <v>18</v>
       </c>
       <c r="B629" s="14" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C629" s="13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D629" s="18" t="s">
         <v>1792</v>
-      </c>
-      <c r="D629" s="18" t="s">
-        <v>1793</v>
       </c>
       <c r="E629" s="15">
         <v>39854</v>
@@ -32682,10 +32677,10 @@
       </c>
       <c r="L629" s="13"/>
       <c r="M629" s="12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N629" s="14" t="s">
         <v>1798</v>
-      </c>
-      <c r="N629" s="14" t="s">
-        <v>1799</v>
       </c>
       <c r="O629" s="16"/>
       <c r="P629" s="16"/>
@@ -32697,13 +32692,13 @@
         <v>18</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C630" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D630" s="11" t="s">
         <v>1792</v>
-      </c>
-      <c r="D630" s="11" t="s">
-        <v>1793</v>
       </c>
       <c r="E630" s="9">
         <v>39295</v>
@@ -32726,7 +32721,7 @@
       </c>
       <c r="L630" s="7"/>
       <c r="M630" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="N630" s="7"/>
       <c r="O630" s="10"/>
@@ -32739,13 +32734,13 @@
         <v>18</v>
       </c>
       <c r="B631" s="14" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C631" s="13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D631" s="18" t="s">
         <v>1792</v>
-      </c>
-      <c r="D631" s="18" t="s">
-        <v>1793</v>
       </c>
       <c r="E631" s="15">
         <v>41137</v>
@@ -32771,7 +32766,7 @@
       </c>
       <c r="M631" s="12"/>
       <c r="N631" s="14" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="O631" s="16"/>
       <c r="P631" s="16"/>
@@ -32783,13 +32778,13 @@
         <v>18</v>
       </c>
       <c r="B632" s="8" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D632" s="6" t="s">
         <v>1804</v>
-      </c>
-      <c r="C632" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D632" s="6" t="s">
-        <v>1805</v>
       </c>
       <c r="E632" s="9">
         <v>41765</v>
@@ -32815,7 +32810,7 @@
       </c>
       <c r="M632" s="6"/>
       <c r="N632" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O632" s="10"/>
       <c r="P632" s="10"/>
@@ -32827,13 +32822,13 @@
         <v>18</v>
       </c>
       <c r="B633" s="14" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C633" s="13" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D633" s="12" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E633" s="15">
         <v>41956</v>
@@ -32858,7 +32853,7 @@
         <v>11</v>
       </c>
       <c r="M633" s="12" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="N633" s="14" t="s">
         <v>1260</v>
@@ -32873,13 +32868,13 @@
         <v>30</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E634" s="9">
         <v>42957</v>
@@ -32902,10 +32897,10 @@
         <v>11</v>
       </c>
       <c r="M634" s="6" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="N634" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="O634" s="10"/>
       <c r="P634" s="17" t="s">
@@ -32919,13 +32914,13 @@
         <v>18</v>
       </c>
       <c r="B635" s="14" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C635" s="13" t="s">
         <v>1810</v>
       </c>
-      <c r="C635" s="13" t="s">
+      <c r="D635" s="12" t="s">
         <v>1811</v>
-      </c>
-      <c r="D635" s="12" t="s">
-        <v>1812</v>
       </c>
       <c r="E635" s="15">
         <v>39750</v>
@@ -32961,13 +32956,13 @@
         <v>18</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C636" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D636" s="6" t="s">
         <v>1811</v>
-      </c>
-      <c r="D636" s="6" t="s">
-        <v>1812</v>
       </c>
       <c r="E636" s="9">
         <v>41956</v>
@@ -32992,7 +32987,7 @@
         <v>11</v>
       </c>
       <c r="M636" s="6" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="N636" s="8" t="s">
         <v>68</v>
@@ -33007,13 +33002,13 @@
         <v>18</v>
       </c>
       <c r="B637" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C637" s="13" t="s">
         <v>1815</v>
       </c>
-      <c r="C637" s="13" t="s">
+      <c r="D637" s="12" t="s">
         <v>1816</v>
-      </c>
-      <c r="D637" s="12" t="s">
-        <v>1817</v>
       </c>
       <c r="E637" s="15">
         <v>39750</v>
@@ -33049,13 +33044,13 @@
         <v>18</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C638" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D638" s="6" t="s">
         <v>1816</v>
-      </c>
-      <c r="D638" s="6" t="s">
-        <v>1817</v>
       </c>
       <c r="E638" s="9">
         <v>41956</v>
@@ -33093,13 +33088,13 @@
         <v>18</v>
       </c>
       <c r="B639" s="14" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C639" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D639" s="12" t="s">
         <v>1819</v>
-      </c>
-      <c r="C639" s="13" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D639" s="12" t="s">
-        <v>1820</v>
       </c>
       <c r="E639" s="15">
         <v>42775</v>
@@ -33124,10 +33119,10 @@
         <v>11</v>
       </c>
       <c r="M639" s="12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N639" s="14" t="s">
         <v>1821</v>
-      </c>
-      <c r="N639" s="14" t="s">
-        <v>1822</v>
       </c>
       <c r="O639" s="16"/>
       <c r="P639" s="16"/>
@@ -33139,13 +33134,13 @@
         <v>18</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E640" s="9">
         <v>42957</v>
@@ -33168,13 +33163,13 @@
       </c>
       <c r="L640" s="7"/>
       <c r="M640" s="6" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="N640" s="8" t="s">
         <v>68</v>
       </c>
       <c r="O640" s="17" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P640" s="10"/>
       <c r="Q640" s="7"/>
@@ -33185,13 +33180,13 @@
         <v>30</v>
       </c>
       <c r="B641" s="14" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C641" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E641" s="15">
         <v>45272</v>
@@ -33225,13 +33220,13 @@
         <v>18</v>
       </c>
       <c r="B642" s="8" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C642" s="7" t="s">
         <v>1827</v>
       </c>
-      <c r="C642" s="7" t="s">
+      <c r="D642" s="11" t="s">
         <v>1828</v>
-      </c>
-      <c r="D642" s="11" t="s">
-        <v>1829</v>
       </c>
       <c r="E642" s="9">
         <v>39153</v>
@@ -33254,7 +33249,7 @@
       </c>
       <c r="L642" s="7"/>
       <c r="M642" s="6" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="N642" s="7"/>
       <c r="O642" s="10"/>
@@ -33267,13 +33262,13 @@
         <v>18</v>
       </c>
       <c r="B643" s="14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C643" s="13" t="s">
         <v>1831</v>
       </c>
-      <c r="C643" s="13" t="s">
+      <c r="D643" s="18" t="s">
         <v>1832</v>
-      </c>
-      <c r="D643" s="18" t="s">
-        <v>1833</v>
       </c>
       <c r="E643" s="15">
         <v>39153</v>
@@ -33296,7 +33291,7 @@
       </c>
       <c r="L643" s="13"/>
       <c r="M643" s="12" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="N643" s="13"/>
       <c r="O643" s="16"/>
@@ -35181,13 +35176,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74060A2F-801D-429F-AF35-8782A3D5D878}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{855DB738-8C69-4CE0-9E3B-BBB24212EAAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97FF3AE2-7D0E-43B4-8DBA-C8FDC688A344}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF0724CC-F434-456A-A12A-607C0563552D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B87D73-4338-421B-BB2F-79DA4269B256}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03CFFEA-9EE4-488C-B52C-B3A7FB989A88}"/>
 </file>
--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -14835,7 +14835,7 @@
     </row>
     <row r="213" s="1" customFormat="1" ht="62.9294" customHeight="1">
       <c r="A213" s="12" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="B213" s="14" t="s">
         <v>620</v>
@@ -14852,9 +14852,15 @@
       <c r="F213" s="15">
         <v>45757</v>
       </c>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
-      <c r="I213" s="15"/>
+      <c r="G213" s="15">
+        <v>45918</v>
+      </c>
+      <c r="H213" s="15">
+        <v>45918</v>
+      </c>
+      <c r="I213" s="15">
+        <v>45931</v>
+      </c>
       <c r="J213" s="16"/>
       <c r="K213" s="15"/>
       <c r="L213" s="14" t="s">
@@ -35176,13 +35182,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{855DB738-8C69-4CE0-9E3B-BBB24212EAAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BC7834-0D43-4BB4-9AC1-2395548E85F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF0724CC-F434-456A-A12A-607C0563552D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DE6220-9EE9-45C8-B180-B1018D426F44}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03CFFEA-9EE4-488C-B52C-B3A7FB989A88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CC5F27-8A25-4F67-AB52-5C6B22F9C1BE}"/>
 </file>
--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1834">
   <si>
     <t>Status</t>
   </si>
@@ -28411,7 +28411,9 @@
       <c r="I529" s="15">
         <v>46296</v>
       </c>
-      <c r="J529" s="16"/>
+      <c r="J529" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="K529" s="15"/>
       <c r="L529" s="25" t="s">
         <v>11</v>
@@ -28455,7 +28457,9 @@
       <c r="I530" s="9">
         <v>46296</v>
       </c>
-      <c r="J530" s="10"/>
+      <c r="J530" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="K530" s="9"/>
       <c r="L530" s="8" t="s">
         <v>11</v>
@@ -35182,13 +35186,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BC7834-0D43-4BB4-9AC1-2395548E85F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD817F9F-0E06-4B36-AED4-B4489D89AFEE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DE6220-9EE9-45C8-B180-B1018D426F44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFEC1A66-8EF4-4A5A-8015-B8EB40047F9A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CC5F27-8A25-4F67-AB52-5C6B22F9C1BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FC2B42-148A-4040-9719-FFE6C9BFEAC1}"/>
 </file>
--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1833">
   <si>
     <t>Status</t>
   </si>
@@ -4638,9 +4638,6 @@
   </si>
   <si>
     <t>PRC-026-2</t>
-  </si>
-  <si>
-    <t>To ensure that load-responsive protective relays are expected to not trip in response to stable power swings during non-Fault conditions..... See Standard details..</t>
   </si>
   <si>
     <t>PRC-027-1</t>
@@ -14814,7 +14811,9 @@
       <c r="J212" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K212" s="9"/>
+      <c r="K212" s="9">
+        <v>45930</v>
+      </c>
       <c r="L212" s="8" t="s">
         <v>11</v>
       </c>
@@ -28260,7 +28259,7 @@
         <v>1528</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E526" s="9">
         <v>44329</v>
@@ -28300,13 +28299,13 @@
         <v>30</v>
       </c>
       <c r="B527" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C527" s="13" t="s">
         <v>1533</v>
       </c>
-      <c r="C527" s="13" t="s">
+      <c r="D527" s="12" t="s">
         <v>1534</v>
-      </c>
-      <c r="D527" s="12" t="s">
-        <v>1535</v>
       </c>
       <c r="E527" s="15">
         <v>42313</v>
@@ -28330,7 +28329,7 @@
       </c>
       <c r="M527" s="12"/>
       <c r="N527" s="14" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="O527" s="16"/>
       <c r="P527" s="19" t="s">
@@ -28344,13 +28343,13 @@
         <v>30</v>
       </c>
       <c r="B528" s="8" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="D528" s="6" t="s">
         <v>1538</v>
-      </c>
-      <c r="D528" s="6" t="s">
-        <v>1539</v>
       </c>
       <c r="E528" s="9">
         <v>45573</v>
@@ -28388,13 +28387,13 @@
         <v>108</v>
       </c>
       <c r="B529" s="14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C529" s="13" t="s">
         <v>1540</v>
       </c>
-      <c r="C529" s="13" t="s">
+      <c r="D529" s="12" t="s">
         <v>1541</v>
-      </c>
-      <c r="D529" s="12" t="s">
-        <v>1542</v>
       </c>
       <c r="E529" s="15">
         <v>45573</v>
@@ -28434,13 +28433,13 @@
         <v>108</v>
       </c>
       <c r="B530" s="8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>1543</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="D530" s="6" t="s">
         <v>1544</v>
-      </c>
-      <c r="D530" s="6" t="s">
-        <v>1545</v>
       </c>
       <c r="E530" s="9">
         <v>45573</v>
@@ -28465,10 +28464,10 @@
         <v>11</v>
       </c>
       <c r="M530" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N530" s="8" t="s">
         <v>1546</v>
-      </c>
-      <c r="N530" s="8" t="s">
-        <v>1547</v>
       </c>
       <c r="O530" s="10"/>
       <c r="P530" s="10"/>
@@ -28480,13 +28479,13 @@
         <v>18</v>
       </c>
       <c r="B531" s="14" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C531" s="13" t="s">
         <v>1548</v>
       </c>
-      <c r="C531" s="13" t="s">
+      <c r="D531" s="12" t="s">
         <v>1549</v>
-      </c>
-      <c r="D531" s="12" t="s">
-        <v>1550</v>
       </c>
       <c r="E531" s="15">
         <v>39153</v>
@@ -28509,7 +28508,7 @@
       </c>
       <c r="L531" s="13"/>
       <c r="M531" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="N531" s="13"/>
       <c r="O531" s="16"/>
@@ -28522,13 +28521,13 @@
         <v>18</v>
       </c>
       <c r="B532" s="8" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C532" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="C532" s="7" t="s">
+      <c r="D532" s="11" t="s">
         <v>1553</v>
-      </c>
-      <c r="D532" s="11" t="s">
-        <v>1554</v>
       </c>
       <c r="E532" s="9">
         <v>39153</v>
@@ -28551,7 +28550,7 @@
       </c>
       <c r="L532" s="7"/>
       <c r="M532" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="N532" s="7"/>
       <c r="O532" s="10"/>
@@ -28564,13 +28563,13 @@
         <v>18</v>
       </c>
       <c r="B533" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C533" s="13" t="s">
         <v>1555</v>
       </c>
-      <c r="C533" s="13" t="s">
+      <c r="D533" s="18" t="s">
         <v>1556</v>
-      </c>
-      <c r="D533" s="18" t="s">
-        <v>1557</v>
       </c>
       <c r="E533" s="15">
         <v>39153</v>
@@ -28593,7 +28592,7 @@
       </c>
       <c r="L533" s="13"/>
       <c r="M533" s="12" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="N533" s="13"/>
       <c r="O533" s="16"/>
@@ -28606,13 +28605,13 @@
         <v>18</v>
       </c>
       <c r="B534" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C534" s="7" t="s">
         <v>1559</v>
       </c>
-      <c r="C534" s="7" t="s">
+      <c r="D534" s="6" t="s">
         <v>1560</v>
-      </c>
-      <c r="D534" s="6" t="s">
-        <v>1561</v>
       </c>
       <c r="E534" s="9">
         <v>38391</v>
@@ -28629,7 +28628,7 @@
       </c>
       <c r="L534" s="7"/>
       <c r="M534" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="N534" s="7"/>
       <c r="O534" s="10"/>
@@ -28642,13 +28641,13 @@
         <v>18</v>
       </c>
       <c r="B535" s="14" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C535" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D535" s="12" t="s">
         <v>1560</v>
-      </c>
-      <c r="D535" s="12" t="s">
-        <v>1561</v>
       </c>
       <c r="E535" s="15">
         <v>39022</v>
@@ -28671,7 +28670,7 @@
       </c>
       <c r="L535" s="13"/>
       <c r="M535" s="12" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="N535" s="13"/>
       <c r="O535" s="16"/>
@@ -28684,13 +28683,13 @@
         <v>18</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C536" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D536" s="6" t="s">
         <v>1560</v>
-      </c>
-      <c r="D536" s="6" t="s">
-        <v>1561</v>
       </c>
       <c r="E536" s="9">
         <v>40310</v>
@@ -28714,7 +28713,7 @@
       <c r="L536" s="7"/>
       <c r="M536" s="6"/>
       <c r="N536" s="8" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O536" s="10"/>
       <c r="P536" s="10"/>
@@ -28726,13 +28725,13 @@
         <v>18</v>
       </c>
       <c r="B537" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C537" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="C537" s="13" t="s">
+      <c r="D537" s="12" t="s">
         <v>1568</v>
-      </c>
-      <c r="D537" s="12" t="s">
-        <v>1569</v>
       </c>
       <c r="E537" s="15">
         <v>41038</v>
@@ -28764,13 +28763,13 @@
         <v>18</v>
       </c>
       <c r="B538" s="8" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D538" s="6" t="s">
         <v>1570</v>
-      </c>
-      <c r="C538" s="7" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D538" s="6" t="s">
-        <v>1571</v>
       </c>
       <c r="E538" s="9">
         <v>42047</v>
@@ -28795,7 +28794,7 @@
         <v>11</v>
       </c>
       <c r="M538" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="N538" s="8" t="s">
         <v>863</v>
@@ -28814,13 +28813,13 @@
         <v>18</v>
       </c>
       <c r="B539" s="14" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E539" s="15">
         <v>42775</v>
@@ -28845,7 +28844,7 @@
         <v>11</v>
       </c>
       <c r="M539" s="12" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="N539" s="14" t="s">
         <v>885</v>
@@ -28864,13 +28863,13 @@
         <v>18</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E540" s="9">
         <v>43594</v>
@@ -28910,13 +28909,13 @@
         <v>30</v>
       </c>
       <c r="B541" s="14" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E541" s="15">
         <v>44329</v>
@@ -28943,7 +28942,7 @@
         <v>452</v>
       </c>
       <c r="O541" s="19" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="P541" s="19" t="s">
         <v>721</v>
@@ -28956,13 +28955,13 @@
         <v>18</v>
       </c>
       <c r="B542" s="8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C542" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="D542" s="6" t="s">
         <v>1579</v>
-      </c>
-      <c r="D542" s="6" t="s">
-        <v>1580</v>
       </c>
       <c r="E542" s="9">
         <v>38391</v>
@@ -28992,13 +28991,13 @@
         <v>18</v>
       </c>
       <c r="B543" s="14" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C543" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D543" s="12" t="s">
         <v>1579</v>
-      </c>
-      <c r="D543" s="12" t="s">
-        <v>1580</v>
       </c>
       <c r="E543" s="15">
         <v>38931</v>
@@ -29013,7 +29012,7 @@
       </c>
       <c r="L543" s="13"/>
       <c r="M543" s="12" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="N543" s="13"/>
       <c r="O543" s="16"/>
@@ -29026,13 +29025,13 @@
         <v>18</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C544" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D544" s="6" t="s">
         <v>1579</v>
-      </c>
-      <c r="D544" s="6" t="s">
-        <v>1580</v>
       </c>
       <c r="E544" s="9">
         <v>39022</v>
@@ -29055,7 +29054,7 @@
       </c>
       <c r="L544" s="7"/>
       <c r="M544" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N544" s="7"/>
       <c r="O544" s="10"/>
@@ -29068,13 +29067,13 @@
         <v>18</v>
       </c>
       <c r="B545" s="14" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C545" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D545" s="12" t="s">
         <v>1579</v>
-      </c>
-      <c r="D545" s="12" t="s">
-        <v>1580</v>
       </c>
       <c r="E545" s="15">
         <v>41010</v>
@@ -29098,7 +29097,7 @@
       <c r="L545" s="13"/>
       <c r="M545" s="12"/>
       <c r="N545" s="14" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O545" s="16"/>
       <c r="P545" s="16"/>
@@ -29110,13 +29109,13 @@
         <v>18</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C546" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D546" s="6" t="s">
         <v>1579</v>
-      </c>
-      <c r="D546" s="6" t="s">
-        <v>1580</v>
       </c>
       <c r="E546" s="9">
         <v>39854</v>
@@ -29139,7 +29138,7 @@
       </c>
       <c r="L546" s="7"/>
       <c r="M546" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="N546" s="7"/>
       <c r="O546" s="10"/>
@@ -29152,13 +29151,13 @@
         <v>18</v>
       </c>
       <c r="B547" s="14" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C547" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D547" s="12" t="s">
         <v>1579</v>
-      </c>
-      <c r="D547" s="12" t="s">
-        <v>1580</v>
       </c>
       <c r="E547" s="15">
         <v>40486</v>
@@ -29181,7 +29180,7 @@
       </c>
       <c r="L547" s="13"/>
       <c r="M547" s="12" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="N547" s="13"/>
       <c r="O547" s="16"/>
@@ -29194,13 +29193,13 @@
         <v>18</v>
       </c>
       <c r="B548" s="8" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C548" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="D548" s="6" t="s">
         <v>1591</v>
-      </c>
-      <c r="D548" s="6" t="s">
-        <v>1592</v>
       </c>
       <c r="E548" s="9">
         <v>41038</v>
@@ -29232,13 +29231,13 @@
         <v>30</v>
       </c>
       <c r="B549" s="14" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C549" s="13" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D549" s="12" t="s">
         <v>1593</v>
-      </c>
-      <c r="C549" s="13" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D549" s="12" t="s">
-        <v>1594</v>
       </c>
       <c r="E549" s="15">
         <v>41956</v>
@@ -29263,13 +29262,13 @@
         <v>11</v>
       </c>
       <c r="M549" s="12" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="N549" s="14" t="s">
         <v>863</v>
       </c>
       <c r="O549" s="19" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="P549" s="19" t="s">
         <v>34</v>
@@ -29282,13 +29281,13 @@
         <v>108</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E550" s="9">
         <v>45222</v>
@@ -29326,13 +29325,13 @@
         <v>18</v>
       </c>
       <c r="B551" s="14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C551" s="13" t="s">
         <v>1598</v>
       </c>
-      <c r="C551" s="13" t="s">
+      <c r="D551" s="12" t="s">
         <v>1599</v>
-      </c>
-      <c r="D551" s="12" t="s">
-        <v>1600</v>
       </c>
       <c r="E551" s="15">
         <v>38391</v>
@@ -29355,7 +29354,7 @@
       </c>
       <c r="L551" s="13"/>
       <c r="M551" s="12" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="N551" s="13"/>
       <c r="O551" s="16"/>
@@ -29368,13 +29367,13 @@
         <v>18</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C552" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D552" s="6" t="s">
         <v>1599</v>
-      </c>
-      <c r="D552" s="6" t="s">
-        <v>1600</v>
       </c>
       <c r="E552" s="9">
         <v>39738</v>
@@ -29412,13 +29411,13 @@
         <v>18</v>
       </c>
       <c r="B553" s="14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C553" s="13" t="s">
         <v>1603</v>
       </c>
-      <c r="C553" s="13" t="s">
+      <c r="D553" s="12" t="s">
         <v>1604</v>
-      </c>
-      <c r="D553" s="12" t="s">
-        <v>1605</v>
       </c>
       <c r="E553" s="15">
         <v>41038</v>
@@ -29450,13 +29449,13 @@
         <v>18</v>
       </c>
       <c r="B554" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D554" s="6" t="s">
         <v>1606</v>
-      </c>
-      <c r="C554" s="7" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D554" s="6" t="s">
-        <v>1607</v>
       </c>
       <c r="E554" s="9">
         <v>41956</v>
@@ -29483,7 +29482,7 @@
         <v>11</v>
       </c>
       <c r="M554" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="N554" s="8" t="s">
         <v>863</v>
@@ -29500,13 +29499,13 @@
         <v>18</v>
       </c>
       <c r="B555" s="14" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C555" s="13" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E555" s="15">
         <v>43867</v>
@@ -29546,13 +29545,13 @@
         <v>18</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E556" s="9">
         <v>44358</v>
@@ -29592,13 +29591,13 @@
         <v>30</v>
       </c>
       <c r="B557" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C557" s="13" t="s">
         <v>1611</v>
       </c>
-      <c r="C557" s="13" t="s">
+      <c r="D557" s="18" t="s">
         <v>1612</v>
-      </c>
-      <c r="D557" s="18" t="s">
-        <v>1613</v>
       </c>
       <c r="E557" s="15">
         <v>45161</v>
@@ -29638,13 +29637,13 @@
         <v>108</v>
       </c>
       <c r="B558" s="8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1614</v>
       </c>
-      <c r="C558" s="7" t="s">
+      <c r="D558" s="6" t="s">
         <v>1615</v>
-      </c>
-      <c r="D558" s="6" t="s">
-        <v>1616</v>
       </c>
       <c r="E558" s="9">
         <v>45636</v>
@@ -29680,13 +29679,13 @@
         <v>18</v>
       </c>
       <c r="B559" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C559" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D559" s="12" t="s">
         <v>1617</v>
-      </c>
-      <c r="C559" s="13" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D559" s="12" t="s">
-        <v>1618</v>
       </c>
       <c r="E559" s="15">
         <v>38391</v>
@@ -29703,7 +29702,7 @@
       </c>
       <c r="L559" s="13"/>
       <c r="M559" s="12" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="N559" s="13"/>
       <c r="O559" s="16"/>
@@ -29716,13 +29715,13 @@
         <v>18</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E560" s="9">
         <v>39022</v>
@@ -29745,7 +29744,7 @@
       </c>
       <c r="L560" s="7"/>
       <c r="M560" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="N560" s="7"/>
       <c r="O560" s="10"/>
@@ -29758,13 +29757,13 @@
         <v>18</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C561" s="13" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D561" s="12" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E561" s="15">
         <v>39022</v>
@@ -29802,13 +29801,13 @@
         <v>18</v>
       </c>
       <c r="B562" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>1623</v>
       </c>
-      <c r="C562" s="7" t="s">
+      <c r="D562" s="6" t="s">
         <v>1624</v>
-      </c>
-      <c r="D562" s="6" t="s">
-        <v>1625</v>
       </c>
       <c r="E562" s="9">
         <v>38391</v>
@@ -29823,7 +29822,7 @@
       </c>
       <c r="L562" s="7"/>
       <c r="M562" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N562" s="7"/>
       <c r="O562" s="10"/>
@@ -29836,13 +29835,13 @@
         <v>18</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C563" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D563" s="12" t="s">
         <v>1624</v>
-      </c>
-      <c r="D563" s="12" t="s">
-        <v>1625</v>
       </c>
       <c r="E563" s="15">
         <v>38755</v>
@@ -29865,7 +29864,7 @@
       </c>
       <c r="L563" s="13"/>
       <c r="M563" s="12" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="N563" s="13"/>
       <c r="O563" s="16"/>
@@ -29878,13 +29877,13 @@
         <v>18</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C564" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D564" s="6" t="s">
         <v>1624</v>
-      </c>
-      <c r="D564" s="6" t="s">
-        <v>1625</v>
       </c>
       <c r="E564" s="9">
         <v>39750</v>
@@ -29907,7 +29906,7 @@
       </c>
       <c r="L564" s="7"/>
       <c r="M564" s="6" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="N564" s="7"/>
       <c r="O564" s="10"/>
@@ -29920,13 +29919,13 @@
         <v>18</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C565" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D565" s="12" t="s">
         <v>1624</v>
-      </c>
-      <c r="D565" s="12" t="s">
-        <v>1625</v>
       </c>
       <c r="E565" s="15">
         <v>40122</v>
@@ -29949,7 +29948,7 @@
       </c>
       <c r="L565" s="13"/>
       <c r="M565" s="12" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="N565" s="13"/>
       <c r="O565" s="16"/>
@@ -29962,13 +29961,13 @@
         <v>18</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C566" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D566" s="6" t="s">
         <v>1624</v>
-      </c>
-      <c r="D566" s="6" t="s">
-        <v>1625</v>
       </c>
       <c r="E566" s="9">
         <v>39738</v>
@@ -29989,7 +29988,7 @@
       </c>
       <c r="L566" s="7"/>
       <c r="M566" s="6" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="N566" s="7"/>
       <c r="O566" s="10"/>
@@ -30002,13 +30001,13 @@
         <v>18</v>
       </c>
       <c r="B567" s="14" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C567" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D567" s="12" t="s">
         <v>1624</v>
-      </c>
-      <c r="D567" s="12" t="s">
-        <v>1625</v>
       </c>
       <c r="E567" s="15">
         <v>39738</v>
@@ -30046,13 +30045,13 @@
         <v>18</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C568" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D568" s="6" t="s">
         <v>1624</v>
-      </c>
-      <c r="D568" s="6" t="s">
-        <v>1625</v>
       </c>
       <c r="E568" s="9">
         <v>41956</v>
@@ -30084,13 +30083,13 @@
         <v>18</v>
       </c>
       <c r="B569" s="14" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C569" s="13" t="s">
         <v>1636</v>
       </c>
-      <c r="C569" s="13" t="s">
+      <c r="D569" s="12" t="s">
         <v>1637</v>
-      </c>
-      <c r="D569" s="12" t="s">
-        <v>1638</v>
       </c>
       <c r="E569" s="15">
         <v>38391</v>
@@ -30109,7 +30108,7 @@
         <v>11</v>
       </c>
       <c r="M569" s="12" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="N569" s="13"/>
       <c r="O569" s="16"/>
@@ -30122,13 +30121,13 @@
         <v>18</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C570" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D570" s="6" t="s">
         <v>1637</v>
-      </c>
-      <c r="D570" s="6" t="s">
-        <v>1638</v>
       </c>
       <c r="E570" s="9">
         <v>39022</v>
@@ -30153,10 +30152,10 @@
         <v>11</v>
       </c>
       <c r="M570" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N570" s="8" t="s">
         <v>1641</v>
-      </c>
-      <c r="N570" s="8" t="s">
-        <v>1642</v>
       </c>
       <c r="O570" s="10"/>
       <c r="P570" s="10"/>
@@ -30168,13 +30167,13 @@
         <v>18</v>
       </c>
       <c r="B571" s="14" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C571" s="13" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D571" s="12" t="s">
         <v>1637</v>
-      </c>
-      <c r="D571" s="12" t="s">
-        <v>1638</v>
       </c>
       <c r="E571" s="15">
         <v>39738</v>
@@ -30196,7 +30195,7 @@
         <v>42825</v>
       </c>
       <c r="L571" s="14" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="M571" s="12"/>
       <c r="N571" s="14" t="s">
@@ -30212,13 +30211,13 @@
         <v>18</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C572" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D572" s="6" t="s">
         <v>1637</v>
-      </c>
-      <c r="D572" s="6" t="s">
-        <v>1638</v>
       </c>
       <c r="E572" s="9">
         <v>41220</v>
@@ -30238,7 +30237,7 @@
       </c>
       <c r="M572" s="6"/>
       <c r="N572" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="O572" s="10"/>
       <c r="P572" s="10"/>
@@ -30250,13 +30249,13 @@
         <v>18</v>
       </c>
       <c r="B573" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C573" s="13" t="s">
         <v>1647</v>
       </c>
-      <c r="C573" s="13" t="s">
+      <c r="D573" s="12" t="s">
         <v>1648</v>
-      </c>
-      <c r="D573" s="12" t="s">
-        <v>1649</v>
       </c>
       <c r="E573" s="15">
         <v>38391</v>
@@ -30278,11 +30277,11 @@
         <v>42825</v>
       </c>
       <c r="L573" s="14" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="M573" s="12"/>
       <c r="N573" s="14" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="O573" s="16"/>
       <c r="P573" s="16"/>
@@ -30294,13 +30293,13 @@
         <v>18</v>
       </c>
       <c r="B574" s="8" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C574" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="C574" s="7" t="s">
+      <c r="D574" s="6" t="s">
         <v>1652</v>
-      </c>
-      <c r="D574" s="6" t="s">
-        <v>1653</v>
       </c>
       <c r="E574" s="9">
         <v>39750</v>
@@ -30323,7 +30322,7 @@
       </c>
       <c r="L574" s="7"/>
       <c r="M574" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="N574" s="7"/>
       <c r="O574" s="10"/>
@@ -30336,13 +30335,13 @@
         <v>18</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C575" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D575" s="12" t="s">
         <v>1652</v>
-      </c>
-      <c r="D575" s="12" t="s">
-        <v>1653</v>
       </c>
       <c r="E575" s="15">
         <v>41676</v>
@@ -30378,13 +30377,13 @@
         <v>18</v>
       </c>
       <c r="B576" s="8" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1656</v>
       </c>
-      <c r="C576" s="7" t="s">
+      <c r="D576" s="6" t="s">
         <v>1657</v>
-      </c>
-      <c r="D576" s="6" t="s">
-        <v>1658</v>
       </c>
       <c r="E576" s="9">
         <v>38391</v>
@@ -30401,10 +30400,10 @@
       </c>
       <c r="L576" s="7"/>
       <c r="M576" s="6" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N576" s="8" t="s">
         <v>1659</v>
-      </c>
-      <c r="N576" s="8" t="s">
-        <v>1660</v>
       </c>
       <c r="O576" s="10"/>
       <c r="P576" s="10"/>
@@ -30416,13 +30415,13 @@
         <v>18</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C577" s="13" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D577" s="12" t="s">
         <v>1657</v>
-      </c>
-      <c r="D577" s="12" t="s">
-        <v>1658</v>
       </c>
       <c r="E577" s="15">
         <v>39022</v>
@@ -30456,10 +30455,10 @@
         <v>18</v>
       </c>
       <c r="B578" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C578" s="7" t="s">
         <v>1662</v>
-      </c>
-      <c r="C578" s="7" t="s">
-        <v>1663</v>
       </c>
       <c r="D578" s="6" t="s">
         <v>1016</v>
@@ -30485,7 +30484,7 @@
         <v>11</v>
       </c>
       <c r="M578" s="6" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="N578" s="8" t="s">
         <v>1018</v>
@@ -30502,10 +30501,10 @@
         <v>30</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D579" s="12" t="s">
         <v>1016</v>
@@ -30531,7 +30530,7 @@
         <v>11</v>
       </c>
       <c r="M579" s="12" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="N579" s="14" t="s">
         <v>1018</v>
@@ -30550,13 +30549,13 @@
         <v>18</v>
       </c>
       <c r="B580" s="8" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C580" s="7" t="s">
         <v>1667</v>
       </c>
-      <c r="C580" s="7" t="s">
+      <c r="D580" s="6" t="s">
         <v>1668</v>
-      </c>
-      <c r="D580" s="6" t="s">
-        <v>1669</v>
       </c>
       <c r="E580" s="9">
         <v>39153</v>
@@ -30579,7 +30578,7 @@
       </c>
       <c r="L580" s="7"/>
       <c r="M580" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="N580" s="7"/>
       <c r="O580" s="10"/>
@@ -30592,13 +30591,13 @@
         <v>18</v>
       </c>
       <c r="B581" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C581" s="13" t="s">
         <v>1671</v>
       </c>
-      <c r="C581" s="13" t="s">
+      <c r="D581" s="18" t="s">
         <v>1672</v>
-      </c>
-      <c r="D581" s="18" t="s">
-        <v>1673</v>
       </c>
       <c r="E581" s="15">
         <v>38391</v>
@@ -30621,7 +30620,7 @@
       </c>
       <c r="L581" s="13"/>
       <c r="M581" s="12" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="N581" s="13"/>
       <c r="O581" s="16"/>
@@ -30634,13 +30633,13 @@
         <v>18</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C582" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D582" s="11" t="s">
         <v>1672</v>
-      </c>
-      <c r="D582" s="11" t="s">
-        <v>1673</v>
       </c>
       <c r="E582" s="9">
         <v>39750</v>
@@ -30663,7 +30662,7 @@
       </c>
       <c r="L582" s="7"/>
       <c r="M582" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="N582" s="8" t="s">
         <v>1102</v>
@@ -30678,13 +30677,13 @@
         <v>18</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C583" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D583" s="18" t="s">
         <v>1672</v>
-      </c>
-      <c r="D583" s="18" t="s">
-        <v>1673</v>
       </c>
       <c r="E583" s="15">
         <v>41956</v>
@@ -30720,13 +30719,13 @@
         <v>18</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C584" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D584" s="11" t="s">
         <v>1672</v>
-      </c>
-      <c r="D584" s="11" t="s">
-        <v>1673</v>
       </c>
       <c r="E584" s="9">
         <v>40591</v>
@@ -30747,7 +30746,7 @@
       </c>
       <c r="L584" s="7"/>
       <c r="M584" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="N584" s="7"/>
       <c r="O584" s="10"/>
@@ -30760,13 +30759,13 @@
         <v>18</v>
       </c>
       <c r="B585" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C585" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="C585" s="13" t="s">
+      <c r="D585" s="18" t="s">
         <v>1681</v>
-      </c>
-      <c r="D585" s="18" t="s">
-        <v>1682</v>
       </c>
       <c r="E585" s="15">
         <v>40759</v>
@@ -30782,10 +30781,10 @@
         <v>41631</v>
       </c>
       <c r="L585" s="14" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="M585" s="12" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="N585" s="14" t="s">
         <v>13</v>
@@ -30800,13 +30799,13 @@
         <v>18</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C586" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D586" s="11" t="s">
         <v>1672</v>
-      </c>
-      <c r="D586" s="11" t="s">
-        <v>1673</v>
       </c>
       <c r="E586" s="9">
         <v>41312</v>
@@ -30822,10 +30821,10 @@
         <v>42004</v>
       </c>
       <c r="L586" s="8" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="M586" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="N586" s="8" t="s">
         <v>13</v>
@@ -30840,13 +30839,13 @@
         <v>18</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C587" s="13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D587" s="18" t="s">
         <v>1681</v>
-      </c>
-      <c r="D587" s="18" t="s">
-        <v>1682</v>
       </c>
       <c r="E587" s="15">
         <v>41312</v>
@@ -30871,10 +30870,10 @@
         <v>11</v>
       </c>
       <c r="M587" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N587" s="14" t="s">
         <v>1687</v>
-      </c>
-      <c r="N587" s="14" t="s">
-        <v>1688</v>
       </c>
       <c r="O587" s="16"/>
       <c r="P587" s="19" t="s">
@@ -30882,7 +30881,7 @@
       </c>
       <c r="Q587" s="13"/>
       <c r="R587" s="14" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="588" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -30890,13 +30889,13 @@
         <v>18</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C588" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D588" s="11" t="s">
         <v>1681</v>
-      </c>
-      <c r="D588" s="11" t="s">
-        <v>1682</v>
       </c>
       <c r="E588" s="9">
         <v>43411</v>
@@ -30920,7 +30919,7 @@
       </c>
       <c r="M588" s="6"/>
       <c r="N588" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="O588" s="10"/>
       <c r="P588" s="17" t="s">
@@ -30934,13 +30933,13 @@
         <v>30</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C589" s="13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D589" s="18" t="s">
         <v>1681</v>
-      </c>
-      <c r="D589" s="18" t="s">
-        <v>1682</v>
       </c>
       <c r="E589" s="15">
         <v>43411</v>
@@ -30966,10 +30965,10 @@
       </c>
       <c r="M589" s="12"/>
       <c r="N589" s="14" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="O589" s="19" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="P589" s="27" t="s">
         <v>34</v>
@@ -30982,13 +30981,13 @@
         <v>18</v>
       </c>
       <c r="B590" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C590" s="7" t="s">
         <v>1694</v>
       </c>
-      <c r="C590" s="7" t="s">
-        <v>1695</v>
-      </c>
       <c r="D590" s="11" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E590" s="9">
         <v>38391</v>
@@ -31013,7 +31012,7 @@
         <v>11</v>
       </c>
       <c r="M590" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N590" s="8" t="s">
         <v>13</v>
@@ -31028,13 +31027,13 @@
         <v>18</v>
       </c>
       <c r="B591" s="14" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C591" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D591" s="18" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E591" s="15">
         <v>39659</v>
@@ -31057,7 +31056,7 @@
       </c>
       <c r="L591" s="13"/>
       <c r="M591" s="12" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="N591" s="13"/>
       <c r="O591" s="16"/>
@@ -31070,13 +31069,13 @@
         <v>18</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E592" s="9">
         <v>40122</v>
@@ -31099,13 +31098,13 @@
       </c>
       <c r="L592" s="7"/>
       <c r="M592" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="N592" s="8" t="s">
         <v>1700</v>
       </c>
-      <c r="N592" s="8" t="s">
+      <c r="O592" s="17" t="s">
         <v>1701</v>
-      </c>
-      <c r="O592" s="17" t="s">
-        <v>1702</v>
       </c>
       <c r="P592" s="10"/>
       <c r="Q592" s="7"/>
@@ -31116,13 +31115,13 @@
         <v>18</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C593" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D593" s="18" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E593" s="15">
         <v>41956</v>
@@ -31158,13 +31157,13 @@
         <v>18</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E594" s="9">
         <v>40591</v>
@@ -31185,10 +31184,10 @@
       </c>
       <c r="L594" s="7"/>
       <c r="M594" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="N594" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="O594" s="10"/>
       <c r="P594" s="10"/>
@@ -31200,13 +31199,13 @@
         <v>18</v>
       </c>
       <c r="B595" s="14" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C595" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D595" s="18" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E595" s="15">
         <v>41312</v>
@@ -31225,10 +31224,10 @@
         <v>11</v>
       </c>
       <c r="M595" s="12" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="N595" s="14" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="O595" s="16"/>
       <c r="P595" s="16"/>
@@ -31240,13 +31239,13 @@
         <v>18</v>
       </c>
       <c r="B596" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C596" s="7" t="s">
         <v>1708</v>
       </c>
-      <c r="C596" s="7" t="s">
+      <c r="D596" s="11" t="s">
         <v>1709</v>
-      </c>
-      <c r="D596" s="11" t="s">
-        <v>1710</v>
       </c>
       <c r="E596" s="9">
         <v>38391</v>
@@ -31268,13 +31267,13 @@
         <v>40290</v>
       </c>
       <c r="L596" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="M596" s="6" t="s">
         <v>1711</v>
       </c>
-      <c r="M596" s="6" t="s">
+      <c r="N596" s="8" t="s">
         <v>1712</v>
-      </c>
-      <c r="N596" s="8" t="s">
-        <v>1713</v>
       </c>
       <c r="O596" s="10"/>
       <c r="P596" s="10"/>
@@ -31286,13 +31285,13 @@
         <v>18</v>
       </c>
       <c r="B597" s="14" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C597" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D597" s="18" t="s">
         <v>1709</v>
-      </c>
-      <c r="D597" s="18" t="s">
-        <v>1710</v>
       </c>
       <c r="E597" s="15">
         <v>39659</v>
@@ -31314,13 +31313,13 @@
         <v>41444</v>
       </c>
       <c r="L597" s="25" t="s">
+        <v>1714</v>
+      </c>
+      <c r="M597" s="12" t="s">
         <v>1715</v>
       </c>
-      <c r="M597" s="12" t="s">
+      <c r="N597" s="14" t="s">
         <v>1716</v>
-      </c>
-      <c r="N597" s="14" t="s">
-        <v>1717</v>
       </c>
       <c r="O597" s="16"/>
       <c r="P597" s="16"/>
@@ -31332,13 +31331,13 @@
         <v>18</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C598" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D598" s="11" t="s">
         <v>1709</v>
-      </c>
-      <c r="D598" s="11" t="s">
-        <v>1710</v>
       </c>
       <c r="E598" s="9">
         <v>41312</v>
@@ -31363,7 +31362,7 @@
         <v>11</v>
       </c>
       <c r="M598" s="6" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="N598" s="8" t="s">
         <v>1102</v>
@@ -31378,13 +31377,13 @@
         <v>18</v>
       </c>
       <c r="B599" s="14" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C599" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D599" s="18" t="s">
         <v>1709</v>
-      </c>
-      <c r="D599" s="18" t="s">
-        <v>1710</v>
       </c>
       <c r="E599" s="15">
         <v>41956</v>
@@ -31420,13 +31419,13 @@
         <v>18</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C600" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D600" s="11" t="s">
         <v>1709</v>
-      </c>
-      <c r="D600" s="11" t="s">
-        <v>1710</v>
       </c>
       <c r="E600" s="9">
         <v>40591</v>
@@ -31447,10 +31446,10 @@
       </c>
       <c r="L600" s="7"/>
       <c r="M600" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="N600" s="8" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="O600" s="17" t="s">
         <v>14</v>
@@ -31464,13 +31463,13 @@
         <v>18</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C601" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D601" s="18" t="s">
         <v>1709</v>
-      </c>
-      <c r="D601" s="18" t="s">
-        <v>1710</v>
       </c>
       <c r="E601" s="15">
         <v>41312</v>
@@ -31487,10 +31486,10 @@
       </c>
       <c r="L601" s="13"/>
       <c r="M601" s="12" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="N601" s="14" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="O601" s="16"/>
       <c r="P601" s="16"/>
@@ -31502,13 +31501,13 @@
         <v>18</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C602" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D602" s="11" t="s">
         <v>1709</v>
-      </c>
-      <c r="D602" s="11" t="s">
-        <v>1710</v>
       </c>
       <c r="E602" s="9">
         <v>41312</v>
@@ -31525,10 +31524,10 @@
       </c>
       <c r="L602" s="7"/>
       <c r="M602" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="N602" s="8" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="O602" s="10"/>
       <c r="P602" s="10"/>
@@ -31540,13 +31539,13 @@
         <v>18</v>
       </c>
       <c r="B603" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C603" s="13" t="s">
         <v>1727</v>
       </c>
-      <c r="C603" s="13" t="s">
-        <v>1728</v>
-      </c>
       <c r="D603" s="18" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E603" s="15">
         <v>38391</v>
@@ -31568,10 +31567,10 @@
         <v>41444</v>
       </c>
       <c r="L603" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="M603" s="12" t="s">
         <v>1729</v>
-      </c>
-      <c r="M603" s="12" t="s">
-        <v>1730</v>
       </c>
       <c r="N603" s="14" t="s">
         <v>1213</v>
@@ -31586,13 +31585,13 @@
         <v>18</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D604" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E604" s="9">
         <v>41312</v>
@@ -31614,10 +31613,10 @@
         <v>42369</v>
       </c>
       <c r="L604" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="M604" s="6" t="s">
         <v>1732</v>
-      </c>
-      <c r="M604" s="6" t="s">
-        <v>1733</v>
       </c>
       <c r="N604" s="8" t="s">
         <v>1102</v>
@@ -31632,13 +31631,13 @@
         <v>18</v>
       </c>
       <c r="B605" s="14" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C605" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D605" s="18" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E605" s="15">
         <v>41956</v>
@@ -31674,13 +31673,13 @@
         <v>18</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D606" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E606" s="9">
         <v>40591</v>
@@ -31701,7 +31700,7 @@
       </c>
       <c r="L606" s="7"/>
       <c r="M606" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="N606" s="7"/>
       <c r="O606" s="10"/>
@@ -31714,13 +31713,13 @@
         <v>18</v>
       </c>
       <c r="B607" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C607" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D607" s="18" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E607" s="15">
         <v>41312</v>
@@ -31737,7 +31736,7 @@
       </c>
       <c r="L607" s="13"/>
       <c r="M607" s="12" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="N607" s="13"/>
       <c r="O607" s="16"/>
@@ -31750,13 +31749,13 @@
         <v>18</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D608" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E608" s="9">
         <v>41312</v>
@@ -31773,13 +31772,13 @@
       </c>
       <c r="L608" s="7"/>
       <c r="M608" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="N608" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="O608" s="17" t="s">
         <v>1739</v>
-      </c>
-      <c r="O608" s="17" t="s">
-        <v>1740</v>
       </c>
       <c r="P608" s="10"/>
       <c r="Q608" s="7"/>
@@ -31790,13 +31789,13 @@
         <v>18</v>
       </c>
       <c r="B609" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C609" s="13" t="s">
         <v>1741</v>
       </c>
-      <c r="C609" s="13" t="s">
+      <c r="D609" s="12" t="s">
         <v>1742</v>
-      </c>
-      <c r="D609" s="12" t="s">
-        <v>1743</v>
       </c>
       <c r="E609" s="15">
         <v>38391</v>
@@ -31812,7 +31811,7 @@
         <v>42004</v>
       </c>
       <c r="L609" s="14" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="M609" s="12" t="s">
         <v>1101</v>
@@ -31830,13 +31829,13 @@
         <v>18</v>
       </c>
       <c r="B610" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C610" s="7" t="s">
         <v>1745</v>
       </c>
-      <c r="C610" s="7" t="s">
-        <v>1746</v>
-      </c>
       <c r="D610" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E610" s="9">
         <v>38391</v>
@@ -31852,7 +31851,7 @@
         <v>39918</v>
       </c>
       <c r="L610" s="8" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="M610" s="6" t="s">
         <v>1101</v>
@@ -31870,13 +31869,13 @@
         <v>18</v>
       </c>
       <c r="B611" s="14" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C611" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E611" s="15">
         <v>39918</v>
@@ -31891,10 +31890,10 @@
       </c>
       <c r="L611" s="13"/>
       <c r="M611" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N611" s="14" t="s">
         <v>1748</v>
-      </c>
-      <c r="N611" s="14" t="s">
-        <v>1749</v>
       </c>
       <c r="O611" s="16"/>
       <c r="P611" s="16"/>
@@ -31906,13 +31905,13 @@
         <v>18</v>
       </c>
       <c r="B612" s="8" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C612" s="7" t="s">
         <v>1750</v>
       </c>
-      <c r="C612" s="7" t="s">
+      <c r="D612" s="6" t="s">
         <v>1751</v>
-      </c>
-      <c r="D612" s="6" t="s">
-        <v>1752</v>
       </c>
       <c r="E612" s="9">
         <v>41990</v>
@@ -31948,7 +31947,7 @@
       </c>
       <c r="Q612" s="7"/>
       <c r="R612" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="613" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -31956,13 +31955,13 @@
         <v>18</v>
       </c>
       <c r="B613" s="14" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C613" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D613" s="12" t="s">
         <v>1751</v>
-      </c>
-      <c r="D613" s="12" t="s">
-        <v>1752</v>
       </c>
       <c r="E613" s="15">
         <v>43048</v>
@@ -31989,7 +31988,7 @@
         <v>11</v>
       </c>
       <c r="M613" s="12" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="N613" s="14" t="s">
         <v>598</v>
@@ -32006,13 +32005,13 @@
         <v>18</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C614" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D614" s="6" t="s">
         <v>1751</v>
-      </c>
-      <c r="D614" s="6" t="s">
-        <v>1752</v>
       </c>
       <c r="E614" s="9">
         <v>43503</v>
@@ -32039,10 +32038,10 @@
         <v>11</v>
       </c>
       <c r="M614" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N614" s="8" t="s">
         <v>1757</v>
-      </c>
-      <c r="N614" s="8" t="s">
-        <v>1758</v>
       </c>
       <c r="O614" s="10"/>
       <c r="P614" s="17" t="s">
@@ -32056,13 +32055,13 @@
         <v>30</v>
       </c>
       <c r="B615" s="14" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C615" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D615" s="12" t="s">
         <v>1751</v>
-      </c>
-      <c r="D615" s="12" t="s">
-        <v>1752</v>
       </c>
       <c r="E615" s="15">
         <v>43867</v>
@@ -32087,13 +32086,13 @@
         <v>11</v>
       </c>
       <c r="M615" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="N615" s="14" t="s">
         <v>1760</v>
       </c>
-      <c r="N615" s="14" t="s">
+      <c r="O615" s="19" t="s">
         <v>1761</v>
-      </c>
-      <c r="O615" s="19" t="s">
-        <v>1762</v>
       </c>
       <c r="P615" s="19" t="s">
         <v>34</v>
@@ -32106,13 +32105,13 @@
         <v>108</v>
       </c>
       <c r="B616" s="8" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C616" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="C616" s="7" t="s">
+      <c r="D616" s="6" t="s">
         <v>1764</v>
-      </c>
-      <c r="D616" s="6" t="s">
-        <v>1765</v>
       </c>
       <c r="E616" s="9">
         <v>45636</v>
@@ -32136,7 +32135,7 @@
       </c>
       <c r="M616" s="6"/>
       <c r="N616" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="O616" s="10"/>
       <c r="P616" s="10"/>
@@ -32148,13 +32147,13 @@
         <v>18</v>
       </c>
       <c r="B617" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C617" s="13" t="s">
         <v>1767</v>
       </c>
-      <c r="C617" s="13" t="s">
+      <c r="D617" s="12" t="s">
         <v>1768</v>
-      </c>
-      <c r="D617" s="12" t="s">
-        <v>1769</v>
       </c>
       <c r="E617" s="15">
         <v>38391</v>
@@ -32171,7 +32170,7 @@
       </c>
       <c r="L617" s="13"/>
       <c r="M617" s="12" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="N617" s="13"/>
       <c r="O617" s="16"/>
@@ -32184,13 +32183,13 @@
         <v>18</v>
       </c>
       <c r="B618" s="8" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D618" s="6" t="s">
         <v>1771</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D618" s="6" t="s">
-        <v>1772</v>
       </c>
       <c r="E618" s="9">
         <v>38931</v>
@@ -32213,7 +32212,7 @@
       </c>
       <c r="L618" s="7"/>
       <c r="M618" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="N618" s="7"/>
       <c r="O618" s="10"/>
@@ -32226,13 +32225,13 @@
         <v>18</v>
       </c>
       <c r="B619" s="14" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C619" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D619" s="12" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E619" s="15">
         <v>39533</v>
@@ -32247,7 +32246,7 @@
       </c>
       <c r="L619" s="13"/>
       <c r="M619" s="12" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="N619" s="13"/>
       <c r="O619" s="16"/>
@@ -32260,13 +32259,13 @@
         <v>18</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E620" s="9">
         <v>40395</v>
@@ -32291,7 +32290,7 @@
         <v>11</v>
       </c>
       <c r="M620" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="N620" s="8" t="s">
         <v>48</v>
@@ -32306,13 +32305,13 @@
         <v>18</v>
       </c>
       <c r="B621" s="14" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C621" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E621" s="15">
         <v>41038</v>
@@ -32350,13 +32349,13 @@
         <v>18</v>
       </c>
       <c r="B622" s="8" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D622" s="6" t="s">
         <v>1779</v>
-      </c>
-      <c r="C622" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D622" s="6" t="s">
-        <v>1780</v>
       </c>
       <c r="E622" s="9">
         <v>41676</v>
@@ -32382,7 +32381,7 @@
       </c>
       <c r="M622" s="6"/>
       <c r="N622" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O622" s="10"/>
       <c r="P622" s="10"/>
@@ -32394,13 +32393,13 @@
         <v>18</v>
       </c>
       <c r="B623" s="14" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C623" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E623" s="15">
         <v>41676</v>
@@ -32425,10 +32424,10 @@
         <v>11</v>
       </c>
       <c r="M623" s="12" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="N623" s="14" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O623" s="16"/>
       <c r="P623" s="16"/>
@@ -32440,13 +32439,13 @@
         <v>18</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E624" s="9">
         <v>42957</v>
@@ -32471,10 +32470,10 @@
         <v>11</v>
       </c>
       <c r="M624" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N624" s="8" t="s">
         <v>1785</v>
-      </c>
-      <c r="N624" s="8" t="s">
-        <v>1786</v>
       </c>
       <c r="O624" s="10"/>
       <c r="P624" s="17" t="s">
@@ -32488,13 +32487,13 @@
         <v>30</v>
       </c>
       <c r="B625" s="14" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C625" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E625" s="15">
         <v>43328</v>
@@ -32532,13 +32531,13 @@
         <v>18</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E626" s="9">
         <v>43594</v>
@@ -32557,7 +32556,7 @@
         <v>11</v>
       </c>
       <c r="M626" s="6" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="N626" s="8" t="s">
         <v>698</v>
@@ -32574,13 +32573,13 @@
         <v>18</v>
       </c>
       <c r="B627" s="14" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C627" s="13" t="s">
         <v>1790</v>
       </c>
-      <c r="C627" s="13" t="s">
+      <c r="D627" s="18" t="s">
         <v>1791</v>
-      </c>
-      <c r="D627" s="18" t="s">
-        <v>1792</v>
       </c>
       <c r="E627" s="15">
         <v>38931</v>
@@ -32603,7 +32602,7 @@
       </c>
       <c r="L627" s="13"/>
       <c r="M627" s="12" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N627" s="13"/>
       <c r="O627" s="16"/>
@@ -32616,13 +32615,13 @@
         <v>18</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C628" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D628" s="11" t="s">
         <v>1791</v>
-      </c>
-      <c r="D628" s="11" t="s">
-        <v>1792</v>
       </c>
       <c r="E628" s="9">
         <v>39750</v>
@@ -32645,7 +32644,7 @@
       </c>
       <c r="L628" s="7"/>
       <c r="M628" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="N628" s="7"/>
       <c r="O628" s="10"/>
@@ -32658,13 +32657,13 @@
         <v>18</v>
       </c>
       <c r="B629" s="14" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C629" s="13" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D629" s="18" t="s">
         <v>1791</v>
-      </c>
-      <c r="D629" s="18" t="s">
-        <v>1792</v>
       </c>
       <c r="E629" s="15">
         <v>39854</v>
@@ -32687,10 +32686,10 @@
       </c>
       <c r="L629" s="13"/>
       <c r="M629" s="12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N629" s="14" t="s">
         <v>1797</v>
-      </c>
-      <c r="N629" s="14" t="s">
-        <v>1798</v>
       </c>
       <c r="O629" s="16"/>
       <c r="P629" s="16"/>
@@ -32702,13 +32701,13 @@
         <v>18</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C630" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D630" s="11" t="s">
         <v>1791</v>
-      </c>
-      <c r="D630" s="11" t="s">
-        <v>1792</v>
       </c>
       <c r="E630" s="9">
         <v>39295</v>
@@ -32731,7 +32730,7 @@
       </c>
       <c r="L630" s="7"/>
       <c r="M630" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="N630" s="7"/>
       <c r="O630" s="10"/>
@@ -32744,13 +32743,13 @@
         <v>18</v>
       </c>
       <c r="B631" s="14" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C631" s="13" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D631" s="18" t="s">
         <v>1791</v>
-      </c>
-      <c r="D631" s="18" t="s">
-        <v>1792</v>
       </c>
       <c r="E631" s="15">
         <v>41137</v>
@@ -32776,7 +32775,7 @@
       </c>
       <c r="M631" s="12"/>
       <c r="N631" s="14" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="O631" s="16"/>
       <c r="P631" s="16"/>
@@ -32788,13 +32787,13 @@
         <v>18</v>
       </c>
       <c r="B632" s="8" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D632" s="6" t="s">
         <v>1803</v>
-      </c>
-      <c r="C632" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D632" s="6" t="s">
-        <v>1804</v>
       </c>
       <c r="E632" s="9">
         <v>41765</v>
@@ -32820,7 +32819,7 @@
       </c>
       <c r="M632" s="6"/>
       <c r="N632" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O632" s="10"/>
       <c r="P632" s="10"/>
@@ -32832,13 +32831,13 @@
         <v>18</v>
       </c>
       <c r="B633" s="14" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C633" s="13" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D633" s="12" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E633" s="15">
         <v>41956</v>
@@ -32863,7 +32862,7 @@
         <v>11</v>
       </c>
       <c r="M633" s="12" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="N633" s="14" t="s">
         <v>1260</v>
@@ -32878,13 +32877,13 @@
         <v>30</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E634" s="9">
         <v>42957</v>
@@ -32907,10 +32906,10 @@
         <v>11</v>
       </c>
       <c r="M634" s="6" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="N634" s="8" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="O634" s="10"/>
       <c r="P634" s="17" t="s">
@@ -32924,13 +32923,13 @@
         <v>18</v>
       </c>
       <c r="B635" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C635" s="13" t="s">
         <v>1809</v>
       </c>
-      <c r="C635" s="13" t="s">
+      <c r="D635" s="12" t="s">
         <v>1810</v>
-      </c>
-      <c r="D635" s="12" t="s">
-        <v>1811</v>
       </c>
       <c r="E635" s="15">
         <v>39750</v>
@@ -32966,13 +32965,13 @@
         <v>18</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C636" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D636" s="6" t="s">
         <v>1810</v>
-      </c>
-      <c r="D636" s="6" t="s">
-        <v>1811</v>
       </c>
       <c r="E636" s="9">
         <v>41956</v>
@@ -32997,7 +32996,7 @@
         <v>11</v>
       </c>
       <c r="M636" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="N636" s="8" t="s">
         <v>68</v>
@@ -33012,13 +33011,13 @@
         <v>18</v>
       </c>
       <c r="B637" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C637" s="13" t="s">
         <v>1814</v>
       </c>
-      <c r="C637" s="13" t="s">
+      <c r="D637" s="12" t="s">
         <v>1815</v>
-      </c>
-      <c r="D637" s="12" t="s">
-        <v>1816</v>
       </c>
       <c r="E637" s="15">
         <v>39750</v>
@@ -33054,13 +33053,13 @@
         <v>18</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C638" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D638" s="6" t="s">
         <v>1815</v>
-      </c>
-      <c r="D638" s="6" t="s">
-        <v>1816</v>
       </c>
       <c r="E638" s="9">
         <v>41956</v>
@@ -33098,13 +33097,13 @@
         <v>18</v>
       </c>
       <c r="B639" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C639" s="13" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D639" s="12" t="s">
         <v>1818</v>
-      </c>
-      <c r="C639" s="13" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D639" s="12" t="s">
-        <v>1819</v>
       </c>
       <c r="E639" s="15">
         <v>42775</v>
@@ -33129,10 +33128,10 @@
         <v>11</v>
       </c>
       <c r="M639" s="12" t="s">
+        <v>1819</v>
+      </c>
+      <c r="N639" s="14" t="s">
         <v>1820</v>
-      </c>
-      <c r="N639" s="14" t="s">
-        <v>1821</v>
       </c>
       <c r="O639" s="16"/>
       <c r="P639" s="16"/>
@@ -33144,13 +33143,13 @@
         <v>18</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E640" s="9">
         <v>42957</v>
@@ -33173,13 +33172,13 @@
       </c>
       <c r="L640" s="7"/>
       <c r="M640" s="6" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="N640" s="8" t="s">
         <v>68</v>
       </c>
       <c r="O640" s="17" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="P640" s="10"/>
       <c r="Q640" s="7"/>
@@ -33190,13 +33189,13 @@
         <v>30</v>
       </c>
       <c r="B641" s="14" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C641" s="13" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E641" s="15">
         <v>45272</v>
@@ -33230,13 +33229,13 @@
         <v>18</v>
       </c>
       <c r="B642" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C642" s="7" t="s">
         <v>1826</v>
       </c>
-      <c r="C642" s="7" t="s">
+      <c r="D642" s="11" t="s">
         <v>1827</v>
-      </c>
-      <c r="D642" s="11" t="s">
-        <v>1828</v>
       </c>
       <c r="E642" s="9">
         <v>39153</v>
@@ -33259,7 +33258,7 @@
       </c>
       <c r="L642" s="7"/>
       <c r="M642" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="N642" s="7"/>
       <c r="O642" s="10"/>
@@ -33272,13 +33271,13 @@
         <v>18</v>
       </c>
       <c r="B643" s="14" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C643" s="13" t="s">
         <v>1830</v>
       </c>
-      <c r="C643" s="13" t="s">
+      <c r="D643" s="18" t="s">
         <v>1831</v>
-      </c>
-      <c r="D643" s="18" t="s">
-        <v>1832</v>
       </c>
       <c r="E643" s="15">
         <v>39153</v>
@@ -33301,7 +33300,7 @@
       </c>
       <c r="L643" s="13"/>
       <c r="M643" s="12" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="N643" s="13"/>
       <c r="O643" s="16"/>
@@ -35186,13 +35185,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD817F9F-0E06-4B36-AED4-B4489D89AFEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85559DCD-7312-4D81-9262-6C13A370A235}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFEC1A66-8EF4-4A5A-8015-B8EB40047F9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F56420B-C831-4198-86AE-9B02DD13FF68}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FC2B42-148A-4040-9719-FFE6C9BFEAC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173E2EBD-F2D1-449A-A0C3-E3EE7D5219FA}"/>
 </file>
--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="1833">
   <si>
     <t>Status</t>
   </si>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="62.9294" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>106</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="212" s="1" customFormat="1" ht="62.9294" customHeight="1">
       <c r="A212" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>617</v>
@@ -14870,7 +14870,9 @@
         <v>621</v>
       </c>
       <c r="O213" s="16"/>
-      <c r="P213" s="16"/>
+      <c r="P213" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="Q213" s="13"/>
       <c r="R213" s="13"/>
     </row>
@@ -24418,7 +24420,9 @@
         <v>1278</v>
       </c>
       <c r="O438" s="10"/>
-      <c r="P438" s="10"/>
+      <c r="P438" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="Q438" s="7"/>
       <c r="R438" s="7"/>
     </row>
@@ -28378,7 +28382,9 @@
         <v>1278</v>
       </c>
       <c r="O528" s="10"/>
-      <c r="P528" s="10"/>
+      <c r="P528" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="Q528" s="7"/>
       <c r="R528" s="7"/>
     </row>
@@ -29228,7 +29234,7 @@
     </row>
     <row r="549" s="1" customFormat="1" ht="41.0641" customHeight="1">
       <c r="A549" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B549" s="14" t="s">
         <v>1592</v>
@@ -32138,7 +32144,9 @@
         <v>1765</v>
       </c>
       <c r="O616" s="10"/>
-      <c r="P616" s="10"/>
+      <c r="P616" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="Q616" s="7"/>
       <c r="R616" s="7"/>
     </row>
@@ -33889,1140 +33897,1144 @@
     <hyperlink ref="B213" r:id="rId576"/>
     <hyperlink ref="L213" r:id="rId577"/>
     <hyperlink ref="N213" r:id="rId578"/>
-    <hyperlink ref="B214" r:id="rId579"/>
-    <hyperlink ref="N214" r:id="rId580"/>
-    <hyperlink ref="B215" r:id="rId581"/>
-    <hyperlink ref="L215" r:id="rId582"/>
-    <hyperlink ref="N215" r:id="rId583"/>
-    <hyperlink ref="B216" r:id="rId584"/>
-    <hyperlink ref="L216" r:id="rId585"/>
-    <hyperlink ref="N216" r:id="rId586"/>
-    <hyperlink ref="P216" r:id="rId587"/>
-    <hyperlink ref="B217" r:id="rId588"/>
-    <hyperlink ref="L217" r:id="rId589"/>
-    <hyperlink ref="N217" r:id="rId590"/>
-    <hyperlink ref="P217" r:id="rId591"/>
-    <hyperlink ref="B218" r:id="rId592"/>
-    <hyperlink ref="L218" r:id="rId593"/>
-    <hyperlink ref="N218" r:id="rId594"/>
-    <hyperlink ref="P218" r:id="rId595"/>
-    <hyperlink ref="B219" r:id="rId596"/>
-    <hyperlink ref="B220" r:id="rId597"/>
-    <hyperlink ref="L220" r:id="rId598"/>
-    <hyperlink ref="N220" r:id="rId599"/>
-    <hyperlink ref="B221" r:id="rId600"/>
-    <hyperlink ref="L221" r:id="rId601"/>
-    <hyperlink ref="N221" r:id="rId602"/>
-    <hyperlink ref="P221" r:id="rId603"/>
-    <hyperlink ref="B222" r:id="rId604"/>
-    <hyperlink ref="L222" r:id="rId605"/>
-    <hyperlink ref="N222" r:id="rId606"/>
-    <hyperlink ref="P222" r:id="rId607"/>
-    <hyperlink ref="B223" r:id="rId608"/>
-    <hyperlink ref="L223" r:id="rId609"/>
-    <hyperlink ref="N223" r:id="rId610"/>
-    <hyperlink ref="P223" r:id="rId611"/>
-    <hyperlink ref="R223" r:id="rId612"/>
-    <hyperlink ref="B224" r:id="rId613"/>
-    <hyperlink ref="B225" r:id="rId614"/>
-    <hyperlink ref="N225" r:id="rId615"/>
-    <hyperlink ref="B226" r:id="rId616"/>
-    <hyperlink ref="L226" r:id="rId617"/>
-    <hyperlink ref="N226" r:id="rId618"/>
-    <hyperlink ref="B227" r:id="rId619"/>
-    <hyperlink ref="L227" r:id="rId620"/>
-    <hyperlink ref="N227" r:id="rId621"/>
-    <hyperlink ref="B228" r:id="rId622"/>
-    <hyperlink ref="L228" r:id="rId623"/>
-    <hyperlink ref="N228" r:id="rId624"/>
-    <hyperlink ref="P228" r:id="rId625"/>
-    <hyperlink ref="B229" r:id="rId626"/>
-    <hyperlink ref="L229" r:id="rId627"/>
-    <hyperlink ref="N229" r:id="rId628"/>
-    <hyperlink ref="P229" r:id="rId629"/>
-    <hyperlink ref="B230" r:id="rId630"/>
-    <hyperlink ref="B231" r:id="rId631"/>
-    <hyperlink ref="B232" r:id="rId632"/>
-    <hyperlink ref="B233" r:id="rId633"/>
-    <hyperlink ref="B234" r:id="rId634"/>
-    <hyperlink ref="L234" r:id="rId635"/>
-    <hyperlink ref="N234" r:id="rId636"/>
-    <hyperlink ref="P234" r:id="rId637"/>
-    <hyperlink ref="R234" r:id="rId638"/>
-    <hyperlink ref="B235" r:id="rId639"/>
-    <hyperlink ref="L235" r:id="rId640"/>
-    <hyperlink ref="N235" r:id="rId641"/>
-    <hyperlink ref="B236" r:id="rId642"/>
-    <hyperlink ref="L236" r:id="rId643"/>
-    <hyperlink ref="N236" r:id="rId644"/>
-    <hyperlink ref="P236" r:id="rId645"/>
-    <hyperlink ref="B237" r:id="rId646"/>
-    <hyperlink ref="B238" r:id="rId647"/>
-    <hyperlink ref="B239" r:id="rId648"/>
-    <hyperlink ref="B240" r:id="rId649"/>
-    <hyperlink ref="L240" r:id="rId650"/>
-    <hyperlink ref="N240" r:id="rId651"/>
-    <hyperlink ref="B241" r:id="rId652"/>
-    <hyperlink ref="L241" r:id="rId653"/>
-    <hyperlink ref="N241" r:id="rId654"/>
-    <hyperlink ref="P241" r:id="rId655"/>
-    <hyperlink ref="B242" r:id="rId656"/>
-    <hyperlink ref="B243" r:id="rId657"/>
-    <hyperlink ref="L243" r:id="rId658"/>
-    <hyperlink ref="N243" r:id="rId659"/>
-    <hyperlink ref="B244" r:id="rId660"/>
-    <hyperlink ref="L244" r:id="rId661"/>
-    <hyperlink ref="N244" r:id="rId662"/>
-    <hyperlink ref="P244" r:id="rId663"/>
-    <hyperlink ref="B245" r:id="rId664"/>
-    <hyperlink ref="L245" r:id="rId665"/>
-    <hyperlink ref="N245" r:id="rId666"/>
-    <hyperlink ref="O245" r:id="rId667"/>
-    <hyperlink ref="P245" r:id="rId668"/>
-    <hyperlink ref="B246" r:id="rId669"/>
-    <hyperlink ref="B247" r:id="rId670"/>
-    <hyperlink ref="B248" r:id="rId671"/>
-    <hyperlink ref="L248" r:id="rId672"/>
-    <hyperlink ref="N248" r:id="rId673"/>
-    <hyperlink ref="P248" r:id="rId674"/>
-    <hyperlink ref="B249" r:id="rId675"/>
-    <hyperlink ref="B250" r:id="rId676"/>
-    <hyperlink ref="L250" r:id="rId677"/>
-    <hyperlink ref="N250" r:id="rId678"/>
-    <hyperlink ref="P250" r:id="rId679"/>
-    <hyperlink ref="B251" r:id="rId680"/>
-    <hyperlink ref="L251" r:id="rId681"/>
-    <hyperlink ref="N251" r:id="rId682"/>
-    <hyperlink ref="O251" r:id="rId683"/>
-    <hyperlink ref="P251" r:id="rId684"/>
-    <hyperlink ref="B252" r:id="rId685"/>
-    <hyperlink ref="N252" r:id="rId686"/>
-    <hyperlink ref="B253" r:id="rId687"/>
-    <hyperlink ref="L253" r:id="rId688"/>
-    <hyperlink ref="N253" r:id="rId689"/>
-    <hyperlink ref="B254" r:id="rId690"/>
-    <hyperlink ref="L254" r:id="rId691"/>
-    <hyperlink ref="N254" r:id="rId692"/>
-    <hyperlink ref="B255" r:id="rId693"/>
-    <hyperlink ref="L255" r:id="rId694"/>
-    <hyperlink ref="N255" r:id="rId695"/>
-    <hyperlink ref="B256" r:id="rId696"/>
-    <hyperlink ref="B257" r:id="rId697"/>
-    <hyperlink ref="B258" r:id="rId698"/>
-    <hyperlink ref="B259" r:id="rId699"/>
-    <hyperlink ref="B260" r:id="rId700"/>
-    <hyperlink ref="B261" r:id="rId701"/>
-    <hyperlink ref="B262" r:id="rId702"/>
-    <hyperlink ref="B263" r:id="rId703"/>
-    <hyperlink ref="B264" r:id="rId704"/>
-    <hyperlink ref="B265" r:id="rId705"/>
-    <hyperlink ref="B266" r:id="rId706"/>
-    <hyperlink ref="B267" r:id="rId707"/>
-    <hyperlink ref="B268" r:id="rId708"/>
-    <hyperlink ref="B269" r:id="rId709"/>
-    <hyperlink ref="L269" r:id="rId710"/>
-    <hyperlink ref="N269" r:id="rId711"/>
-    <hyperlink ref="P269" r:id="rId712"/>
-    <hyperlink ref="B270" r:id="rId713"/>
-    <hyperlink ref="B271" r:id="rId714"/>
-    <hyperlink ref="B272" r:id="rId715"/>
-    <hyperlink ref="B273" r:id="rId716"/>
-    <hyperlink ref="B274" r:id="rId717"/>
-    <hyperlink ref="B275" r:id="rId718"/>
-    <hyperlink ref="B276" r:id="rId719"/>
-    <hyperlink ref="L276" r:id="rId720"/>
-    <hyperlink ref="N276" r:id="rId721"/>
-    <hyperlink ref="P276" r:id="rId722"/>
-    <hyperlink ref="B277" r:id="rId723"/>
-    <hyperlink ref="L277" r:id="rId724"/>
-    <hyperlink ref="N277" r:id="rId725"/>
-    <hyperlink ref="P277" r:id="rId726"/>
-    <hyperlink ref="B278" r:id="rId727"/>
-    <hyperlink ref="B279" r:id="rId728"/>
-    <hyperlink ref="B280" r:id="rId729"/>
-    <hyperlink ref="B281" r:id="rId730"/>
-    <hyperlink ref="B282" r:id="rId731"/>
-    <hyperlink ref="B283" r:id="rId732"/>
-    <hyperlink ref="B284" r:id="rId733"/>
-    <hyperlink ref="L284" r:id="rId734"/>
-    <hyperlink ref="N284" r:id="rId735"/>
-    <hyperlink ref="P284" r:id="rId736"/>
-    <hyperlink ref="B285" r:id="rId737"/>
-    <hyperlink ref="L285" r:id="rId738"/>
-    <hyperlink ref="N285" r:id="rId739"/>
-    <hyperlink ref="P285" r:id="rId740"/>
-    <hyperlink ref="B286" r:id="rId741"/>
-    <hyperlink ref="B287" r:id="rId742"/>
-    <hyperlink ref="B288" r:id="rId743"/>
-    <hyperlink ref="L288" r:id="rId744"/>
-    <hyperlink ref="N288" r:id="rId745"/>
-    <hyperlink ref="P288" r:id="rId746"/>
-    <hyperlink ref="B289" r:id="rId747"/>
-    <hyperlink ref="B290" r:id="rId748"/>
-    <hyperlink ref="N290" r:id="rId749"/>
-    <hyperlink ref="B291" r:id="rId750"/>
-    <hyperlink ref="B292" r:id="rId751"/>
-    <hyperlink ref="B293" r:id="rId752"/>
-    <hyperlink ref="N293" r:id="rId753"/>
-    <hyperlink ref="B294" r:id="rId754"/>
-    <hyperlink ref="B295" r:id="rId755"/>
-    <hyperlink ref="L295" r:id="rId756"/>
-    <hyperlink ref="N295" r:id="rId757"/>
-    <hyperlink ref="B296" r:id="rId758"/>
-    <hyperlink ref="L296" r:id="rId759"/>
-    <hyperlink ref="N296" r:id="rId760"/>
-    <hyperlink ref="O296" r:id="rId761"/>
-    <hyperlink ref="P296" r:id="rId762"/>
-    <hyperlink ref="B297" r:id="rId763"/>
-    <hyperlink ref="B298" r:id="rId764"/>
-    <hyperlink ref="B299" r:id="rId765"/>
-    <hyperlink ref="N299" r:id="rId766"/>
-    <hyperlink ref="B300" r:id="rId767"/>
-    <hyperlink ref="L300" r:id="rId768"/>
-    <hyperlink ref="N300" r:id="rId769"/>
-    <hyperlink ref="B301" r:id="rId770"/>
-    <hyperlink ref="L301" r:id="rId771"/>
-    <hyperlink ref="N301" r:id="rId772"/>
-    <hyperlink ref="B302" r:id="rId773"/>
-    <hyperlink ref="L302" r:id="rId774"/>
-    <hyperlink ref="N302" r:id="rId775"/>
-    <hyperlink ref="P302" r:id="rId776"/>
-    <hyperlink ref="R302" r:id="rId777"/>
-    <hyperlink ref="B303" r:id="rId778"/>
-    <hyperlink ref="L303" r:id="rId779"/>
-    <hyperlink ref="N303" r:id="rId780"/>
-    <hyperlink ref="B304" r:id="rId781"/>
-    <hyperlink ref="L304" r:id="rId782"/>
-    <hyperlink ref="N304" r:id="rId783"/>
-    <hyperlink ref="P304" r:id="rId784"/>
-    <hyperlink ref="B305" r:id="rId785"/>
-    <hyperlink ref="B306" r:id="rId786"/>
-    <hyperlink ref="B307" r:id="rId787"/>
-    <hyperlink ref="N307" r:id="rId788"/>
-    <hyperlink ref="B308" r:id="rId789"/>
-    <hyperlink ref="B309" r:id="rId790"/>
-    <hyperlink ref="B310" r:id="rId791"/>
-    <hyperlink ref="L310" r:id="rId792"/>
-    <hyperlink ref="N310" r:id="rId793"/>
-    <hyperlink ref="B311" r:id="rId794"/>
-    <hyperlink ref="B312" r:id="rId795"/>
-    <hyperlink ref="B313" r:id="rId796"/>
-    <hyperlink ref="B314" r:id="rId797"/>
-    <hyperlink ref="B315" r:id="rId798"/>
-    <hyperlink ref="B316" r:id="rId799"/>
-    <hyperlink ref="L316" r:id="rId800"/>
-    <hyperlink ref="N316" r:id="rId801"/>
-    <hyperlink ref="B317" r:id="rId802"/>
-    <hyperlink ref="B318" r:id="rId803"/>
-    <hyperlink ref="B319" r:id="rId804"/>
-    <hyperlink ref="L319" r:id="rId805"/>
-    <hyperlink ref="N319" r:id="rId806"/>
-    <hyperlink ref="B320" r:id="rId807"/>
-    <hyperlink ref="B321" r:id="rId808"/>
-    <hyperlink ref="B322" r:id="rId809"/>
-    <hyperlink ref="B323" r:id="rId810"/>
-    <hyperlink ref="B324" r:id="rId811"/>
-    <hyperlink ref="B325" r:id="rId812"/>
-    <hyperlink ref="B326" r:id="rId813"/>
-    <hyperlink ref="L326" r:id="rId814"/>
-    <hyperlink ref="N326" r:id="rId815"/>
-    <hyperlink ref="P326" r:id="rId816"/>
-    <hyperlink ref="B327" r:id="rId817"/>
-    <hyperlink ref="L327" r:id="rId818"/>
-    <hyperlink ref="N327" r:id="rId819"/>
-    <hyperlink ref="B328" r:id="rId820"/>
-    <hyperlink ref="L328" r:id="rId821"/>
-    <hyperlink ref="N328" r:id="rId822"/>
-    <hyperlink ref="O328" r:id="rId823"/>
-    <hyperlink ref="P328" r:id="rId824"/>
-    <hyperlink ref="B329" r:id="rId825"/>
-    <hyperlink ref="L329" r:id="rId826"/>
-    <hyperlink ref="N329" r:id="rId827"/>
-    <hyperlink ref="B330" r:id="rId828"/>
-    <hyperlink ref="B331" r:id="rId829"/>
-    <hyperlink ref="N331" r:id="rId830"/>
-    <hyperlink ref="B332" r:id="rId831"/>
-    <hyperlink ref="L332" r:id="rId832"/>
-    <hyperlink ref="N332" r:id="rId833"/>
-    <hyperlink ref="B333" r:id="rId834"/>
-    <hyperlink ref="L333" r:id="rId835"/>
-    <hyperlink ref="N333" r:id="rId836"/>
-    <hyperlink ref="B334" r:id="rId837"/>
-    <hyperlink ref="L334" r:id="rId838"/>
-    <hyperlink ref="N334" r:id="rId839"/>
-    <hyperlink ref="P334" r:id="rId840"/>
-    <hyperlink ref="R334" r:id="rId841"/>
-    <hyperlink ref="B335" r:id="rId842"/>
-    <hyperlink ref="L335" r:id="rId843"/>
-    <hyperlink ref="N335" r:id="rId844"/>
-    <hyperlink ref="O335" r:id="rId845"/>
-    <hyperlink ref="P335" r:id="rId846"/>
-    <hyperlink ref="B336" r:id="rId847"/>
-    <hyperlink ref="L336" r:id="rId848"/>
-    <hyperlink ref="N336" r:id="rId849"/>
-    <hyperlink ref="B337" r:id="rId850"/>
-    <hyperlink ref="L337" r:id="rId851"/>
-    <hyperlink ref="N337" r:id="rId852"/>
-    <hyperlink ref="O337" r:id="rId853"/>
-    <hyperlink ref="P337" r:id="rId854"/>
-    <hyperlink ref="B338" r:id="rId855"/>
-    <hyperlink ref="B339" r:id="rId856"/>
-    <hyperlink ref="L339" r:id="rId857"/>
-    <hyperlink ref="N339" r:id="rId858"/>
-    <hyperlink ref="B340" r:id="rId859"/>
-    <hyperlink ref="L340" r:id="rId860"/>
-    <hyperlink ref="N340" r:id="rId861"/>
-    <hyperlink ref="P340" r:id="rId862"/>
-    <hyperlink ref="B341" r:id="rId863"/>
-    <hyperlink ref="L341" r:id="rId864"/>
-    <hyperlink ref="N341" r:id="rId865"/>
-    <hyperlink ref="P341" r:id="rId866"/>
-    <hyperlink ref="B342" r:id="rId867"/>
-    <hyperlink ref="L342" r:id="rId868"/>
-    <hyperlink ref="N342" r:id="rId869"/>
-    <hyperlink ref="P342" r:id="rId870"/>
-    <hyperlink ref="B343" r:id="rId871"/>
-    <hyperlink ref="L343" r:id="rId872"/>
-    <hyperlink ref="N343" r:id="rId873"/>
-    <hyperlink ref="P343" r:id="rId874"/>
-    <hyperlink ref="B344" r:id="rId875"/>
-    <hyperlink ref="L344" r:id="rId876"/>
-    <hyperlink ref="N344" r:id="rId877"/>
-    <hyperlink ref="B345" r:id="rId878"/>
-    <hyperlink ref="L345" r:id="rId879"/>
-    <hyperlink ref="N345" r:id="rId880"/>
-    <hyperlink ref="B346" r:id="rId881"/>
-    <hyperlink ref="L346" r:id="rId882"/>
-    <hyperlink ref="N346" r:id="rId883"/>
-    <hyperlink ref="O346" r:id="rId884"/>
-    <hyperlink ref="P346" r:id="rId885"/>
-    <hyperlink ref="B347" r:id="rId886"/>
-    <hyperlink ref="L347" r:id="rId887"/>
-    <hyperlink ref="N347" r:id="rId888"/>
-    <hyperlink ref="B348" r:id="rId889"/>
-    <hyperlink ref="L348" r:id="rId890"/>
-    <hyperlink ref="N348" r:id="rId891"/>
-    <hyperlink ref="B349" r:id="rId892"/>
-    <hyperlink ref="L349" r:id="rId893"/>
-    <hyperlink ref="N349" r:id="rId894"/>
-    <hyperlink ref="O349" r:id="rId895"/>
-    <hyperlink ref="P349" r:id="rId896"/>
-    <hyperlink ref="B350" r:id="rId897"/>
-    <hyperlink ref="L350" r:id="rId898"/>
-    <hyperlink ref="N350" r:id="rId899"/>
-    <hyperlink ref="P350" r:id="rId900"/>
-    <hyperlink ref="B351" r:id="rId901"/>
-    <hyperlink ref="L351" r:id="rId902"/>
-    <hyperlink ref="N351" r:id="rId903"/>
-    <hyperlink ref="O351" r:id="rId904"/>
-    <hyperlink ref="P351" r:id="rId905"/>
-    <hyperlink ref="R351" r:id="rId906"/>
-    <hyperlink ref="B352" r:id="rId907"/>
-    <hyperlink ref="B353" r:id="rId908"/>
-    <hyperlink ref="B354" r:id="rId909"/>
-    <hyperlink ref="B355" r:id="rId910"/>
-    <hyperlink ref="L355" r:id="rId911"/>
-    <hyperlink ref="N355" r:id="rId912"/>
-    <hyperlink ref="P355" r:id="rId913"/>
-    <hyperlink ref="B356" r:id="rId914"/>
-    <hyperlink ref="L356" r:id="rId915"/>
-    <hyperlink ref="N356" r:id="rId916"/>
-    <hyperlink ref="P356" r:id="rId917"/>
-    <hyperlink ref="B357" r:id="rId918"/>
-    <hyperlink ref="B358" r:id="rId919"/>
-    <hyperlink ref="B359" r:id="rId920"/>
-    <hyperlink ref="B360" r:id="rId921"/>
-    <hyperlink ref="L360" r:id="rId922"/>
-    <hyperlink ref="N360" r:id="rId923"/>
-    <hyperlink ref="P360" r:id="rId924"/>
-    <hyperlink ref="B361" r:id="rId925"/>
-    <hyperlink ref="B362" r:id="rId926"/>
-    <hyperlink ref="B363" r:id="rId927"/>
-    <hyperlink ref="B364" r:id="rId928"/>
-    <hyperlink ref="B365" r:id="rId929"/>
-    <hyperlink ref="B366" r:id="rId930"/>
-    <hyperlink ref="L366" r:id="rId931"/>
-    <hyperlink ref="N366" r:id="rId932"/>
-    <hyperlink ref="P366" r:id="rId933"/>
-    <hyperlink ref="B367" r:id="rId934"/>
-    <hyperlink ref="B368" r:id="rId935"/>
-    <hyperlink ref="L368" r:id="rId936"/>
-    <hyperlink ref="N368" r:id="rId937"/>
-    <hyperlink ref="B369" r:id="rId938"/>
-    <hyperlink ref="L369" r:id="rId939"/>
-    <hyperlink ref="N369" r:id="rId940"/>
-    <hyperlink ref="B370" r:id="rId941"/>
-    <hyperlink ref="L370" r:id="rId942"/>
-    <hyperlink ref="N370" r:id="rId943"/>
-    <hyperlink ref="B371" r:id="rId944"/>
-    <hyperlink ref="B372" r:id="rId945"/>
-    <hyperlink ref="L372" r:id="rId946"/>
-    <hyperlink ref="N372" r:id="rId947"/>
-    <hyperlink ref="B373" r:id="rId948"/>
-    <hyperlink ref="L373" r:id="rId949"/>
-    <hyperlink ref="N373" r:id="rId950"/>
-    <hyperlink ref="B374" r:id="rId951"/>
-    <hyperlink ref="L374" r:id="rId952"/>
-    <hyperlink ref="N374" r:id="rId953"/>
-    <hyperlink ref="B375" r:id="rId954"/>
-    <hyperlink ref="L375" r:id="rId955"/>
-    <hyperlink ref="N375" r:id="rId956"/>
-    <hyperlink ref="B376" r:id="rId957"/>
-    <hyperlink ref="B377" r:id="rId958"/>
-    <hyperlink ref="B378" r:id="rId959"/>
-    <hyperlink ref="L378" r:id="rId960"/>
-    <hyperlink ref="N378" r:id="rId961"/>
-    <hyperlink ref="B379" r:id="rId962"/>
-    <hyperlink ref="B380" r:id="rId963"/>
-    <hyperlink ref="L380" r:id="rId964"/>
-    <hyperlink ref="N380" r:id="rId965"/>
-    <hyperlink ref="B381" r:id="rId966"/>
-    <hyperlink ref="L381" r:id="rId967"/>
-    <hyperlink ref="N381" r:id="rId968"/>
-    <hyperlink ref="B382" r:id="rId969"/>
-    <hyperlink ref="B383" r:id="rId970"/>
-    <hyperlink ref="L383" r:id="rId971"/>
-    <hyperlink ref="N383" r:id="rId972"/>
-    <hyperlink ref="B384" r:id="rId973"/>
-    <hyperlink ref="L384" r:id="rId974"/>
-    <hyperlink ref="N384" r:id="rId975"/>
-    <hyperlink ref="P384" r:id="rId976"/>
-    <hyperlink ref="B385" r:id="rId977"/>
-    <hyperlink ref="B386" r:id="rId978"/>
-    <hyperlink ref="B387" r:id="rId979"/>
-    <hyperlink ref="L387" r:id="rId980"/>
-    <hyperlink ref="N387" r:id="rId981"/>
-    <hyperlink ref="B388" r:id="rId982"/>
-    <hyperlink ref="L388" r:id="rId983"/>
-    <hyperlink ref="N388" r:id="rId984"/>
-    <hyperlink ref="B389" r:id="rId985"/>
-    <hyperlink ref="L389" r:id="rId986"/>
-    <hyperlink ref="N389" r:id="rId987"/>
-    <hyperlink ref="B390" r:id="rId988"/>
-    <hyperlink ref="L390" r:id="rId989"/>
-    <hyperlink ref="N390" r:id="rId990"/>
-    <hyperlink ref="P390" r:id="rId991"/>
-    <hyperlink ref="B391" r:id="rId992"/>
-    <hyperlink ref="B392" r:id="rId993"/>
-    <hyperlink ref="L392" r:id="rId994"/>
-    <hyperlink ref="N392" r:id="rId995"/>
-    <hyperlink ref="P392" r:id="rId996"/>
-    <hyperlink ref="B393" r:id="rId997"/>
-    <hyperlink ref="L393" r:id="rId998"/>
-    <hyperlink ref="N393" r:id="rId999"/>
-    <hyperlink ref="P393" r:id="rId1000"/>
-    <hyperlink ref="B394" r:id="rId1001"/>
-    <hyperlink ref="B395" r:id="rId1002"/>
-    <hyperlink ref="L395" r:id="rId1003"/>
-    <hyperlink ref="N395" r:id="rId1004"/>
-    <hyperlink ref="P395" r:id="rId1005"/>
-    <hyperlink ref="B396" r:id="rId1006"/>
-    <hyperlink ref="B397" r:id="rId1007"/>
-    <hyperlink ref="L397" r:id="rId1008"/>
-    <hyperlink ref="N397" r:id="rId1009"/>
-    <hyperlink ref="B398" r:id="rId1010"/>
-    <hyperlink ref="L398" r:id="rId1011"/>
-    <hyperlink ref="N398" r:id="rId1012"/>
-    <hyperlink ref="P398" r:id="rId1013"/>
-    <hyperlink ref="B399" r:id="rId1014"/>
-    <hyperlink ref="B400" r:id="rId1015"/>
-    <hyperlink ref="L400" r:id="rId1016"/>
-    <hyperlink ref="N400" r:id="rId1017"/>
-    <hyperlink ref="B401" r:id="rId1018"/>
-    <hyperlink ref="L401" r:id="rId1019"/>
-    <hyperlink ref="N401" r:id="rId1020"/>
-    <hyperlink ref="P401" r:id="rId1021"/>
-    <hyperlink ref="B402" r:id="rId1022"/>
-    <hyperlink ref="L402" r:id="rId1023"/>
-    <hyperlink ref="N402" r:id="rId1024"/>
-    <hyperlink ref="B403" r:id="rId1025"/>
-    <hyperlink ref="L403" r:id="rId1026"/>
-    <hyperlink ref="N403" r:id="rId1027"/>
-    <hyperlink ref="P403" r:id="rId1028"/>
-    <hyperlink ref="B404" r:id="rId1029"/>
-    <hyperlink ref="L404" r:id="rId1030"/>
-    <hyperlink ref="N404" r:id="rId1031"/>
-    <hyperlink ref="P404" r:id="rId1032"/>
-    <hyperlink ref="B405" r:id="rId1033"/>
-    <hyperlink ref="L405" r:id="rId1034"/>
-    <hyperlink ref="N405" r:id="rId1035"/>
-    <hyperlink ref="P405" r:id="rId1036"/>
-    <hyperlink ref="B406" r:id="rId1037"/>
-    <hyperlink ref="L406" r:id="rId1038"/>
-    <hyperlink ref="N406" r:id="rId1039"/>
-    <hyperlink ref="P406" r:id="rId1040"/>
-    <hyperlink ref="R406" r:id="rId1041"/>
-    <hyperlink ref="B407" r:id="rId1042"/>
-    <hyperlink ref="L407" r:id="rId1043"/>
-    <hyperlink ref="N407" r:id="rId1044"/>
-    <hyperlink ref="P407" r:id="rId1045"/>
-    <hyperlink ref="B408" r:id="rId1046"/>
-    <hyperlink ref="B409" r:id="rId1047"/>
-    <hyperlink ref="B410" r:id="rId1048"/>
-    <hyperlink ref="L410" r:id="rId1049"/>
-    <hyperlink ref="N410" r:id="rId1050"/>
-    <hyperlink ref="B411" r:id="rId1051"/>
-    <hyperlink ref="B412" r:id="rId1052"/>
-    <hyperlink ref="L412" r:id="rId1053"/>
-    <hyperlink ref="N412" r:id="rId1054"/>
-    <hyperlink ref="P412" r:id="rId1055"/>
-    <hyperlink ref="B413" r:id="rId1056"/>
-    <hyperlink ref="L413" r:id="rId1057"/>
-    <hyperlink ref="N413" r:id="rId1058"/>
-    <hyperlink ref="P413" r:id="rId1059"/>
-    <hyperlink ref="B414" r:id="rId1060"/>
-    <hyperlink ref="L414" r:id="rId1061"/>
-    <hyperlink ref="N414" r:id="rId1062"/>
-    <hyperlink ref="B415" r:id="rId1063"/>
-    <hyperlink ref="B416" r:id="rId1064"/>
-    <hyperlink ref="L416" r:id="rId1065"/>
-    <hyperlink ref="N416" r:id="rId1066"/>
-    <hyperlink ref="B417" r:id="rId1067"/>
-    <hyperlink ref="B418" r:id="rId1068"/>
-    <hyperlink ref="L418" r:id="rId1069"/>
-    <hyperlink ref="N418" r:id="rId1070"/>
-    <hyperlink ref="B419" r:id="rId1071"/>
-    <hyperlink ref="L419" r:id="rId1072"/>
-    <hyperlink ref="N419" r:id="rId1073"/>
-    <hyperlink ref="P419" r:id="rId1074"/>
-    <hyperlink ref="B420" r:id="rId1075"/>
-    <hyperlink ref="L420" r:id="rId1076"/>
-    <hyperlink ref="N420" r:id="rId1077"/>
-    <hyperlink ref="P420" r:id="rId1078"/>
-    <hyperlink ref="B421" r:id="rId1079"/>
-    <hyperlink ref="B422" r:id="rId1080"/>
-    <hyperlink ref="B423" r:id="rId1081"/>
-    <hyperlink ref="L423" r:id="rId1082"/>
-    <hyperlink ref="N423" r:id="rId1083"/>
-    <hyperlink ref="P423" r:id="rId1084"/>
-    <hyperlink ref="B424" r:id="rId1085"/>
-    <hyperlink ref="L424" r:id="rId1086"/>
-    <hyperlink ref="N424" r:id="rId1087"/>
-    <hyperlink ref="B425" r:id="rId1088"/>
-    <hyperlink ref="L425" r:id="rId1089"/>
-    <hyperlink ref="N425" r:id="rId1090"/>
-    <hyperlink ref="P425" r:id="rId1091"/>
-    <hyperlink ref="B426" r:id="rId1092"/>
-    <hyperlink ref="L426" r:id="rId1093"/>
-    <hyperlink ref="N426" r:id="rId1094"/>
-    <hyperlink ref="P426" r:id="rId1095"/>
-    <hyperlink ref="B427" r:id="rId1096"/>
-    <hyperlink ref="N427" r:id="rId1097"/>
-    <hyperlink ref="B428" r:id="rId1098"/>
-    <hyperlink ref="N428" r:id="rId1099"/>
-    <hyperlink ref="B429" r:id="rId1100"/>
-    <hyperlink ref="L429" r:id="rId1101"/>
-    <hyperlink ref="N429" r:id="rId1102"/>
-    <hyperlink ref="O429" r:id="rId1103"/>
-    <hyperlink ref="B430" r:id="rId1104"/>
-    <hyperlink ref="L430" r:id="rId1105"/>
-    <hyperlink ref="N430" r:id="rId1106"/>
-    <hyperlink ref="B431" r:id="rId1107"/>
-    <hyperlink ref="L431" r:id="rId1108"/>
-    <hyperlink ref="N431" r:id="rId1109"/>
-    <hyperlink ref="P431" r:id="rId1110"/>
-    <hyperlink ref="B432" r:id="rId1111"/>
-    <hyperlink ref="L432" r:id="rId1112"/>
-    <hyperlink ref="N432" r:id="rId1113"/>
-    <hyperlink ref="B433" r:id="rId1114"/>
-    <hyperlink ref="L433" r:id="rId1115"/>
-    <hyperlink ref="N433" r:id="rId1116"/>
-    <hyperlink ref="B434" r:id="rId1117"/>
-    <hyperlink ref="L434" r:id="rId1118"/>
-    <hyperlink ref="N434" r:id="rId1119"/>
-    <hyperlink ref="B435" r:id="rId1120"/>
-    <hyperlink ref="L435" r:id="rId1121"/>
-    <hyperlink ref="N435" r:id="rId1122"/>
-    <hyperlink ref="P435" r:id="rId1123"/>
-    <hyperlink ref="R435" r:id="rId1124"/>
-    <hyperlink ref="B436" r:id="rId1125"/>
-    <hyperlink ref="L436" r:id="rId1126"/>
-    <hyperlink ref="N436" r:id="rId1127"/>
-    <hyperlink ref="B437" r:id="rId1128"/>
-    <hyperlink ref="L437" r:id="rId1129"/>
-    <hyperlink ref="N437" r:id="rId1130"/>
-    <hyperlink ref="O437" r:id="rId1131"/>
-    <hyperlink ref="P437" r:id="rId1132"/>
-    <hyperlink ref="B438" r:id="rId1133"/>
-    <hyperlink ref="L438" r:id="rId1134"/>
-    <hyperlink ref="N438" r:id="rId1135"/>
-    <hyperlink ref="B439" r:id="rId1136"/>
-    <hyperlink ref="L439" r:id="rId1137"/>
-    <hyperlink ref="B440" r:id="rId1138"/>
-    <hyperlink ref="B441" r:id="rId1139"/>
-    <hyperlink ref="L441" r:id="rId1140"/>
-    <hyperlink ref="N441" r:id="rId1141"/>
-    <hyperlink ref="B442" r:id="rId1142"/>
-    <hyperlink ref="B443" r:id="rId1143"/>
-    <hyperlink ref="N443" r:id="rId1144"/>
-    <hyperlink ref="B444" r:id="rId1145"/>
-    <hyperlink ref="L444" r:id="rId1146"/>
-    <hyperlink ref="N444" r:id="rId1147"/>
-    <hyperlink ref="B445" r:id="rId1148"/>
-    <hyperlink ref="L445" r:id="rId1149"/>
-    <hyperlink ref="N445" r:id="rId1150"/>
-    <hyperlink ref="B446" r:id="rId1151"/>
-    <hyperlink ref="L446" r:id="rId1152"/>
-    <hyperlink ref="N446" r:id="rId1153"/>
-    <hyperlink ref="B447" r:id="rId1154"/>
-    <hyperlink ref="L447" r:id="rId1155"/>
-    <hyperlink ref="N447" r:id="rId1156"/>
-    <hyperlink ref="B448" r:id="rId1157"/>
-    <hyperlink ref="L448" r:id="rId1158"/>
-    <hyperlink ref="N448" r:id="rId1159"/>
-    <hyperlink ref="B449" r:id="rId1160"/>
-    <hyperlink ref="L449" r:id="rId1161"/>
-    <hyperlink ref="N449" r:id="rId1162"/>
-    <hyperlink ref="B450" r:id="rId1163"/>
-    <hyperlink ref="L450" r:id="rId1164"/>
-    <hyperlink ref="N450" r:id="rId1165"/>
-    <hyperlink ref="B451" r:id="rId1166"/>
-    <hyperlink ref="L451" r:id="rId1167"/>
-    <hyperlink ref="N451" r:id="rId1168"/>
-    <hyperlink ref="B452" r:id="rId1169"/>
-    <hyperlink ref="L452" r:id="rId1170"/>
-    <hyperlink ref="N452" r:id="rId1171"/>
-    <hyperlink ref="B453" r:id="rId1172"/>
-    <hyperlink ref="L453" r:id="rId1173"/>
-    <hyperlink ref="N453" r:id="rId1174"/>
-    <hyperlink ref="B454" r:id="rId1175"/>
-    <hyperlink ref="L454" r:id="rId1176"/>
-    <hyperlink ref="N454" r:id="rId1177"/>
-    <hyperlink ref="P454" r:id="rId1178"/>
-    <hyperlink ref="B455" r:id="rId1179"/>
-    <hyperlink ref="L455" r:id="rId1180"/>
-    <hyperlink ref="N455" r:id="rId1181"/>
-    <hyperlink ref="P455" r:id="rId1182"/>
-    <hyperlink ref="B456" r:id="rId1183"/>
-    <hyperlink ref="N456" r:id="rId1184"/>
-    <hyperlink ref="B457" r:id="rId1185"/>
-    <hyperlink ref="L457" r:id="rId1186"/>
-    <hyperlink ref="N457" r:id="rId1187"/>
-    <hyperlink ref="B458" r:id="rId1188"/>
-    <hyperlink ref="B459" r:id="rId1189"/>
-    <hyperlink ref="B460" r:id="rId1190"/>
-    <hyperlink ref="L460" r:id="rId1191"/>
-    <hyperlink ref="N460" r:id="rId1192"/>
-    <hyperlink ref="P460" r:id="rId1193"/>
-    <hyperlink ref="B461" r:id="rId1194"/>
-    <hyperlink ref="B462" r:id="rId1195"/>
-    <hyperlink ref="B463" r:id="rId1196"/>
-    <hyperlink ref="L463" r:id="rId1197"/>
-    <hyperlink ref="N463" r:id="rId1198"/>
-    <hyperlink ref="B464" r:id="rId1199"/>
-    <hyperlink ref="L464" r:id="rId1200"/>
-    <hyperlink ref="N464" r:id="rId1201"/>
-    <hyperlink ref="B465" r:id="rId1202"/>
-    <hyperlink ref="L465" r:id="rId1203"/>
-    <hyperlink ref="N465" r:id="rId1204"/>
-    <hyperlink ref="B466" r:id="rId1205"/>
-    <hyperlink ref="L466" r:id="rId1206"/>
-    <hyperlink ref="N466" r:id="rId1207"/>
-    <hyperlink ref="B467" r:id="rId1208"/>
-    <hyperlink ref="L467" r:id="rId1209"/>
-    <hyperlink ref="N467" r:id="rId1210"/>
-    <hyperlink ref="B468" r:id="rId1211"/>
-    <hyperlink ref="L468" r:id="rId1212"/>
-    <hyperlink ref="N468" r:id="rId1213"/>
-    <hyperlink ref="B469" r:id="rId1214"/>
-    <hyperlink ref="L469" r:id="rId1215"/>
-    <hyperlink ref="N469" r:id="rId1216"/>
-    <hyperlink ref="B470" r:id="rId1217"/>
-    <hyperlink ref="L470" r:id="rId1218"/>
-    <hyperlink ref="N470" r:id="rId1219"/>
-    <hyperlink ref="B471" r:id="rId1220"/>
-    <hyperlink ref="L471" r:id="rId1221"/>
-    <hyperlink ref="N471" r:id="rId1222"/>
-    <hyperlink ref="P471" r:id="rId1223"/>
-    <hyperlink ref="R471" r:id="rId1224"/>
-    <hyperlink ref="B472" r:id="rId1225"/>
-    <hyperlink ref="B473" r:id="rId1226"/>
-    <hyperlink ref="L473" r:id="rId1227"/>
-    <hyperlink ref="N473" r:id="rId1228"/>
-    <hyperlink ref="B474" r:id="rId1229"/>
-    <hyperlink ref="L474" r:id="rId1230"/>
-    <hyperlink ref="N474" r:id="rId1231"/>
-    <hyperlink ref="B475" r:id="rId1232"/>
-    <hyperlink ref="L475" r:id="rId1233"/>
-    <hyperlink ref="N475" r:id="rId1234"/>
-    <hyperlink ref="P475" r:id="rId1235"/>
-    <hyperlink ref="B476" r:id="rId1236"/>
-    <hyperlink ref="L476" r:id="rId1237"/>
-    <hyperlink ref="N476" r:id="rId1238"/>
-    <hyperlink ref="B477" r:id="rId1239"/>
-    <hyperlink ref="L477" r:id="rId1240"/>
-    <hyperlink ref="N477" r:id="rId1241"/>
-    <hyperlink ref="P477" r:id="rId1242"/>
-    <hyperlink ref="B478" r:id="rId1243"/>
-    <hyperlink ref="L478" r:id="rId1244"/>
-    <hyperlink ref="N478" r:id="rId1245"/>
-    <hyperlink ref="B479" r:id="rId1246"/>
-    <hyperlink ref="L479" r:id="rId1247"/>
-    <hyperlink ref="N479" r:id="rId1248"/>
-    <hyperlink ref="B480" r:id="rId1249"/>
-    <hyperlink ref="L480" r:id="rId1250"/>
-    <hyperlink ref="N480" r:id="rId1251"/>
-    <hyperlink ref="B481" r:id="rId1252"/>
-    <hyperlink ref="N481" r:id="rId1253"/>
-    <hyperlink ref="P481" r:id="rId1254"/>
-    <hyperlink ref="B482" r:id="rId1255"/>
-    <hyperlink ref="L482" r:id="rId1256"/>
-    <hyperlink ref="N482" r:id="rId1257"/>
-    <hyperlink ref="P482" r:id="rId1258"/>
-    <hyperlink ref="B483" r:id="rId1259"/>
-    <hyperlink ref="L483" r:id="rId1260"/>
-    <hyperlink ref="N483" r:id="rId1261"/>
-    <hyperlink ref="B484" r:id="rId1262"/>
-    <hyperlink ref="L484" r:id="rId1263"/>
-    <hyperlink ref="N484" r:id="rId1264"/>
-    <hyperlink ref="B485" r:id="rId1265"/>
-    <hyperlink ref="L485" r:id="rId1266"/>
-    <hyperlink ref="N485" r:id="rId1267"/>
-    <hyperlink ref="P485" r:id="rId1268"/>
-    <hyperlink ref="B486" r:id="rId1269"/>
-    <hyperlink ref="L486" r:id="rId1270"/>
-    <hyperlink ref="N486" r:id="rId1271"/>
-    <hyperlink ref="B487" r:id="rId1272"/>
-    <hyperlink ref="L487" r:id="rId1273"/>
-    <hyperlink ref="N487" r:id="rId1274"/>
-    <hyperlink ref="B488" r:id="rId1275"/>
-    <hyperlink ref="L488" r:id="rId1276"/>
-    <hyperlink ref="N488" r:id="rId1277"/>
-    <hyperlink ref="B489" r:id="rId1278"/>
-    <hyperlink ref="L489" r:id="rId1279"/>
-    <hyperlink ref="N489" r:id="rId1280"/>
-    <hyperlink ref="P489" r:id="rId1281"/>
-    <hyperlink ref="B490" r:id="rId1282"/>
-    <hyperlink ref="L490" r:id="rId1283"/>
-    <hyperlink ref="N490" r:id="rId1284"/>
-    <hyperlink ref="P490" r:id="rId1285"/>
-    <hyperlink ref="B491" r:id="rId1286"/>
-    <hyperlink ref="L491" r:id="rId1287"/>
-    <hyperlink ref="N491" r:id="rId1288"/>
-    <hyperlink ref="B492" r:id="rId1289"/>
-    <hyperlink ref="L492" r:id="rId1290"/>
-    <hyperlink ref="N492" r:id="rId1291"/>
-    <hyperlink ref="P492" r:id="rId1292"/>
-    <hyperlink ref="B493" r:id="rId1293"/>
-    <hyperlink ref="L493" r:id="rId1294"/>
-    <hyperlink ref="N493" r:id="rId1295"/>
-    <hyperlink ref="P493" r:id="rId1296"/>
-    <hyperlink ref="B494" r:id="rId1297"/>
-    <hyperlink ref="L494" r:id="rId1298"/>
-    <hyperlink ref="N494" r:id="rId1299"/>
-    <hyperlink ref="B495" r:id="rId1300"/>
-    <hyperlink ref="L495" r:id="rId1301"/>
-    <hyperlink ref="N495" r:id="rId1302"/>
-    <hyperlink ref="P495" r:id="rId1303"/>
-    <hyperlink ref="B496" r:id="rId1304"/>
-    <hyperlink ref="L496" r:id="rId1305"/>
-    <hyperlink ref="N496" r:id="rId1306"/>
-    <hyperlink ref="B497" r:id="rId1307"/>
-    <hyperlink ref="L497" r:id="rId1308"/>
-    <hyperlink ref="N497" r:id="rId1309"/>
-    <hyperlink ref="P497" r:id="rId1310"/>
-    <hyperlink ref="B498" r:id="rId1311"/>
-    <hyperlink ref="L498" r:id="rId1312"/>
-    <hyperlink ref="N498" r:id="rId1313"/>
-    <hyperlink ref="B499" r:id="rId1314"/>
-    <hyperlink ref="L499" r:id="rId1315"/>
-    <hyperlink ref="N499" r:id="rId1316"/>
-    <hyperlink ref="P499" r:id="rId1317"/>
-    <hyperlink ref="B500" r:id="rId1318"/>
-    <hyperlink ref="B501" r:id="rId1319"/>
-    <hyperlink ref="L501" r:id="rId1320"/>
-    <hyperlink ref="N501" r:id="rId1321"/>
-    <hyperlink ref="B502" r:id="rId1322"/>
-    <hyperlink ref="L502" r:id="rId1323"/>
-    <hyperlink ref="N502" r:id="rId1324"/>
-    <hyperlink ref="P502" r:id="rId1325"/>
-    <hyperlink ref="B503" r:id="rId1326"/>
-    <hyperlink ref="L503" r:id="rId1327"/>
-    <hyperlink ref="N503" r:id="rId1328"/>
-    <hyperlink ref="B504" r:id="rId1329"/>
-    <hyperlink ref="L504" r:id="rId1330"/>
-    <hyperlink ref="N504" r:id="rId1331"/>
-    <hyperlink ref="P504" r:id="rId1332"/>
-    <hyperlink ref="B505" r:id="rId1333"/>
-    <hyperlink ref="L505" r:id="rId1334"/>
-    <hyperlink ref="N505" r:id="rId1335"/>
-    <hyperlink ref="P505" r:id="rId1336"/>
-    <hyperlink ref="B506" r:id="rId1337"/>
-    <hyperlink ref="L506" r:id="rId1338"/>
-    <hyperlink ref="N506" r:id="rId1339"/>
-    <hyperlink ref="B507" r:id="rId1340"/>
-    <hyperlink ref="L507" r:id="rId1341"/>
-    <hyperlink ref="N507" r:id="rId1342"/>
-    <hyperlink ref="P507" r:id="rId1343"/>
-    <hyperlink ref="R507" r:id="rId1344"/>
-    <hyperlink ref="B508" r:id="rId1345"/>
-    <hyperlink ref="N508" r:id="rId1346"/>
-    <hyperlink ref="B509" r:id="rId1347"/>
-    <hyperlink ref="L509" r:id="rId1348"/>
-    <hyperlink ref="N509" r:id="rId1349"/>
-    <hyperlink ref="B510" r:id="rId1350"/>
-    <hyperlink ref="N510" r:id="rId1351"/>
-    <hyperlink ref="B511" r:id="rId1352"/>
-    <hyperlink ref="L511" r:id="rId1353"/>
-    <hyperlink ref="N511" r:id="rId1354"/>
-    <hyperlink ref="B512" r:id="rId1355"/>
-    <hyperlink ref="N512" r:id="rId1356"/>
-    <hyperlink ref="B513" r:id="rId1357"/>
-    <hyperlink ref="L513" r:id="rId1358"/>
-    <hyperlink ref="N513" r:id="rId1359"/>
-    <hyperlink ref="B514" r:id="rId1360"/>
-    <hyperlink ref="L514" r:id="rId1361"/>
-    <hyperlink ref="N514" r:id="rId1362"/>
-    <hyperlink ref="B515" r:id="rId1363"/>
-    <hyperlink ref="L515" r:id="rId1364"/>
-    <hyperlink ref="N515" r:id="rId1365"/>
-    <hyperlink ref="B516" r:id="rId1366"/>
-    <hyperlink ref="L516" r:id="rId1367"/>
-    <hyperlink ref="N516" r:id="rId1368"/>
-    <hyperlink ref="P516" r:id="rId1369"/>
-    <hyperlink ref="R516" r:id="rId1370"/>
-    <hyperlink ref="B517" r:id="rId1371"/>
-    <hyperlink ref="L517" r:id="rId1372"/>
-    <hyperlink ref="N517" r:id="rId1373"/>
-    <hyperlink ref="B518" r:id="rId1374"/>
-    <hyperlink ref="L518" r:id="rId1375"/>
-    <hyperlink ref="N518" r:id="rId1376"/>
-    <hyperlink ref="O518" r:id="rId1377"/>
-    <hyperlink ref="P518" r:id="rId1378"/>
-    <hyperlink ref="R518" r:id="rId1379"/>
-    <hyperlink ref="B519" r:id="rId1380"/>
-    <hyperlink ref="L519" r:id="rId1381"/>
-    <hyperlink ref="N519" r:id="rId1382"/>
-    <hyperlink ref="B520" r:id="rId1383"/>
-    <hyperlink ref="L520" r:id="rId1384"/>
-    <hyperlink ref="N520" r:id="rId1385"/>
-    <hyperlink ref="P520" r:id="rId1386"/>
-    <hyperlink ref="R520" r:id="rId1387"/>
-    <hyperlink ref="B521" r:id="rId1388"/>
-    <hyperlink ref="L521" r:id="rId1389"/>
-    <hyperlink ref="N521" r:id="rId1390"/>
-    <hyperlink ref="P521" r:id="rId1391"/>
-    <hyperlink ref="B522" r:id="rId1392"/>
-    <hyperlink ref="L522" r:id="rId1393"/>
-    <hyperlink ref="N522" r:id="rId1394"/>
-    <hyperlink ref="B523" r:id="rId1395"/>
-    <hyperlink ref="L523" r:id="rId1396"/>
-    <hyperlink ref="N523" r:id="rId1397"/>
-    <hyperlink ref="P523" r:id="rId1398"/>
-    <hyperlink ref="B524" r:id="rId1399"/>
-    <hyperlink ref="L524" r:id="rId1400"/>
-    <hyperlink ref="N524" r:id="rId1401"/>
-    <hyperlink ref="P524" r:id="rId1402"/>
-    <hyperlink ref="B525" r:id="rId1403"/>
-    <hyperlink ref="L525" r:id="rId1404"/>
-    <hyperlink ref="N525" r:id="rId1405"/>
-    <hyperlink ref="P525" r:id="rId1406"/>
-    <hyperlink ref="B526" r:id="rId1407"/>
-    <hyperlink ref="L526" r:id="rId1408"/>
-    <hyperlink ref="N526" r:id="rId1409"/>
-    <hyperlink ref="P526" r:id="rId1410"/>
-    <hyperlink ref="B527" r:id="rId1411"/>
-    <hyperlink ref="L527" r:id="rId1412"/>
-    <hyperlink ref="N527" r:id="rId1413"/>
-    <hyperlink ref="P527" r:id="rId1414"/>
-    <hyperlink ref="B528" r:id="rId1415"/>
-    <hyperlink ref="L528" r:id="rId1416"/>
-    <hyperlink ref="N528" r:id="rId1417"/>
-    <hyperlink ref="B529" r:id="rId1418"/>
-    <hyperlink ref="L529" r:id="rId1419"/>
-    <hyperlink ref="N529" r:id="rId1420"/>
-    <hyperlink ref="B530" r:id="rId1421"/>
-    <hyperlink ref="L530" r:id="rId1422"/>
-    <hyperlink ref="N530" r:id="rId1423"/>
-    <hyperlink ref="B531" r:id="rId1424"/>
-    <hyperlink ref="B532" r:id="rId1425"/>
-    <hyperlink ref="B533" r:id="rId1426"/>
-    <hyperlink ref="B534" r:id="rId1427"/>
-    <hyperlink ref="B535" r:id="rId1428"/>
-    <hyperlink ref="B536" r:id="rId1429"/>
-    <hyperlink ref="N536" r:id="rId1430"/>
-    <hyperlink ref="B537" r:id="rId1431"/>
-    <hyperlink ref="L537" r:id="rId1432"/>
-    <hyperlink ref="N537" r:id="rId1433"/>
-    <hyperlink ref="B538" r:id="rId1434"/>
-    <hyperlink ref="L538" r:id="rId1435"/>
-    <hyperlink ref="N538" r:id="rId1436"/>
-    <hyperlink ref="P538" r:id="rId1437"/>
-    <hyperlink ref="R538" r:id="rId1438"/>
-    <hyperlink ref="B539" r:id="rId1439"/>
-    <hyperlink ref="L539" r:id="rId1440"/>
-    <hyperlink ref="N539" r:id="rId1441"/>
-    <hyperlink ref="P539" r:id="rId1442"/>
-    <hyperlink ref="R539" r:id="rId1443"/>
-    <hyperlink ref="B540" r:id="rId1444"/>
-    <hyperlink ref="L540" r:id="rId1445"/>
-    <hyperlink ref="N540" r:id="rId1446"/>
-    <hyperlink ref="P540" r:id="rId1447"/>
-    <hyperlink ref="B541" r:id="rId1448"/>
-    <hyperlink ref="L541" r:id="rId1449"/>
-    <hyperlink ref="N541" r:id="rId1450"/>
-    <hyperlink ref="O541" r:id="rId1451"/>
-    <hyperlink ref="P541" r:id="rId1452"/>
-    <hyperlink ref="B542" r:id="rId1453"/>
-    <hyperlink ref="B543" r:id="rId1454"/>
-    <hyperlink ref="B544" r:id="rId1455"/>
-    <hyperlink ref="B545" r:id="rId1456"/>
-    <hyperlink ref="N545" r:id="rId1457"/>
-    <hyperlink ref="B546" r:id="rId1458"/>
-    <hyperlink ref="B547" r:id="rId1459"/>
-    <hyperlink ref="B548" r:id="rId1460"/>
-    <hyperlink ref="L548" r:id="rId1461"/>
-    <hyperlink ref="N548" r:id="rId1462"/>
-    <hyperlink ref="B549" r:id="rId1463"/>
-    <hyperlink ref="L549" r:id="rId1464"/>
-    <hyperlink ref="N549" r:id="rId1465"/>
-    <hyperlink ref="O549" r:id="rId1466"/>
-    <hyperlink ref="P549" r:id="rId1467"/>
-    <hyperlink ref="B550" r:id="rId1468"/>
-    <hyperlink ref="L550" r:id="rId1469"/>
-    <hyperlink ref="N550" r:id="rId1470"/>
-    <hyperlink ref="P550" r:id="rId1471"/>
-    <hyperlink ref="B551" r:id="rId1472"/>
-    <hyperlink ref="B552" r:id="rId1473"/>
-    <hyperlink ref="L552" r:id="rId1474"/>
-    <hyperlink ref="N552" r:id="rId1475"/>
-    <hyperlink ref="B553" r:id="rId1476"/>
-    <hyperlink ref="L553" r:id="rId1477"/>
-    <hyperlink ref="N553" r:id="rId1478"/>
-    <hyperlink ref="B554" r:id="rId1479"/>
-    <hyperlink ref="L554" r:id="rId1480"/>
-    <hyperlink ref="N554" r:id="rId1481"/>
-    <hyperlink ref="P554" r:id="rId1482"/>
-    <hyperlink ref="B555" r:id="rId1483"/>
-    <hyperlink ref="L555" r:id="rId1484"/>
-    <hyperlink ref="N555" r:id="rId1485"/>
-    <hyperlink ref="P555" r:id="rId1486"/>
-    <hyperlink ref="B556" r:id="rId1487"/>
-    <hyperlink ref="L556" r:id="rId1488"/>
-    <hyperlink ref="N556" r:id="rId1489"/>
-    <hyperlink ref="P556" r:id="rId1490"/>
-    <hyperlink ref="B557" r:id="rId1491"/>
-    <hyperlink ref="L557" r:id="rId1492"/>
-    <hyperlink ref="N557" r:id="rId1493"/>
-    <hyperlink ref="P557" r:id="rId1494"/>
-    <hyperlink ref="B558" r:id="rId1495"/>
-    <hyperlink ref="L558" r:id="rId1496"/>
-    <hyperlink ref="N558" r:id="rId1497"/>
-    <hyperlink ref="B559" r:id="rId1498"/>
-    <hyperlink ref="B560" r:id="rId1499"/>
-    <hyperlink ref="B561" r:id="rId1500"/>
-    <hyperlink ref="L561" r:id="rId1501"/>
-    <hyperlink ref="N561" r:id="rId1502"/>
-    <hyperlink ref="B562" r:id="rId1503"/>
-    <hyperlink ref="B563" r:id="rId1504"/>
-    <hyperlink ref="B564" r:id="rId1505"/>
-    <hyperlink ref="B565" r:id="rId1506"/>
-    <hyperlink ref="B566" r:id="rId1507"/>
-    <hyperlink ref="B567" r:id="rId1508"/>
-    <hyperlink ref="L567" r:id="rId1509"/>
-    <hyperlink ref="N567" r:id="rId1510"/>
-    <hyperlink ref="B568" r:id="rId1511"/>
-    <hyperlink ref="L568" r:id="rId1512"/>
-    <hyperlink ref="N568" r:id="rId1513"/>
-    <hyperlink ref="B569" r:id="rId1514"/>
-    <hyperlink ref="L569" r:id="rId1515"/>
-    <hyperlink ref="B570" r:id="rId1516"/>
-    <hyperlink ref="L570" r:id="rId1517"/>
-    <hyperlink ref="N570" r:id="rId1518"/>
-    <hyperlink ref="B571" r:id="rId1519"/>
-    <hyperlink ref="L571" r:id="rId1520"/>
-    <hyperlink ref="N571" r:id="rId1521"/>
-    <hyperlink ref="B572" r:id="rId1522"/>
-    <hyperlink ref="L572" r:id="rId1523"/>
-    <hyperlink ref="N572" r:id="rId1524"/>
-    <hyperlink ref="B573" r:id="rId1525"/>
-    <hyperlink ref="L573" r:id="rId1526"/>
-    <hyperlink ref="N573" r:id="rId1527"/>
-    <hyperlink ref="B574" r:id="rId1528"/>
-    <hyperlink ref="B575" r:id="rId1529"/>
-    <hyperlink ref="N575" r:id="rId1530"/>
-    <hyperlink ref="B576" r:id="rId1531"/>
-    <hyperlink ref="N576" r:id="rId1532"/>
-    <hyperlink ref="B577" r:id="rId1533"/>
-    <hyperlink ref="B578" r:id="rId1534"/>
-    <hyperlink ref="L578" r:id="rId1535"/>
-    <hyperlink ref="N578" r:id="rId1536"/>
-    <hyperlink ref="P578" r:id="rId1537"/>
-    <hyperlink ref="B579" r:id="rId1538"/>
-    <hyperlink ref="L579" r:id="rId1539"/>
-    <hyperlink ref="N579" r:id="rId1540"/>
-    <hyperlink ref="P579" r:id="rId1541"/>
-    <hyperlink ref="R579" r:id="rId1542"/>
-    <hyperlink ref="B580" r:id="rId1543"/>
-    <hyperlink ref="B581" r:id="rId1544"/>
-    <hyperlink ref="B582" r:id="rId1545"/>
-    <hyperlink ref="N582" r:id="rId1546"/>
-    <hyperlink ref="B583" r:id="rId1547"/>
-    <hyperlink ref="L583" r:id="rId1548"/>
-    <hyperlink ref="N583" r:id="rId1549"/>
-    <hyperlink ref="B584" r:id="rId1550"/>
-    <hyperlink ref="B585" r:id="rId1551"/>
-    <hyperlink ref="L585" r:id="rId1552"/>
-    <hyperlink ref="N585" r:id="rId1553"/>
-    <hyperlink ref="B586" r:id="rId1554"/>
-    <hyperlink ref="L586" r:id="rId1555"/>
-    <hyperlink ref="N586" r:id="rId1556"/>
-    <hyperlink ref="B587" r:id="rId1557"/>
-    <hyperlink ref="L587" r:id="rId1558"/>
-    <hyperlink ref="N587" r:id="rId1559"/>
-    <hyperlink ref="P587" r:id="rId1560"/>
-    <hyperlink ref="R587" r:id="rId1561"/>
-    <hyperlink ref="B588" r:id="rId1562"/>
-    <hyperlink ref="L588" r:id="rId1563"/>
-    <hyperlink ref="N588" r:id="rId1564"/>
-    <hyperlink ref="P588" r:id="rId1565"/>
-    <hyperlink ref="B589" r:id="rId1566"/>
-    <hyperlink ref="L589" r:id="rId1567"/>
-    <hyperlink ref="N589" r:id="rId1568"/>
-    <hyperlink ref="O589" r:id="rId1569"/>
-    <hyperlink ref="P589" r:id="rId1570"/>
-    <hyperlink ref="B590" r:id="rId1571"/>
-    <hyperlink ref="L590" r:id="rId1572"/>
-    <hyperlink ref="N590" r:id="rId1573"/>
-    <hyperlink ref="B591" r:id="rId1574"/>
-    <hyperlink ref="B592" r:id="rId1575"/>
-    <hyperlink ref="N592" r:id="rId1576"/>
-    <hyperlink ref="O592" r:id="rId1577"/>
-    <hyperlink ref="B593" r:id="rId1578"/>
-    <hyperlink ref="L593" r:id="rId1579"/>
-    <hyperlink ref="N593" r:id="rId1580"/>
-    <hyperlink ref="B594" r:id="rId1581"/>
-    <hyperlink ref="N594" r:id="rId1582"/>
-    <hyperlink ref="B595" r:id="rId1583"/>
-    <hyperlink ref="L595" r:id="rId1584"/>
-    <hyperlink ref="N595" r:id="rId1585"/>
-    <hyperlink ref="B596" r:id="rId1586"/>
-    <hyperlink ref="L596" r:id="rId1587"/>
-    <hyperlink ref="N596" r:id="rId1588"/>
-    <hyperlink ref="B597" r:id="rId1589"/>
-    <hyperlink ref="L597" r:id="rId1590"/>
-    <hyperlink ref="N597" r:id="rId1591"/>
-    <hyperlink ref="B598" r:id="rId1592"/>
-    <hyperlink ref="L598" r:id="rId1593"/>
-    <hyperlink ref="N598" r:id="rId1594"/>
-    <hyperlink ref="B599" r:id="rId1595"/>
-    <hyperlink ref="L599" r:id="rId1596"/>
-    <hyperlink ref="N599" r:id="rId1597"/>
-    <hyperlink ref="B600" r:id="rId1598"/>
-    <hyperlink ref="N600" r:id="rId1599"/>
-    <hyperlink ref="O600" r:id="rId1600"/>
-    <hyperlink ref="B601" r:id="rId1601"/>
-    <hyperlink ref="N601" r:id="rId1602"/>
-    <hyperlink ref="B602" r:id="rId1603"/>
-    <hyperlink ref="N602" r:id="rId1604"/>
-    <hyperlink ref="B603" r:id="rId1605"/>
-    <hyperlink ref="L603" r:id="rId1606"/>
-    <hyperlink ref="N603" r:id="rId1607"/>
-    <hyperlink ref="B604" r:id="rId1608"/>
-    <hyperlink ref="L604" r:id="rId1609"/>
-    <hyperlink ref="N604" r:id="rId1610"/>
-    <hyperlink ref="B605" r:id="rId1611"/>
-    <hyperlink ref="L605" r:id="rId1612"/>
-    <hyperlink ref="N605" r:id="rId1613"/>
-    <hyperlink ref="B606" r:id="rId1614"/>
-    <hyperlink ref="B607" r:id="rId1615"/>
-    <hyperlink ref="B608" r:id="rId1616"/>
-    <hyperlink ref="N608" r:id="rId1617"/>
-    <hyperlink ref="O608" r:id="rId1618"/>
-    <hyperlink ref="B609" r:id="rId1619"/>
-    <hyperlink ref="L609" r:id="rId1620"/>
-    <hyperlink ref="N609" r:id="rId1621"/>
-    <hyperlink ref="B610" r:id="rId1622"/>
-    <hyperlink ref="L610" r:id="rId1623"/>
-    <hyperlink ref="N610" r:id="rId1624"/>
-    <hyperlink ref="B611" r:id="rId1625"/>
-    <hyperlink ref="N611" r:id="rId1626"/>
-    <hyperlink ref="B612" r:id="rId1627"/>
-    <hyperlink ref="L612" r:id="rId1628"/>
-    <hyperlink ref="N612" r:id="rId1629"/>
-    <hyperlink ref="P612" r:id="rId1630"/>
-    <hyperlink ref="R612" r:id="rId1631"/>
-    <hyperlink ref="B613" r:id="rId1632"/>
-    <hyperlink ref="L613" r:id="rId1633"/>
-    <hyperlink ref="N613" r:id="rId1634"/>
-    <hyperlink ref="P613" r:id="rId1635"/>
-    <hyperlink ref="B614" r:id="rId1636"/>
-    <hyperlink ref="L614" r:id="rId1637"/>
-    <hyperlink ref="N614" r:id="rId1638"/>
-    <hyperlink ref="P614" r:id="rId1639"/>
-    <hyperlink ref="B615" r:id="rId1640"/>
-    <hyperlink ref="L615" r:id="rId1641"/>
-    <hyperlink ref="N615" r:id="rId1642"/>
-    <hyperlink ref="O615" r:id="rId1643"/>
-    <hyperlink ref="P615" r:id="rId1644"/>
-    <hyperlink ref="B616" r:id="rId1645"/>
-    <hyperlink ref="L616" r:id="rId1646"/>
-    <hyperlink ref="N616" r:id="rId1647"/>
-    <hyperlink ref="B617" r:id="rId1648"/>
-    <hyperlink ref="B618" r:id="rId1649"/>
-    <hyperlink ref="B619" r:id="rId1650"/>
-    <hyperlink ref="B620" r:id="rId1651"/>
-    <hyperlink ref="L620" r:id="rId1652"/>
-    <hyperlink ref="N620" r:id="rId1653"/>
-    <hyperlink ref="B621" r:id="rId1654"/>
-    <hyperlink ref="L621" r:id="rId1655"/>
-    <hyperlink ref="N621" r:id="rId1656"/>
-    <hyperlink ref="B622" r:id="rId1657"/>
-    <hyperlink ref="L622" r:id="rId1658"/>
-    <hyperlink ref="N622" r:id="rId1659"/>
-    <hyperlink ref="B623" r:id="rId1660"/>
-    <hyperlink ref="L623" r:id="rId1661"/>
-    <hyperlink ref="N623" r:id="rId1662"/>
-    <hyperlink ref="B624" r:id="rId1663"/>
-    <hyperlink ref="L624" r:id="rId1664"/>
-    <hyperlink ref="N624" r:id="rId1665"/>
-    <hyperlink ref="P624" r:id="rId1666"/>
-    <hyperlink ref="B625" r:id="rId1667"/>
-    <hyperlink ref="L625" r:id="rId1668"/>
-    <hyperlink ref="N625" r:id="rId1669"/>
-    <hyperlink ref="P625" r:id="rId1670"/>
-    <hyperlink ref="B626" r:id="rId1671"/>
-    <hyperlink ref="L626" r:id="rId1672"/>
-    <hyperlink ref="N626" r:id="rId1673"/>
-    <hyperlink ref="P626" r:id="rId1674"/>
-    <hyperlink ref="B627" r:id="rId1675"/>
-    <hyperlink ref="B628" r:id="rId1676"/>
-    <hyperlink ref="B629" r:id="rId1677"/>
-    <hyperlink ref="N629" r:id="rId1678"/>
-    <hyperlink ref="B630" r:id="rId1679"/>
-    <hyperlink ref="B631" r:id="rId1680"/>
-    <hyperlink ref="L631" r:id="rId1681"/>
-    <hyperlink ref="N631" r:id="rId1682"/>
-    <hyperlink ref="B632" r:id="rId1683"/>
-    <hyperlink ref="L632" r:id="rId1684"/>
-    <hyperlink ref="N632" r:id="rId1685"/>
-    <hyperlink ref="B633" r:id="rId1686"/>
-    <hyperlink ref="L633" r:id="rId1687"/>
-    <hyperlink ref="N633" r:id="rId1688"/>
-    <hyperlink ref="B634" r:id="rId1689"/>
-    <hyperlink ref="L634" r:id="rId1690"/>
-    <hyperlink ref="N634" r:id="rId1691"/>
-    <hyperlink ref="P634" r:id="rId1692"/>
-    <hyperlink ref="B635" r:id="rId1693"/>
-    <hyperlink ref="N635" r:id="rId1694"/>
-    <hyperlink ref="B636" r:id="rId1695"/>
-    <hyperlink ref="L636" r:id="rId1696"/>
-    <hyperlink ref="N636" r:id="rId1697"/>
-    <hyperlink ref="B637" r:id="rId1698"/>
-    <hyperlink ref="N637" r:id="rId1699"/>
-    <hyperlink ref="B638" r:id="rId1700"/>
-    <hyperlink ref="L638" r:id="rId1701"/>
-    <hyperlink ref="N638" r:id="rId1702"/>
-    <hyperlink ref="B639" r:id="rId1703"/>
-    <hyperlink ref="L639" r:id="rId1704"/>
-    <hyperlink ref="N639" r:id="rId1705"/>
-    <hyperlink ref="B640" r:id="rId1706"/>
-    <hyperlink ref="N640" r:id="rId1707"/>
-    <hyperlink ref="O640" r:id="rId1708"/>
-    <hyperlink ref="B641" r:id="rId1709"/>
-    <hyperlink ref="N641" r:id="rId1710"/>
-    <hyperlink ref="B642" r:id="rId1711"/>
-    <hyperlink ref="B643" r:id="rId1712"/>
+    <hyperlink ref="P213" r:id="rId579"/>
+    <hyperlink ref="B214" r:id="rId580"/>
+    <hyperlink ref="N214" r:id="rId581"/>
+    <hyperlink ref="B215" r:id="rId582"/>
+    <hyperlink ref="L215" r:id="rId583"/>
+    <hyperlink ref="N215" r:id="rId584"/>
+    <hyperlink ref="B216" r:id="rId585"/>
+    <hyperlink ref="L216" r:id="rId586"/>
+    <hyperlink ref="N216" r:id="rId587"/>
+    <hyperlink ref="P216" r:id="rId588"/>
+    <hyperlink ref="B217" r:id="rId589"/>
+    <hyperlink ref="L217" r:id="rId590"/>
+    <hyperlink ref="N217" r:id="rId591"/>
+    <hyperlink ref="P217" r:id="rId592"/>
+    <hyperlink ref="B218" r:id="rId593"/>
+    <hyperlink ref="L218" r:id="rId594"/>
+    <hyperlink ref="N218" r:id="rId595"/>
+    <hyperlink ref="P218" r:id="rId596"/>
+    <hyperlink ref="B219" r:id="rId597"/>
+    <hyperlink ref="B220" r:id="rId598"/>
+    <hyperlink ref="L220" r:id="rId599"/>
+    <hyperlink ref="N220" r:id="rId600"/>
+    <hyperlink ref="B221" r:id="rId601"/>
+    <hyperlink ref="L221" r:id="rId602"/>
+    <hyperlink ref="N221" r:id="rId603"/>
+    <hyperlink ref="P221" r:id="rId604"/>
+    <hyperlink ref="B222" r:id="rId605"/>
+    <hyperlink ref="L222" r:id="rId606"/>
+    <hyperlink ref="N222" r:id="rId607"/>
+    <hyperlink ref="P222" r:id="rId608"/>
+    <hyperlink ref="B223" r:id="rId609"/>
+    <hyperlink ref="L223" r:id="rId610"/>
+    <hyperlink ref="N223" r:id="rId611"/>
+    <hyperlink ref="P223" r:id="rId612"/>
+    <hyperlink ref="R223" r:id="rId613"/>
+    <hyperlink ref="B224" r:id="rId614"/>
+    <hyperlink ref="B225" r:id="rId615"/>
+    <hyperlink ref="N225" r:id="rId616"/>
+    <hyperlink ref="B226" r:id="rId617"/>
+    <hyperlink ref="L226" r:id="rId618"/>
+    <hyperlink ref="N226" r:id="rId619"/>
+    <hyperlink ref="B227" r:id="rId620"/>
+    <hyperlink ref="L227" r:id="rId621"/>
+    <hyperlink ref="N227" r:id="rId622"/>
+    <hyperlink ref="B228" r:id="rId623"/>
+    <hyperlink ref="L228" r:id="rId624"/>
+    <hyperlink ref="N228" r:id="rId625"/>
+    <hyperlink ref="P228" r:id="rId626"/>
+    <hyperlink ref="B229" r:id="rId627"/>
+    <hyperlink ref="L229" r:id="rId628"/>
+    <hyperlink ref="N229" r:id="rId629"/>
+    <hyperlink ref="P229" r:id="rId630"/>
+    <hyperlink ref="B230" r:id="rId631"/>
+    <hyperlink ref="B231" r:id="rId632"/>
+    <hyperlink ref="B232" r:id="rId633"/>
+    <hyperlink ref="B233" r:id="rId634"/>
+    <hyperlink ref="B234" r:id="rId635"/>
+    <hyperlink ref="L234" r:id="rId636"/>
+    <hyperlink ref="N234" r:id="rId637"/>
+    <hyperlink ref="P234" r:id="rId638"/>
+    <hyperlink ref="R234" r:id="rId639"/>
+    <hyperlink ref="B235" r:id="rId640"/>
+    <hyperlink ref="L235" r:id="rId641"/>
+    <hyperlink ref="N235" r:id="rId642"/>
+    <hyperlink ref="B236" r:id="rId643"/>
+    <hyperlink ref="L236" r:id="rId644"/>
+    <hyperlink ref="N236" r:id="rId645"/>
+    <hyperlink ref="P236" r:id="rId646"/>
+    <hyperlink ref="B237" r:id="rId647"/>
+    <hyperlink ref="B238" r:id="rId648"/>
+    <hyperlink ref="B239" r:id="rId649"/>
+    <hyperlink ref="B240" r:id="rId650"/>
+    <hyperlink ref="L240" r:id="rId651"/>
+    <hyperlink ref="N240" r:id="rId652"/>
+    <hyperlink ref="B241" r:id="rId653"/>
+    <hyperlink ref="L241" r:id="rId654"/>
+    <hyperlink ref="N241" r:id="rId655"/>
+    <hyperlink ref="P241" r:id="rId656"/>
+    <hyperlink ref="B242" r:id="rId657"/>
+    <hyperlink ref="B243" r:id="rId658"/>
+    <hyperlink ref="L243" r:id="rId659"/>
+    <hyperlink ref="N243" r:id="rId660"/>
+    <hyperlink ref="B244" r:id="rId661"/>
+    <hyperlink ref="L244" r:id="rId662"/>
+    <hyperlink ref="N244" r:id="rId663"/>
+    <hyperlink ref="P244" r:id="rId664"/>
+    <hyperlink ref="B245" r:id="rId665"/>
+    <hyperlink ref="L245" r:id="rId666"/>
+    <hyperlink ref="N245" r:id="rId667"/>
+    <hyperlink ref="O245" r:id="rId668"/>
+    <hyperlink ref="P245" r:id="rId669"/>
+    <hyperlink ref="B246" r:id="rId670"/>
+    <hyperlink ref="B247" r:id="rId671"/>
+    <hyperlink ref="B248" r:id="rId672"/>
+    <hyperlink ref="L248" r:id="rId673"/>
+    <hyperlink ref="N248" r:id="rId674"/>
+    <hyperlink ref="P248" r:id="rId675"/>
+    <hyperlink ref="B249" r:id="rId676"/>
+    <hyperlink ref="B250" r:id="rId677"/>
+    <hyperlink ref="L250" r:id="rId678"/>
+    <hyperlink ref="N250" r:id="rId679"/>
+    <hyperlink ref="P250" r:id="rId680"/>
+    <hyperlink ref="B251" r:id="rId681"/>
+    <hyperlink ref="L251" r:id="rId682"/>
+    <hyperlink ref="N251" r:id="rId683"/>
+    <hyperlink ref="O251" r:id="rId684"/>
+    <hyperlink ref="P251" r:id="rId685"/>
+    <hyperlink ref="B252" r:id="rId686"/>
+    <hyperlink ref="N252" r:id="rId687"/>
+    <hyperlink ref="B253" r:id="rId688"/>
+    <hyperlink ref="L253" r:id="rId689"/>
+    <hyperlink ref="N253" r:id="rId690"/>
+    <hyperlink ref="B254" r:id="rId691"/>
+    <hyperlink ref="L254" r:id="rId692"/>
+    <hyperlink ref="N254" r:id="rId693"/>
+    <hyperlink ref="B255" r:id="rId694"/>
+    <hyperlink ref="L255" r:id="rId695"/>
+    <hyperlink ref="N255" r:id="rId696"/>
+    <hyperlink ref="B256" r:id="rId697"/>
+    <hyperlink ref="B257" r:id="rId698"/>
+    <hyperlink ref="B258" r:id="rId699"/>
+    <hyperlink ref="B259" r:id="rId700"/>
+    <hyperlink ref="B260" r:id="rId701"/>
+    <hyperlink ref="B261" r:id="rId702"/>
+    <hyperlink ref="B262" r:id="rId703"/>
+    <hyperlink ref="B263" r:id="rId704"/>
+    <hyperlink ref="B264" r:id="rId705"/>
+    <hyperlink ref="B265" r:id="rId706"/>
+    <hyperlink ref="B266" r:id="rId707"/>
+    <hyperlink ref="B267" r:id="rId708"/>
+    <hyperlink ref="B268" r:id="rId709"/>
+    <hyperlink ref="B269" r:id="rId710"/>
+    <hyperlink ref="L269" r:id="rId711"/>
+    <hyperlink ref="N269" r:id="rId712"/>
+    <hyperlink ref="P269" r:id="rId713"/>
+    <hyperlink ref="B270" r:id="rId714"/>
+    <hyperlink ref="B271" r:id="rId715"/>
+    <hyperlink ref="B272" r:id="rId716"/>
+    <hyperlink ref="B273" r:id="rId717"/>
+    <hyperlink ref="B274" r:id="rId718"/>
+    <hyperlink ref="B275" r:id="rId719"/>
+    <hyperlink ref="B276" r:id="rId720"/>
+    <hyperlink ref="L276" r:id="rId721"/>
+    <hyperlink ref="N276" r:id="rId722"/>
+    <hyperlink ref="P276" r:id="rId723"/>
+    <hyperlink ref="B277" r:id="rId724"/>
+    <hyperlink ref="L277" r:id="rId725"/>
+    <hyperlink ref="N277" r:id="rId726"/>
+    <hyperlink ref="P277" r:id="rId727"/>
+    <hyperlink ref="B278" r:id="rId728"/>
+    <hyperlink ref="B279" r:id="rId729"/>
+    <hyperlink ref="B280" r:id="rId730"/>
+    <hyperlink ref="B281" r:id="rId731"/>
+    <hyperlink ref="B282" r:id="rId732"/>
+    <hyperlink ref="B283" r:id="rId733"/>
+    <hyperlink ref="B284" r:id="rId734"/>
+    <hyperlink ref="L284" r:id="rId735"/>
+    <hyperlink ref="N284" r:id="rId736"/>
+    <hyperlink ref="P284" r:id="rId737"/>
+    <hyperlink ref="B285" r:id="rId738"/>
+    <hyperlink ref="L285" r:id="rId739"/>
+    <hyperlink ref="N285" r:id="rId740"/>
+    <hyperlink ref="P285" r:id="rId741"/>
+    <hyperlink ref="B286" r:id="rId742"/>
+    <hyperlink ref="B287" r:id="rId743"/>
+    <hyperlink ref="B288" r:id="rId744"/>
+    <hyperlink ref="L288" r:id="rId745"/>
+    <hyperlink ref="N288" r:id="rId746"/>
+    <hyperlink ref="P288" r:id="rId747"/>
+    <hyperlink ref="B289" r:id="rId748"/>
+    <hyperlink ref="B290" r:id="rId749"/>
+    <hyperlink ref="N290" r:id="rId750"/>
+    <hyperlink ref="B291" r:id="rId751"/>
+    <hyperlink ref="B292" r:id="rId752"/>
+    <hyperlink ref="B293" r:id="rId753"/>
+    <hyperlink ref="N293" r:id="rId754"/>
+    <hyperlink ref="B294" r:id="rId755"/>
+    <hyperlink ref="B295" r:id="rId756"/>
+    <hyperlink ref="L295" r:id="rId757"/>
+    <hyperlink ref="N295" r:id="rId758"/>
+    <hyperlink ref="B296" r:id="rId759"/>
+    <hyperlink ref="L296" r:id="rId760"/>
+    <hyperlink ref="N296" r:id="rId761"/>
+    <hyperlink ref="O296" r:id="rId762"/>
+    <hyperlink ref="P296" r:id="rId763"/>
+    <hyperlink ref="B297" r:id="rId764"/>
+    <hyperlink ref="B298" r:id="rId765"/>
+    <hyperlink ref="B299" r:id="rId766"/>
+    <hyperlink ref="N299" r:id="rId767"/>
+    <hyperlink ref="B300" r:id="rId768"/>
+    <hyperlink ref="L300" r:id="rId769"/>
+    <hyperlink ref="N300" r:id="rId770"/>
+    <hyperlink ref="B301" r:id="rId771"/>
+    <hyperlink ref="L301" r:id="rId772"/>
+    <hyperlink ref="N301" r:id="rId773"/>
+    <hyperlink ref="B302" r:id="rId774"/>
+    <hyperlink ref="L302" r:id="rId775"/>
+    <hyperlink ref="N302" r:id="rId776"/>
+    <hyperlink ref="P302" r:id="rId777"/>
+    <hyperlink ref="R302" r:id="rId778"/>
+    <hyperlink ref="B303" r:id="rId779"/>
+    <hyperlink ref="L303" r:id="rId780"/>
+    <hyperlink ref="N303" r:id="rId781"/>
+    <hyperlink ref="B304" r:id="rId782"/>
+    <hyperlink ref="L304" r:id="rId783"/>
+    <hyperlink ref="N304" r:id="rId784"/>
+    <hyperlink ref="P304" r:id="rId785"/>
+    <hyperlink ref="B305" r:id="rId786"/>
+    <hyperlink ref="B306" r:id="rId787"/>
+    <hyperlink ref="B307" r:id="rId788"/>
+    <hyperlink ref="N307" r:id="rId789"/>
+    <hyperlink ref="B308" r:id="rId790"/>
+    <hyperlink ref="B309" r:id="rId791"/>
+    <hyperlink ref="B310" r:id="rId792"/>
+    <hyperlink ref="L310" r:id="rId793"/>
+    <hyperlink ref="N310" r:id="rId794"/>
+    <hyperlink ref="B311" r:id="rId795"/>
+    <hyperlink ref="B312" r:id="rId796"/>
+    <hyperlink ref="B313" r:id="rId797"/>
+    <hyperlink ref="B314" r:id="rId798"/>
+    <hyperlink ref="B315" r:id="rId799"/>
+    <hyperlink ref="B316" r:id="rId800"/>
+    <hyperlink ref="L316" r:id="rId801"/>
+    <hyperlink ref="N316" r:id="rId802"/>
+    <hyperlink ref="B317" r:id="rId803"/>
+    <hyperlink ref="B318" r:id="rId804"/>
+    <hyperlink ref="B319" r:id="rId805"/>
+    <hyperlink ref="L319" r:id="rId806"/>
+    <hyperlink ref="N319" r:id="rId807"/>
+    <hyperlink ref="B320" r:id="rId808"/>
+    <hyperlink ref="B321" r:id="rId809"/>
+    <hyperlink ref="B322" r:id="rId810"/>
+    <hyperlink ref="B323" r:id="rId811"/>
+    <hyperlink ref="B324" r:id="rId812"/>
+    <hyperlink ref="B325" r:id="rId813"/>
+    <hyperlink ref="B326" r:id="rId814"/>
+    <hyperlink ref="L326" r:id="rId815"/>
+    <hyperlink ref="N326" r:id="rId816"/>
+    <hyperlink ref="P326" r:id="rId817"/>
+    <hyperlink ref="B327" r:id="rId818"/>
+    <hyperlink ref="L327" r:id="rId819"/>
+    <hyperlink ref="N327" r:id="rId820"/>
+    <hyperlink ref="B328" r:id="rId821"/>
+    <hyperlink ref="L328" r:id="rId822"/>
+    <hyperlink ref="N328" r:id="rId823"/>
+    <hyperlink ref="O328" r:id="rId824"/>
+    <hyperlink ref="P328" r:id="rId825"/>
+    <hyperlink ref="B329" r:id="rId826"/>
+    <hyperlink ref="L329" r:id="rId827"/>
+    <hyperlink ref="N329" r:id="rId828"/>
+    <hyperlink ref="B330" r:id="rId829"/>
+    <hyperlink ref="B331" r:id="rId830"/>
+    <hyperlink ref="N331" r:id="rId831"/>
+    <hyperlink ref="B332" r:id="rId832"/>
+    <hyperlink ref="L332" r:id="rId833"/>
+    <hyperlink ref="N332" r:id="rId834"/>
+    <hyperlink ref="B333" r:id="rId835"/>
+    <hyperlink ref="L333" r:id="rId836"/>
+    <hyperlink ref="N333" r:id="rId837"/>
+    <hyperlink ref="B334" r:id="rId838"/>
+    <hyperlink ref="L334" r:id="rId839"/>
+    <hyperlink ref="N334" r:id="rId840"/>
+    <hyperlink ref="P334" r:id="rId841"/>
+    <hyperlink ref="R334" r:id="rId842"/>
+    <hyperlink ref="B335" r:id="rId843"/>
+    <hyperlink ref="L335" r:id="rId844"/>
+    <hyperlink ref="N335" r:id="rId845"/>
+    <hyperlink ref="O335" r:id="rId846"/>
+    <hyperlink ref="P335" r:id="rId847"/>
+    <hyperlink ref="B336" r:id="rId848"/>
+    <hyperlink ref="L336" r:id="rId849"/>
+    <hyperlink ref="N336" r:id="rId850"/>
+    <hyperlink ref="B337" r:id="rId851"/>
+    <hyperlink ref="L337" r:id="rId852"/>
+    <hyperlink ref="N337" r:id="rId853"/>
+    <hyperlink ref="O337" r:id="rId854"/>
+    <hyperlink ref="P337" r:id="rId855"/>
+    <hyperlink ref="B338" r:id="rId856"/>
+    <hyperlink ref="B339" r:id="rId857"/>
+    <hyperlink ref="L339" r:id="rId858"/>
+    <hyperlink ref="N339" r:id="rId859"/>
+    <hyperlink ref="B340" r:id="rId860"/>
+    <hyperlink ref="L340" r:id="rId861"/>
+    <hyperlink ref="N340" r:id="rId862"/>
+    <hyperlink ref="P340" r:id="rId863"/>
+    <hyperlink ref="B341" r:id="rId864"/>
+    <hyperlink ref="L341" r:id="rId865"/>
+    <hyperlink ref="N341" r:id="rId866"/>
+    <hyperlink ref="P341" r:id="rId867"/>
+    <hyperlink ref="B342" r:id="rId868"/>
+    <hyperlink ref="L342" r:id="rId869"/>
+    <hyperlink ref="N342" r:id="rId870"/>
+    <hyperlink ref="P342" r:id="rId871"/>
+    <hyperlink ref="B343" r:id="rId872"/>
+    <hyperlink ref="L343" r:id="rId873"/>
+    <hyperlink ref="N343" r:id="rId874"/>
+    <hyperlink ref="P343" r:id="rId875"/>
+    <hyperlink ref="B344" r:id="rId876"/>
+    <hyperlink ref="L344" r:id="rId877"/>
+    <hyperlink ref="N344" r:id="rId878"/>
+    <hyperlink ref="B345" r:id="rId879"/>
+    <hyperlink ref="L345" r:id="rId880"/>
+    <hyperlink ref="N345" r:id="rId881"/>
+    <hyperlink ref="B346" r:id="rId882"/>
+    <hyperlink ref="L346" r:id="rId883"/>
+    <hyperlink ref="N346" r:id="rId884"/>
+    <hyperlink ref="O346" r:id="rId885"/>
+    <hyperlink ref="P346" r:id="rId886"/>
+    <hyperlink ref="B347" r:id="rId887"/>
+    <hyperlink ref="L347" r:id="rId888"/>
+    <hyperlink ref="N347" r:id="rId889"/>
+    <hyperlink ref="B348" r:id="rId890"/>
+    <hyperlink ref="L348" r:id="rId891"/>
+    <hyperlink ref="N348" r:id="rId892"/>
+    <hyperlink ref="B349" r:id="rId893"/>
+    <hyperlink ref="L349" r:id="rId894"/>
+    <hyperlink ref="N349" r:id="rId895"/>
+    <hyperlink ref="O349" r:id="rId896"/>
+    <hyperlink ref="P349" r:id="rId897"/>
+    <hyperlink ref="B350" r:id="rId898"/>
+    <hyperlink ref="L350" r:id="rId899"/>
+    <hyperlink ref="N350" r:id="rId900"/>
+    <hyperlink ref="P350" r:id="rId901"/>
+    <hyperlink ref="B351" r:id="rId902"/>
+    <hyperlink ref="L351" r:id="rId903"/>
+    <hyperlink ref="N351" r:id="rId904"/>
+    <hyperlink ref="O351" r:id="rId905"/>
+    <hyperlink ref="P351" r:id="rId906"/>
+    <hyperlink ref="R351" r:id="rId907"/>
+    <hyperlink ref="B352" r:id="rId908"/>
+    <hyperlink ref="B353" r:id="rId909"/>
+    <hyperlink ref="B354" r:id="rId910"/>
+    <hyperlink ref="B355" r:id="rId911"/>
+    <hyperlink ref="L355" r:id="rId912"/>
+    <hyperlink ref="N355" r:id="rId913"/>
+    <hyperlink ref="P355" r:id="rId914"/>
+    <hyperlink ref="B356" r:id="rId915"/>
+    <hyperlink ref="L356" r:id="rId916"/>
+    <hyperlink ref="N356" r:id="rId917"/>
+    <hyperlink ref="P356" r:id="rId918"/>
+    <hyperlink ref="B357" r:id="rId919"/>
+    <hyperlink ref="B358" r:id="rId920"/>
+    <hyperlink ref="B359" r:id="rId921"/>
+    <hyperlink ref="B360" r:id="rId922"/>
+    <hyperlink ref="L360" r:id="rId923"/>
+    <hyperlink ref="N360" r:id="rId924"/>
+    <hyperlink ref="P360" r:id="rId925"/>
+    <hyperlink ref="B361" r:id="rId926"/>
+    <hyperlink ref="B362" r:id="rId927"/>
+    <hyperlink ref="B363" r:id="rId928"/>
+    <hyperlink ref="B364" r:id="rId929"/>
+    <hyperlink ref="B365" r:id="rId930"/>
+    <hyperlink ref="B366" r:id="rId931"/>
+    <hyperlink ref="L366" r:id="rId932"/>
+    <hyperlink ref="N366" r:id="rId933"/>
+    <hyperlink ref="P366" r:id="rId934"/>
+    <hyperlink ref="B367" r:id="rId935"/>
+    <hyperlink ref="B368" r:id="rId936"/>
+    <hyperlink ref="L368" r:id="rId937"/>
+    <hyperlink ref="N368" r:id="rId938"/>
+    <hyperlink ref="B369" r:id="rId939"/>
+    <hyperlink ref="L369" r:id="rId940"/>
+    <hyperlink ref="N369" r:id="rId941"/>
+    <hyperlink ref="B370" r:id="rId942"/>
+    <hyperlink ref="L370" r:id="rId943"/>
+    <hyperlink ref="N370" r:id="rId944"/>
+    <hyperlink ref="B371" r:id="rId945"/>
+    <hyperlink ref="B372" r:id="rId946"/>
+    <hyperlink ref="L372" r:id="rId947"/>
+    <hyperlink ref="N372" r:id="rId948"/>
+    <hyperlink ref="B373" r:id="rId949"/>
+    <hyperlink ref="L373" r:id="rId950"/>
+    <hyperlink ref="N373" r:id="rId951"/>
+    <hyperlink ref="B374" r:id="rId952"/>
+    <hyperlink ref="L374" r:id="rId953"/>
+    <hyperlink ref="N374" r:id="rId954"/>
+    <hyperlink ref="B375" r:id="rId955"/>
+    <hyperlink ref="L375" r:id="rId956"/>
+    <hyperlink ref="N375" r:id="rId957"/>
+    <hyperlink ref="B376" r:id="rId958"/>
+    <hyperlink ref="B377" r:id="rId959"/>
+    <hyperlink ref="B378" r:id="rId960"/>
+    <hyperlink ref="L378" r:id="rId961"/>
+    <hyperlink ref="N378" r:id="rId962"/>
+    <hyperlink ref="B379" r:id="rId963"/>
+    <hyperlink ref="B380" r:id="rId964"/>
+    <hyperlink ref="L380" r:id="rId965"/>
+    <hyperlink ref="N380" r:id="rId966"/>
+    <hyperlink ref="B381" r:id="rId967"/>
+    <hyperlink ref="L381" r:id="rId968"/>
+    <hyperlink ref="N381" r:id="rId969"/>
+    <hyperlink ref="B382" r:id="rId970"/>
+    <hyperlink ref="B383" r:id="rId971"/>
+    <hyperlink ref="L383" r:id="rId972"/>
+    <hyperlink ref="N383" r:id="rId973"/>
+    <hyperlink ref="B384" r:id="rId974"/>
+    <hyperlink ref="L384" r:id="rId975"/>
+    <hyperlink ref="N384" r:id="rId976"/>
+    <hyperlink ref="P384" r:id="rId977"/>
+    <hyperlink ref="B385" r:id="rId978"/>
+    <hyperlink ref="B386" r:id="rId979"/>
+    <hyperlink ref="B387" r:id="rId980"/>
+    <hyperlink ref="L387" r:id="rId981"/>
+    <hyperlink ref="N387" r:id="rId982"/>
+    <hyperlink ref="B388" r:id="rId983"/>
+    <hyperlink ref="L388" r:id="rId984"/>
+    <hyperlink ref="N388" r:id="rId985"/>
+    <hyperlink ref="B389" r:id="rId986"/>
+    <hyperlink ref="L389" r:id="rId987"/>
+    <hyperlink ref="N389" r:id="rId988"/>
+    <hyperlink ref="B390" r:id="rId989"/>
+    <hyperlink ref="L390" r:id="rId990"/>
+    <hyperlink ref="N390" r:id="rId991"/>
+    <hyperlink ref="P390" r:id="rId992"/>
+    <hyperlink ref="B391" r:id="rId993"/>
+    <hyperlink ref="B392" r:id="rId994"/>
+    <hyperlink ref="L392" r:id="rId995"/>
+    <hyperlink ref="N392" r:id="rId996"/>
+    <hyperlink ref="P392" r:id="rId997"/>
+    <hyperlink ref="B393" r:id="rId998"/>
+    <hyperlink ref="L393" r:id="rId999"/>
+    <hyperlink ref="N393" r:id="rId1000"/>
+    <hyperlink ref="P393" r:id="rId1001"/>
+    <hyperlink ref="B394" r:id="rId1002"/>
+    <hyperlink ref="B395" r:id="rId1003"/>
+    <hyperlink ref="L395" r:id="rId1004"/>
+    <hyperlink ref="N395" r:id="rId1005"/>
+    <hyperlink ref="P395" r:id="rId1006"/>
+    <hyperlink ref="B396" r:id="rId1007"/>
+    <hyperlink ref="B397" r:id="rId1008"/>
+    <hyperlink ref="L397" r:id="rId1009"/>
+    <hyperlink ref="N397" r:id="rId1010"/>
+    <hyperlink ref="B398" r:id="rId1011"/>
+    <hyperlink ref="L398" r:id="rId1012"/>
+    <hyperlink ref="N398" r:id="rId1013"/>
+    <hyperlink ref="P398" r:id="rId1014"/>
+    <hyperlink ref="B399" r:id="rId1015"/>
+    <hyperlink ref="B400" r:id="rId1016"/>
+    <hyperlink ref="L400" r:id="rId1017"/>
+    <hyperlink ref="N400" r:id="rId1018"/>
+    <hyperlink ref="B401" r:id="rId1019"/>
+    <hyperlink ref="L401" r:id="rId1020"/>
+    <hyperlink ref="N401" r:id="rId1021"/>
+    <hyperlink ref="P401" r:id="rId1022"/>
+    <hyperlink ref="B402" r:id="rId1023"/>
+    <hyperlink ref="L402" r:id="rId1024"/>
+    <hyperlink ref="N402" r:id="rId1025"/>
+    <hyperlink ref="B403" r:id="rId1026"/>
+    <hyperlink ref="L403" r:id="rId1027"/>
+    <hyperlink ref="N403" r:id="rId1028"/>
+    <hyperlink ref="P403" r:id="rId1029"/>
+    <hyperlink ref="B404" r:id="rId1030"/>
+    <hyperlink ref="L404" r:id="rId1031"/>
+    <hyperlink ref="N404" r:id="rId1032"/>
+    <hyperlink ref="P404" r:id="rId1033"/>
+    <hyperlink ref="B405" r:id="rId1034"/>
+    <hyperlink ref="L405" r:id="rId1035"/>
+    <hyperlink ref="N405" r:id="rId1036"/>
+    <hyperlink ref="P405" r:id="rId1037"/>
+    <hyperlink ref="B406" r:id="rId1038"/>
+    <hyperlink ref="L406" r:id="rId1039"/>
+    <hyperlink ref="N406" r:id="rId1040"/>
+    <hyperlink ref="P406" r:id="rId1041"/>
+    <hyperlink ref="R406" r:id="rId1042"/>
+    <hyperlink ref="B407" r:id="rId1043"/>
+    <hyperlink ref="L407" r:id="rId1044"/>
+    <hyperlink ref="N407" r:id="rId1045"/>
+    <hyperlink ref="P407" r:id="rId1046"/>
+    <hyperlink ref="B408" r:id="rId1047"/>
+    <hyperlink ref="B409" r:id="rId1048"/>
+    <hyperlink ref="B410" r:id="rId1049"/>
+    <hyperlink ref="L410" r:id="rId1050"/>
+    <hyperlink ref="N410" r:id="rId1051"/>
+    <hyperlink ref="B411" r:id="rId1052"/>
+    <hyperlink ref="B412" r:id="rId1053"/>
+    <hyperlink ref="L412" r:id="rId1054"/>
+    <hyperlink ref="N412" r:id="rId1055"/>
+    <hyperlink ref="P412" r:id="rId1056"/>
+    <hyperlink ref="B413" r:id="rId1057"/>
+    <hyperlink ref="L413" r:id="rId1058"/>
+    <hyperlink ref="N413" r:id="rId1059"/>
+    <hyperlink ref="P413" r:id="rId1060"/>
+    <hyperlink ref="B414" r:id="rId1061"/>
+    <hyperlink ref="L414" r:id="rId1062"/>
+    <hyperlink ref="N414" r:id="rId1063"/>
+    <hyperlink ref="B415" r:id="rId1064"/>
+    <hyperlink ref="B416" r:id="rId1065"/>
+    <hyperlink ref="L416" r:id="rId1066"/>
+    <hyperlink ref="N416" r:id="rId1067"/>
+    <hyperlink ref="B417" r:id="rId1068"/>
+    <hyperlink ref="B418" r:id="rId1069"/>
+    <hyperlink ref="L418" r:id="rId1070"/>
+    <hyperlink ref="N418" r:id="rId1071"/>
+    <hyperlink ref="B419" r:id="rId1072"/>
+    <hyperlink ref="L419" r:id="rId1073"/>
+    <hyperlink ref="N419" r:id="rId1074"/>
+    <hyperlink ref="P419" r:id="rId1075"/>
+    <hyperlink ref="B420" r:id="rId1076"/>
+    <hyperlink ref="L420" r:id="rId1077"/>
+    <hyperlink ref="N420" r:id="rId1078"/>
+    <hyperlink ref="P420" r:id="rId1079"/>
+    <hyperlink ref="B421" r:id="rId1080"/>
+    <hyperlink ref="B422" r:id="rId1081"/>
+    <hyperlink ref="B423" r:id="rId1082"/>
+    <hyperlink ref="L423" r:id="rId1083"/>
+    <hyperlink ref="N423" r:id="rId1084"/>
+    <hyperlink ref="P423" r:id="rId1085"/>
+    <hyperlink ref="B424" r:id="rId1086"/>
+    <hyperlink ref="L424" r:id="rId1087"/>
+    <hyperlink ref="N424" r:id="rId1088"/>
+    <hyperlink ref="B425" r:id="rId1089"/>
+    <hyperlink ref="L425" r:id="rId1090"/>
+    <hyperlink ref="N425" r:id="rId1091"/>
+    <hyperlink ref="P425" r:id="rId1092"/>
+    <hyperlink ref="B426" r:id="rId1093"/>
+    <hyperlink ref="L426" r:id="rId1094"/>
+    <hyperlink ref="N426" r:id="rId1095"/>
+    <hyperlink ref="P426" r:id="rId1096"/>
+    <hyperlink ref="B427" r:id="rId1097"/>
+    <hyperlink ref="N427" r:id="rId1098"/>
+    <hyperlink ref="B428" r:id="rId1099"/>
+    <hyperlink ref="N428" r:id="rId1100"/>
+    <hyperlink ref="B429" r:id="rId1101"/>
+    <hyperlink ref="L429" r:id="rId1102"/>
+    <hyperlink ref="N429" r:id="rId1103"/>
+    <hyperlink ref="O429" r:id="rId1104"/>
+    <hyperlink ref="B430" r:id="rId1105"/>
+    <hyperlink ref="L430" r:id="rId1106"/>
+    <hyperlink ref="N430" r:id="rId1107"/>
+    <hyperlink ref="B431" r:id="rId1108"/>
+    <hyperlink ref="L431" r:id="rId1109"/>
+    <hyperlink ref="N431" r:id="rId1110"/>
+    <hyperlink ref="P431" r:id="rId1111"/>
+    <hyperlink ref="B432" r:id="rId1112"/>
+    <hyperlink ref="L432" r:id="rId1113"/>
+    <hyperlink ref="N432" r:id="rId1114"/>
+    <hyperlink ref="B433" r:id="rId1115"/>
+    <hyperlink ref="L433" r:id="rId1116"/>
+    <hyperlink ref="N433" r:id="rId1117"/>
+    <hyperlink ref="B434" r:id="rId1118"/>
+    <hyperlink ref="L434" r:id="rId1119"/>
+    <hyperlink ref="N434" r:id="rId1120"/>
+    <hyperlink ref="B435" r:id="rId1121"/>
+    <hyperlink ref="L435" r:id="rId1122"/>
+    <hyperlink ref="N435" r:id="rId1123"/>
+    <hyperlink ref="P435" r:id="rId1124"/>
+    <hyperlink ref="R435" r:id="rId1125"/>
+    <hyperlink ref="B436" r:id="rId1126"/>
+    <hyperlink ref="L436" r:id="rId1127"/>
+    <hyperlink ref="N436" r:id="rId1128"/>
+    <hyperlink ref="B437" r:id="rId1129"/>
+    <hyperlink ref="L437" r:id="rId1130"/>
+    <hyperlink ref="N437" r:id="rId1131"/>
+    <hyperlink ref="O437" r:id="rId1132"/>
+    <hyperlink ref="P437" r:id="rId1133"/>
+    <hyperlink ref="B438" r:id="rId1134"/>
+    <hyperlink ref="L438" r:id="rId1135"/>
+    <hyperlink ref="N438" r:id="rId1136"/>
+    <hyperlink ref="P438" r:id="rId1137"/>
+    <hyperlink ref="B439" r:id="rId1138"/>
+    <hyperlink ref="L439" r:id="rId1139"/>
+    <hyperlink ref="B440" r:id="rId1140"/>
+    <hyperlink ref="B441" r:id="rId1141"/>
+    <hyperlink ref="L441" r:id="rId1142"/>
+    <hyperlink ref="N441" r:id="rId1143"/>
+    <hyperlink ref="B442" r:id="rId1144"/>
+    <hyperlink ref="B443" r:id="rId1145"/>
+    <hyperlink ref="N443" r:id="rId1146"/>
+    <hyperlink ref="B444" r:id="rId1147"/>
+    <hyperlink ref="L444" r:id="rId1148"/>
+    <hyperlink ref="N444" r:id="rId1149"/>
+    <hyperlink ref="B445" r:id="rId1150"/>
+    <hyperlink ref="L445" r:id="rId1151"/>
+    <hyperlink ref="N445" r:id="rId1152"/>
+    <hyperlink ref="B446" r:id="rId1153"/>
+    <hyperlink ref="L446" r:id="rId1154"/>
+    <hyperlink ref="N446" r:id="rId1155"/>
+    <hyperlink ref="B447" r:id="rId1156"/>
+    <hyperlink ref="L447" r:id="rId1157"/>
+    <hyperlink ref="N447" r:id="rId1158"/>
+    <hyperlink ref="B448" r:id="rId1159"/>
+    <hyperlink ref="L448" r:id="rId1160"/>
+    <hyperlink ref="N448" r:id="rId1161"/>
+    <hyperlink ref="B449" r:id="rId1162"/>
+    <hyperlink ref="L449" r:id="rId1163"/>
+    <hyperlink ref="N449" r:id="rId1164"/>
+    <hyperlink ref="B450" r:id="rId1165"/>
+    <hyperlink ref="L450" r:id="rId1166"/>
+    <hyperlink ref="N450" r:id="rId1167"/>
+    <hyperlink ref="B451" r:id="rId1168"/>
+    <hyperlink ref="L451" r:id="rId1169"/>
+    <hyperlink ref="N451" r:id="rId1170"/>
+    <hyperlink ref="B452" r:id="rId1171"/>
+    <hyperlink ref="L452" r:id="rId1172"/>
+    <hyperlink ref="N452" r:id="rId1173"/>
+    <hyperlink ref="B453" r:id="rId1174"/>
+    <hyperlink ref="L453" r:id="rId1175"/>
+    <hyperlink ref="N453" r:id="rId1176"/>
+    <hyperlink ref="B454" r:id="rId1177"/>
+    <hyperlink ref="L454" r:id="rId1178"/>
+    <hyperlink ref="N454" r:id="rId1179"/>
+    <hyperlink ref="P454" r:id="rId1180"/>
+    <hyperlink ref="B455" r:id="rId1181"/>
+    <hyperlink ref="L455" r:id="rId1182"/>
+    <hyperlink ref="N455" r:id="rId1183"/>
+    <hyperlink ref="P455" r:id="rId1184"/>
+    <hyperlink ref="B456" r:id="rId1185"/>
+    <hyperlink ref="N456" r:id="rId1186"/>
+    <hyperlink ref="B457" r:id="rId1187"/>
+    <hyperlink ref="L457" r:id="rId1188"/>
+    <hyperlink ref="N457" r:id="rId1189"/>
+    <hyperlink ref="B458" r:id="rId1190"/>
+    <hyperlink ref="B459" r:id="rId1191"/>
+    <hyperlink ref="B460" r:id="rId1192"/>
+    <hyperlink ref="L460" r:id="rId1193"/>
+    <hyperlink ref="N460" r:id="rId1194"/>
+    <hyperlink ref="P460" r:id="rId1195"/>
+    <hyperlink ref="B461" r:id="rId1196"/>
+    <hyperlink ref="B462" r:id="rId1197"/>
+    <hyperlink ref="B463" r:id="rId1198"/>
+    <hyperlink ref="L463" r:id="rId1199"/>
+    <hyperlink ref="N463" r:id="rId1200"/>
+    <hyperlink ref="B464" r:id="rId1201"/>
+    <hyperlink ref="L464" r:id="rId1202"/>
+    <hyperlink ref="N464" r:id="rId1203"/>
+    <hyperlink ref="B465" r:id="rId1204"/>
+    <hyperlink ref="L465" r:id="rId1205"/>
+    <hyperlink ref="N465" r:id="rId1206"/>
+    <hyperlink ref="B466" r:id="rId1207"/>
+    <hyperlink ref="L466" r:id="rId1208"/>
+    <hyperlink ref="N466" r:id="rId1209"/>
+    <hyperlink ref="B467" r:id="rId1210"/>
+    <hyperlink ref="L467" r:id="rId1211"/>
+    <hyperlink ref="N467" r:id="rId1212"/>
+    <hyperlink ref="B468" r:id="rId1213"/>
+    <hyperlink ref="L468" r:id="rId1214"/>
+    <hyperlink ref="N468" r:id="rId1215"/>
+    <hyperlink ref="B469" r:id="rId1216"/>
+    <hyperlink ref="L469" r:id="rId1217"/>
+    <hyperlink ref="N469" r:id="rId1218"/>
+    <hyperlink ref="B470" r:id="rId1219"/>
+    <hyperlink ref="L470" r:id="rId1220"/>
+    <hyperlink ref="N470" r:id="rId1221"/>
+    <hyperlink ref="B471" r:id="rId1222"/>
+    <hyperlink ref="L471" r:id="rId1223"/>
+    <hyperlink ref="N471" r:id="rId1224"/>
+    <hyperlink ref="P471" r:id="rId1225"/>
+    <hyperlink ref="R471" r:id="rId1226"/>
+    <hyperlink ref="B472" r:id="rId1227"/>
+    <hyperlink ref="B473" r:id="rId1228"/>
+    <hyperlink ref="L473" r:id="rId1229"/>
+    <hyperlink ref="N473" r:id="rId1230"/>
+    <hyperlink ref="B474" r:id="rId1231"/>
+    <hyperlink ref="L474" r:id="rId1232"/>
+    <hyperlink ref="N474" r:id="rId1233"/>
+    <hyperlink ref="B475" r:id="rId1234"/>
+    <hyperlink ref="L475" r:id="rId1235"/>
+    <hyperlink ref="N475" r:id="rId1236"/>
+    <hyperlink ref="P475" r:id="rId1237"/>
+    <hyperlink ref="B476" r:id="rId1238"/>
+    <hyperlink ref="L476" r:id="rId1239"/>
+    <hyperlink ref="N476" r:id="rId1240"/>
+    <hyperlink ref="B477" r:id="rId1241"/>
+    <hyperlink ref="L477" r:id="rId1242"/>
+    <hyperlink ref="N477" r:id="rId1243"/>
+    <hyperlink ref="P477" r:id="rId1244"/>
+    <hyperlink ref="B478" r:id="rId1245"/>
+    <hyperlink ref="L478" r:id="rId1246"/>
+    <hyperlink ref="N478" r:id="rId1247"/>
+    <hyperlink ref="B479" r:id="rId1248"/>
+    <hyperlink ref="L479" r:id="rId1249"/>
+    <hyperlink ref="N479" r:id="rId1250"/>
+    <hyperlink ref="B480" r:id="rId1251"/>
+    <hyperlink ref="L480" r:id="rId1252"/>
+    <hyperlink ref="N480" r:id="rId1253"/>
+    <hyperlink ref="B481" r:id="rId1254"/>
+    <hyperlink ref="N481" r:id="rId1255"/>
+    <hyperlink ref="P481" r:id="rId1256"/>
+    <hyperlink ref="B482" r:id="rId1257"/>
+    <hyperlink ref="L482" r:id="rId1258"/>
+    <hyperlink ref="N482" r:id="rId1259"/>
+    <hyperlink ref="P482" r:id="rId1260"/>
+    <hyperlink ref="B483" r:id="rId1261"/>
+    <hyperlink ref="L483" r:id="rId1262"/>
+    <hyperlink ref="N483" r:id="rId1263"/>
+    <hyperlink ref="B484" r:id="rId1264"/>
+    <hyperlink ref="L484" r:id="rId1265"/>
+    <hyperlink ref="N484" r:id="rId1266"/>
+    <hyperlink ref="B485" r:id="rId1267"/>
+    <hyperlink ref="L485" r:id="rId1268"/>
+    <hyperlink ref="N485" r:id="rId1269"/>
+    <hyperlink ref="P485" r:id="rId1270"/>
+    <hyperlink ref="B486" r:id="rId1271"/>
+    <hyperlink ref="L486" r:id="rId1272"/>
+    <hyperlink ref="N486" r:id="rId1273"/>
+    <hyperlink ref="B487" r:id="rId1274"/>
+    <hyperlink ref="L487" r:id="rId1275"/>
+    <hyperlink ref="N487" r:id="rId1276"/>
+    <hyperlink ref="B488" r:id="rId1277"/>
+    <hyperlink ref="L488" r:id="rId1278"/>
+    <hyperlink ref="N488" r:id="rId1279"/>
+    <hyperlink ref="B489" r:id="rId1280"/>
+    <hyperlink ref="L489" r:id="rId1281"/>
+    <hyperlink ref="N489" r:id="rId1282"/>
+    <hyperlink ref="P489" r:id="rId1283"/>
+    <hyperlink ref="B490" r:id="rId1284"/>
+    <hyperlink ref="L490" r:id="rId1285"/>
+    <hyperlink ref="N490" r:id="rId1286"/>
+    <hyperlink ref="P490" r:id="rId1287"/>
+    <hyperlink ref="B491" r:id="rId1288"/>
+    <hyperlink ref="L491" r:id="rId1289"/>
+    <hyperlink ref="N491" r:id="rId1290"/>
+    <hyperlink ref="B492" r:id="rId1291"/>
+    <hyperlink ref="L492" r:id="rId1292"/>
+    <hyperlink ref="N492" r:id="rId1293"/>
+    <hyperlink ref="P492" r:id="rId1294"/>
+    <hyperlink ref="B493" r:id="rId1295"/>
+    <hyperlink ref="L493" r:id="rId1296"/>
+    <hyperlink ref="N493" r:id="rId1297"/>
+    <hyperlink ref="P493" r:id="rId1298"/>
+    <hyperlink ref="B494" r:id="rId1299"/>
+    <hyperlink ref="L494" r:id="rId1300"/>
+    <hyperlink ref="N494" r:id="rId1301"/>
+    <hyperlink ref="B495" r:id="rId1302"/>
+    <hyperlink ref="L495" r:id="rId1303"/>
+    <hyperlink ref="N495" r:id="rId1304"/>
+    <hyperlink ref="P495" r:id="rId1305"/>
+    <hyperlink ref="B496" r:id="rId1306"/>
+    <hyperlink ref="L496" r:id="rId1307"/>
+    <hyperlink ref="N496" r:id="rId1308"/>
+    <hyperlink ref="B497" r:id="rId1309"/>
+    <hyperlink ref="L497" r:id="rId1310"/>
+    <hyperlink ref="N497" r:id="rId1311"/>
+    <hyperlink ref="P497" r:id="rId1312"/>
+    <hyperlink ref="B498" r:id="rId1313"/>
+    <hyperlink ref="L498" r:id="rId1314"/>
+    <hyperlink ref="N498" r:id="rId1315"/>
+    <hyperlink ref="B499" r:id="rId1316"/>
+    <hyperlink ref="L499" r:id="rId1317"/>
+    <hyperlink ref="N499" r:id="rId1318"/>
+    <hyperlink ref="P499" r:id="rId1319"/>
+    <hyperlink ref="B500" r:id="rId1320"/>
+    <hyperlink ref="B501" r:id="rId1321"/>
+    <hyperlink ref="L501" r:id="rId1322"/>
+    <hyperlink ref="N501" r:id="rId1323"/>
+    <hyperlink ref="B502" r:id="rId1324"/>
+    <hyperlink ref="L502" r:id="rId1325"/>
+    <hyperlink ref="N502" r:id="rId1326"/>
+    <hyperlink ref="P502" r:id="rId1327"/>
+    <hyperlink ref="B503" r:id="rId1328"/>
+    <hyperlink ref="L503" r:id="rId1329"/>
+    <hyperlink ref="N503" r:id="rId1330"/>
+    <hyperlink ref="B504" r:id="rId1331"/>
+    <hyperlink ref="L504" r:id="rId1332"/>
+    <hyperlink ref="N504" r:id="rId1333"/>
+    <hyperlink ref="P504" r:id="rId1334"/>
+    <hyperlink ref="B505" r:id="rId1335"/>
+    <hyperlink ref="L505" r:id="rId1336"/>
+    <hyperlink ref="N505" r:id="rId1337"/>
+    <hyperlink ref="P505" r:id="rId1338"/>
+    <hyperlink ref="B506" r:id="rId1339"/>
+    <hyperlink ref="L506" r:id="rId1340"/>
+    <hyperlink ref="N506" r:id="rId1341"/>
+    <hyperlink ref="B507" r:id="rId1342"/>
+    <hyperlink ref="L507" r:id="rId1343"/>
+    <hyperlink ref="N507" r:id="rId1344"/>
+    <hyperlink ref="P507" r:id="rId1345"/>
+    <hyperlink ref="R507" r:id="rId1346"/>
+    <hyperlink ref="B508" r:id="rId1347"/>
+    <hyperlink ref="N508" r:id="rId1348"/>
+    <hyperlink ref="B509" r:id="rId1349"/>
+    <hyperlink ref="L509" r:id="rId1350"/>
+    <hyperlink ref="N509" r:id="rId1351"/>
+    <hyperlink ref="B510" r:id="rId1352"/>
+    <hyperlink ref="N510" r:id="rId1353"/>
+    <hyperlink ref="B511" r:id="rId1354"/>
+    <hyperlink ref="L511" r:id="rId1355"/>
+    <hyperlink ref="N511" r:id="rId1356"/>
+    <hyperlink ref="B512" r:id="rId1357"/>
+    <hyperlink ref="N512" r:id="rId1358"/>
+    <hyperlink ref="B513" r:id="rId1359"/>
+    <hyperlink ref="L513" r:id="rId1360"/>
+    <hyperlink ref="N513" r:id="rId1361"/>
+    <hyperlink ref="B514" r:id="rId1362"/>
+    <hyperlink ref="L514" r:id="rId1363"/>
+    <hyperlink ref="N514" r:id="rId1364"/>
+    <hyperlink ref="B515" r:id="rId1365"/>
+    <hyperlink ref="L515" r:id="rId1366"/>
+    <hyperlink ref="N515" r:id="rId1367"/>
+    <hyperlink ref="B516" r:id="rId1368"/>
+    <hyperlink ref="L516" r:id="rId1369"/>
+    <hyperlink ref="N516" r:id="rId1370"/>
+    <hyperlink ref="P516" r:id="rId1371"/>
+    <hyperlink ref="R516" r:id="rId1372"/>
+    <hyperlink ref="B517" r:id="rId1373"/>
+    <hyperlink ref="L517" r:id="rId1374"/>
+    <hyperlink ref="N517" r:id="rId1375"/>
+    <hyperlink ref="B518" r:id="rId1376"/>
+    <hyperlink ref="L518" r:id="rId1377"/>
+    <hyperlink ref="N518" r:id="rId1378"/>
+    <hyperlink ref="O518" r:id="rId1379"/>
+    <hyperlink ref="P518" r:id="rId1380"/>
+    <hyperlink ref="R518" r:id="rId1381"/>
+    <hyperlink ref="B519" r:id="rId1382"/>
+    <hyperlink ref="L519" r:id="rId1383"/>
+    <hyperlink ref="N519" r:id="rId1384"/>
+    <hyperlink ref="B520" r:id="rId1385"/>
+    <hyperlink ref="L520" r:id="rId1386"/>
+    <hyperlink ref="N520" r:id="rId1387"/>
+    <hyperlink ref="P520" r:id="rId1388"/>
+    <hyperlink ref="R520" r:id="rId1389"/>
+    <hyperlink ref="B521" r:id="rId1390"/>
+    <hyperlink ref="L521" r:id="rId1391"/>
+    <hyperlink ref="N521" r:id="rId1392"/>
+    <hyperlink ref="P521" r:id="rId1393"/>
+    <hyperlink ref="B522" r:id="rId1394"/>
+    <hyperlink ref="L522" r:id="rId1395"/>
+    <hyperlink ref="N522" r:id="rId1396"/>
+    <hyperlink ref="B523" r:id="rId1397"/>
+    <hyperlink ref="L523" r:id="rId1398"/>
+    <hyperlink ref="N523" r:id="rId1399"/>
+    <hyperlink ref="P523" r:id="rId1400"/>
+    <hyperlink ref="B524" r:id="rId1401"/>
+    <hyperlink ref="L524" r:id="rId1402"/>
+    <hyperlink ref="N524" r:id="rId1403"/>
+    <hyperlink ref="P524" r:id="rId1404"/>
+    <hyperlink ref="B525" r:id="rId1405"/>
+    <hyperlink ref="L525" r:id="rId1406"/>
+    <hyperlink ref="N525" r:id="rId1407"/>
+    <hyperlink ref="P525" r:id="rId1408"/>
+    <hyperlink ref="B526" r:id="rId1409"/>
+    <hyperlink ref="L526" r:id="rId1410"/>
+    <hyperlink ref="N526" r:id="rId1411"/>
+    <hyperlink ref="P526" r:id="rId1412"/>
+    <hyperlink ref="B527" r:id="rId1413"/>
+    <hyperlink ref="L527" r:id="rId1414"/>
+    <hyperlink ref="N527" r:id="rId1415"/>
+    <hyperlink ref="P527" r:id="rId1416"/>
+    <hyperlink ref="B528" r:id="rId1417"/>
+    <hyperlink ref="L528" r:id="rId1418"/>
+    <hyperlink ref="N528" r:id="rId1419"/>
+    <hyperlink ref="P528" r:id="rId1420"/>
+    <hyperlink ref="B529" r:id="rId1421"/>
+    <hyperlink ref="L529" r:id="rId1422"/>
+    <hyperlink ref="N529" r:id="rId1423"/>
+    <hyperlink ref="B530" r:id="rId1424"/>
+    <hyperlink ref="L530" r:id="rId1425"/>
+    <hyperlink ref="N530" r:id="rId1426"/>
+    <hyperlink ref="B531" r:id="rId1427"/>
+    <hyperlink ref="B532" r:id="rId1428"/>
+    <hyperlink ref="B533" r:id="rId1429"/>
+    <hyperlink ref="B534" r:id="rId1430"/>
+    <hyperlink ref="B535" r:id="rId1431"/>
+    <hyperlink ref="B536" r:id="rId1432"/>
+    <hyperlink ref="N536" r:id="rId1433"/>
+    <hyperlink ref="B537" r:id="rId1434"/>
+    <hyperlink ref="L537" r:id="rId1435"/>
+    <hyperlink ref="N537" r:id="rId1436"/>
+    <hyperlink ref="B538" r:id="rId1437"/>
+    <hyperlink ref="L538" r:id="rId1438"/>
+    <hyperlink ref="N538" r:id="rId1439"/>
+    <hyperlink ref="P538" r:id="rId1440"/>
+    <hyperlink ref="R538" r:id="rId1441"/>
+    <hyperlink ref="B539" r:id="rId1442"/>
+    <hyperlink ref="L539" r:id="rId1443"/>
+    <hyperlink ref="N539" r:id="rId1444"/>
+    <hyperlink ref="P539" r:id="rId1445"/>
+    <hyperlink ref="R539" r:id="rId1446"/>
+    <hyperlink ref="B540" r:id="rId1447"/>
+    <hyperlink ref="L540" r:id="rId1448"/>
+    <hyperlink ref="N540" r:id="rId1449"/>
+    <hyperlink ref="P540" r:id="rId1450"/>
+    <hyperlink ref="B541" r:id="rId1451"/>
+    <hyperlink ref="L541" r:id="rId1452"/>
+    <hyperlink ref="N541" r:id="rId1453"/>
+    <hyperlink ref="O541" r:id="rId1454"/>
+    <hyperlink ref="P541" r:id="rId1455"/>
+    <hyperlink ref="B542" r:id="rId1456"/>
+    <hyperlink ref="B543" r:id="rId1457"/>
+    <hyperlink ref="B544" r:id="rId1458"/>
+    <hyperlink ref="B545" r:id="rId1459"/>
+    <hyperlink ref="N545" r:id="rId1460"/>
+    <hyperlink ref="B546" r:id="rId1461"/>
+    <hyperlink ref="B547" r:id="rId1462"/>
+    <hyperlink ref="B548" r:id="rId1463"/>
+    <hyperlink ref="L548" r:id="rId1464"/>
+    <hyperlink ref="N548" r:id="rId1465"/>
+    <hyperlink ref="B549" r:id="rId1466"/>
+    <hyperlink ref="L549" r:id="rId1467"/>
+    <hyperlink ref="N549" r:id="rId1468"/>
+    <hyperlink ref="O549" r:id="rId1469"/>
+    <hyperlink ref="P549" r:id="rId1470"/>
+    <hyperlink ref="B550" r:id="rId1471"/>
+    <hyperlink ref="L550" r:id="rId1472"/>
+    <hyperlink ref="N550" r:id="rId1473"/>
+    <hyperlink ref="P550" r:id="rId1474"/>
+    <hyperlink ref="B551" r:id="rId1475"/>
+    <hyperlink ref="B552" r:id="rId1476"/>
+    <hyperlink ref="L552" r:id="rId1477"/>
+    <hyperlink ref="N552" r:id="rId1478"/>
+    <hyperlink ref="B553" r:id="rId1479"/>
+    <hyperlink ref="L553" r:id="rId1480"/>
+    <hyperlink ref="N553" r:id="rId1481"/>
+    <hyperlink ref="B554" r:id="rId1482"/>
+    <hyperlink ref="L554" r:id="rId1483"/>
+    <hyperlink ref="N554" r:id="rId1484"/>
+    <hyperlink ref="P554" r:id="rId1485"/>
+    <hyperlink ref="B555" r:id="rId1486"/>
+    <hyperlink ref="L555" r:id="rId1487"/>
+    <hyperlink ref="N555" r:id="rId1488"/>
+    <hyperlink ref="P555" r:id="rId1489"/>
+    <hyperlink ref="B556" r:id="rId1490"/>
+    <hyperlink ref="L556" r:id="rId1491"/>
+    <hyperlink ref="N556" r:id="rId1492"/>
+    <hyperlink ref="P556" r:id="rId1493"/>
+    <hyperlink ref="B557" r:id="rId1494"/>
+    <hyperlink ref="L557" r:id="rId1495"/>
+    <hyperlink ref="N557" r:id="rId1496"/>
+    <hyperlink ref="P557" r:id="rId1497"/>
+    <hyperlink ref="B558" r:id="rId1498"/>
+    <hyperlink ref="L558" r:id="rId1499"/>
+    <hyperlink ref="N558" r:id="rId1500"/>
+    <hyperlink ref="B559" r:id="rId1501"/>
+    <hyperlink ref="B560" r:id="rId1502"/>
+    <hyperlink ref="B561" r:id="rId1503"/>
+    <hyperlink ref="L561" r:id="rId1504"/>
+    <hyperlink ref="N561" r:id="rId1505"/>
+    <hyperlink ref="B562" r:id="rId1506"/>
+    <hyperlink ref="B563" r:id="rId1507"/>
+    <hyperlink ref="B564" r:id="rId1508"/>
+    <hyperlink ref="B565" r:id="rId1509"/>
+    <hyperlink ref="B566" r:id="rId1510"/>
+    <hyperlink ref="B567" r:id="rId1511"/>
+    <hyperlink ref="L567" r:id="rId1512"/>
+    <hyperlink ref="N567" r:id="rId1513"/>
+    <hyperlink ref="B568" r:id="rId1514"/>
+    <hyperlink ref="L568" r:id="rId1515"/>
+    <hyperlink ref="N568" r:id="rId1516"/>
+    <hyperlink ref="B569" r:id="rId1517"/>
+    <hyperlink ref="L569" r:id="rId1518"/>
+    <hyperlink ref="B570" r:id="rId1519"/>
+    <hyperlink ref="L570" r:id="rId1520"/>
+    <hyperlink ref="N570" r:id="rId1521"/>
+    <hyperlink ref="B571" r:id="rId1522"/>
+    <hyperlink ref="L571" r:id="rId1523"/>
+    <hyperlink ref="N571" r:id="rId1524"/>
+    <hyperlink ref="B572" r:id="rId1525"/>
+    <hyperlink ref="L572" r:id="rId1526"/>
+    <hyperlink ref="N572" r:id="rId1527"/>
+    <hyperlink ref="B573" r:id="rId1528"/>
+    <hyperlink ref="L573" r:id="rId1529"/>
+    <hyperlink ref="N573" r:id="rId1530"/>
+    <hyperlink ref="B574" r:id="rId1531"/>
+    <hyperlink ref="B575" r:id="rId1532"/>
+    <hyperlink ref="N575" r:id="rId1533"/>
+    <hyperlink ref="B576" r:id="rId1534"/>
+    <hyperlink ref="N576" r:id="rId1535"/>
+    <hyperlink ref="B577" r:id="rId1536"/>
+    <hyperlink ref="B578" r:id="rId1537"/>
+    <hyperlink ref="L578" r:id="rId1538"/>
+    <hyperlink ref="N578" r:id="rId1539"/>
+    <hyperlink ref="P578" r:id="rId1540"/>
+    <hyperlink ref="B579" r:id="rId1541"/>
+    <hyperlink ref="L579" r:id="rId1542"/>
+    <hyperlink ref="N579" r:id="rId1543"/>
+    <hyperlink ref="P579" r:id="rId1544"/>
+    <hyperlink ref="R579" r:id="rId1545"/>
+    <hyperlink ref="B580" r:id="rId1546"/>
+    <hyperlink ref="B581" r:id="rId1547"/>
+    <hyperlink ref="B582" r:id="rId1548"/>
+    <hyperlink ref="N582" r:id="rId1549"/>
+    <hyperlink ref="B583" r:id="rId1550"/>
+    <hyperlink ref="L583" r:id="rId1551"/>
+    <hyperlink ref="N583" r:id="rId1552"/>
+    <hyperlink ref="B584" r:id="rId1553"/>
+    <hyperlink ref="B585" r:id="rId1554"/>
+    <hyperlink ref="L585" r:id="rId1555"/>
+    <hyperlink ref="N585" r:id="rId1556"/>
+    <hyperlink ref="B586" r:id="rId1557"/>
+    <hyperlink ref="L586" r:id="rId1558"/>
+    <hyperlink ref="N586" r:id="rId1559"/>
+    <hyperlink ref="B587" r:id="rId1560"/>
+    <hyperlink ref="L587" r:id="rId1561"/>
+    <hyperlink ref="N587" r:id="rId1562"/>
+    <hyperlink ref="P587" r:id="rId1563"/>
+    <hyperlink ref="R587" r:id="rId1564"/>
+    <hyperlink ref="B588" r:id="rId1565"/>
+    <hyperlink ref="L588" r:id="rId1566"/>
+    <hyperlink ref="N588" r:id="rId1567"/>
+    <hyperlink ref="P588" r:id="rId1568"/>
+    <hyperlink ref="B589" r:id="rId1569"/>
+    <hyperlink ref="L589" r:id="rId1570"/>
+    <hyperlink ref="N589" r:id="rId1571"/>
+    <hyperlink ref="O589" r:id="rId1572"/>
+    <hyperlink ref="P589" r:id="rId1573"/>
+    <hyperlink ref="B590" r:id="rId1574"/>
+    <hyperlink ref="L590" r:id="rId1575"/>
+    <hyperlink ref="N590" r:id="rId1576"/>
+    <hyperlink ref="B591" r:id="rId1577"/>
+    <hyperlink ref="B592" r:id="rId1578"/>
+    <hyperlink ref="N592" r:id="rId1579"/>
+    <hyperlink ref="O592" r:id="rId1580"/>
+    <hyperlink ref="B593" r:id="rId1581"/>
+    <hyperlink ref="L593" r:id="rId1582"/>
+    <hyperlink ref="N593" r:id="rId1583"/>
+    <hyperlink ref="B594" r:id="rId1584"/>
+    <hyperlink ref="N594" r:id="rId1585"/>
+    <hyperlink ref="B595" r:id="rId1586"/>
+    <hyperlink ref="L595" r:id="rId1587"/>
+    <hyperlink ref="N595" r:id="rId1588"/>
+    <hyperlink ref="B596" r:id="rId1589"/>
+    <hyperlink ref="L596" r:id="rId1590"/>
+    <hyperlink ref="N596" r:id="rId1591"/>
+    <hyperlink ref="B597" r:id="rId1592"/>
+    <hyperlink ref="L597" r:id="rId1593"/>
+    <hyperlink ref="N597" r:id="rId1594"/>
+    <hyperlink ref="B598" r:id="rId1595"/>
+    <hyperlink ref="L598" r:id="rId1596"/>
+    <hyperlink ref="N598" r:id="rId1597"/>
+    <hyperlink ref="B599" r:id="rId1598"/>
+    <hyperlink ref="L599" r:id="rId1599"/>
+    <hyperlink ref="N599" r:id="rId1600"/>
+    <hyperlink ref="B600" r:id="rId1601"/>
+    <hyperlink ref="N600" r:id="rId1602"/>
+    <hyperlink ref="O600" r:id="rId1603"/>
+    <hyperlink ref="B601" r:id="rId1604"/>
+    <hyperlink ref="N601" r:id="rId1605"/>
+    <hyperlink ref="B602" r:id="rId1606"/>
+    <hyperlink ref="N602" r:id="rId1607"/>
+    <hyperlink ref="B603" r:id="rId1608"/>
+    <hyperlink ref="L603" r:id="rId1609"/>
+    <hyperlink ref="N603" r:id="rId1610"/>
+    <hyperlink ref="B604" r:id="rId1611"/>
+    <hyperlink ref="L604" r:id="rId1612"/>
+    <hyperlink ref="N604" r:id="rId1613"/>
+    <hyperlink ref="B605" r:id="rId1614"/>
+    <hyperlink ref="L605" r:id="rId1615"/>
+    <hyperlink ref="N605" r:id="rId1616"/>
+    <hyperlink ref="B606" r:id="rId1617"/>
+    <hyperlink ref="B607" r:id="rId1618"/>
+    <hyperlink ref="B608" r:id="rId1619"/>
+    <hyperlink ref="N608" r:id="rId1620"/>
+    <hyperlink ref="O608" r:id="rId1621"/>
+    <hyperlink ref="B609" r:id="rId1622"/>
+    <hyperlink ref="L609" r:id="rId1623"/>
+    <hyperlink ref="N609" r:id="rId1624"/>
+    <hyperlink ref="B610" r:id="rId1625"/>
+    <hyperlink ref="L610" r:id="rId1626"/>
+    <hyperlink ref="N610" r:id="rId1627"/>
+    <hyperlink ref="B611" r:id="rId1628"/>
+    <hyperlink ref="N611" r:id="rId1629"/>
+    <hyperlink ref="B612" r:id="rId1630"/>
+    <hyperlink ref="L612" r:id="rId1631"/>
+    <hyperlink ref="N612" r:id="rId1632"/>
+    <hyperlink ref="P612" r:id="rId1633"/>
+    <hyperlink ref="R612" r:id="rId1634"/>
+    <hyperlink ref="B613" r:id="rId1635"/>
+    <hyperlink ref="L613" r:id="rId1636"/>
+    <hyperlink ref="N613" r:id="rId1637"/>
+    <hyperlink ref="P613" r:id="rId1638"/>
+    <hyperlink ref="B614" r:id="rId1639"/>
+    <hyperlink ref="L614" r:id="rId1640"/>
+    <hyperlink ref="N614" r:id="rId1641"/>
+    <hyperlink ref="P614" r:id="rId1642"/>
+    <hyperlink ref="B615" r:id="rId1643"/>
+    <hyperlink ref="L615" r:id="rId1644"/>
+    <hyperlink ref="N615" r:id="rId1645"/>
+    <hyperlink ref="O615" r:id="rId1646"/>
+    <hyperlink ref="P615" r:id="rId1647"/>
+    <hyperlink ref="B616" r:id="rId1648"/>
+    <hyperlink ref="L616" r:id="rId1649"/>
+    <hyperlink ref="N616" r:id="rId1650"/>
+    <hyperlink ref="P616" r:id="rId1651"/>
+    <hyperlink ref="B617" r:id="rId1652"/>
+    <hyperlink ref="B618" r:id="rId1653"/>
+    <hyperlink ref="B619" r:id="rId1654"/>
+    <hyperlink ref="B620" r:id="rId1655"/>
+    <hyperlink ref="L620" r:id="rId1656"/>
+    <hyperlink ref="N620" r:id="rId1657"/>
+    <hyperlink ref="B621" r:id="rId1658"/>
+    <hyperlink ref="L621" r:id="rId1659"/>
+    <hyperlink ref="N621" r:id="rId1660"/>
+    <hyperlink ref="B622" r:id="rId1661"/>
+    <hyperlink ref="L622" r:id="rId1662"/>
+    <hyperlink ref="N622" r:id="rId1663"/>
+    <hyperlink ref="B623" r:id="rId1664"/>
+    <hyperlink ref="L623" r:id="rId1665"/>
+    <hyperlink ref="N623" r:id="rId1666"/>
+    <hyperlink ref="B624" r:id="rId1667"/>
+    <hyperlink ref="L624" r:id="rId1668"/>
+    <hyperlink ref="N624" r:id="rId1669"/>
+    <hyperlink ref="P624" r:id="rId1670"/>
+    <hyperlink ref="B625" r:id="rId1671"/>
+    <hyperlink ref="L625" r:id="rId1672"/>
+    <hyperlink ref="N625" r:id="rId1673"/>
+    <hyperlink ref="P625" r:id="rId1674"/>
+    <hyperlink ref="B626" r:id="rId1675"/>
+    <hyperlink ref="L626" r:id="rId1676"/>
+    <hyperlink ref="N626" r:id="rId1677"/>
+    <hyperlink ref="P626" r:id="rId1678"/>
+    <hyperlink ref="B627" r:id="rId1679"/>
+    <hyperlink ref="B628" r:id="rId1680"/>
+    <hyperlink ref="B629" r:id="rId1681"/>
+    <hyperlink ref="N629" r:id="rId1682"/>
+    <hyperlink ref="B630" r:id="rId1683"/>
+    <hyperlink ref="B631" r:id="rId1684"/>
+    <hyperlink ref="L631" r:id="rId1685"/>
+    <hyperlink ref="N631" r:id="rId1686"/>
+    <hyperlink ref="B632" r:id="rId1687"/>
+    <hyperlink ref="L632" r:id="rId1688"/>
+    <hyperlink ref="N632" r:id="rId1689"/>
+    <hyperlink ref="B633" r:id="rId1690"/>
+    <hyperlink ref="L633" r:id="rId1691"/>
+    <hyperlink ref="N633" r:id="rId1692"/>
+    <hyperlink ref="B634" r:id="rId1693"/>
+    <hyperlink ref="L634" r:id="rId1694"/>
+    <hyperlink ref="N634" r:id="rId1695"/>
+    <hyperlink ref="P634" r:id="rId1696"/>
+    <hyperlink ref="B635" r:id="rId1697"/>
+    <hyperlink ref="N635" r:id="rId1698"/>
+    <hyperlink ref="B636" r:id="rId1699"/>
+    <hyperlink ref="L636" r:id="rId1700"/>
+    <hyperlink ref="N636" r:id="rId1701"/>
+    <hyperlink ref="B637" r:id="rId1702"/>
+    <hyperlink ref="N637" r:id="rId1703"/>
+    <hyperlink ref="B638" r:id="rId1704"/>
+    <hyperlink ref="L638" r:id="rId1705"/>
+    <hyperlink ref="N638" r:id="rId1706"/>
+    <hyperlink ref="B639" r:id="rId1707"/>
+    <hyperlink ref="L639" r:id="rId1708"/>
+    <hyperlink ref="N639" r:id="rId1709"/>
+    <hyperlink ref="B640" r:id="rId1710"/>
+    <hyperlink ref="N640" r:id="rId1711"/>
+    <hyperlink ref="O640" r:id="rId1712"/>
+    <hyperlink ref="B641" r:id="rId1713"/>
+    <hyperlink ref="N641" r:id="rId1714"/>
+    <hyperlink ref="B642" r:id="rId1715"/>
+    <hyperlink ref="B643" r:id="rId1716"/>
   </hyperlinks>
   <pageSetup paperSize="66" scale="100" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -35185,13 +35197,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85559DCD-7312-4D81-9262-6C13A370A235}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE15C72-DC91-4EBD-A596-508305B12EC2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F56420B-C831-4198-86AE-9B02DD13FF68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F115F4F-AA55-493E-81CD-338BF35F6F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173E2EBD-F2D1-449A-A0C3-E3EE7D5219FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC92E4BE-51FF-49CA-81CF-95B29B1513F5}"/>
 </file>
--- a/data/nerc_previous.xlsx
+++ b/data/nerc_previous.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="1810">
   <si>
     <t>Status</t>
   </si>
@@ -2910,7 +2910,7 @@
     <t>To coordinate action between Reliability Coordinators within the Eastern Interconnection when implementing transmission loading relief procedures (TLR) for the Eastern Interconnection to prevent or manage potential or actual System Operating Limit (SOL) and Interconnection Reliability Operating Limit (IROL) exceedances to maintain reliability of the Bulk Electric System (BES).</t>
   </si>
   <si>
-    <t>Replaces IRO-006-EAST-1</t>
+    <t>Filing/Order Docket No. RD15-7-000</t>
   </si>
   <si>
     <t>Project 2015-06</t>
@@ -2962,6 +2962,9 @@
     <t>To mitigate flows on Qualified Paths to reliable levels during Real-time operations.</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD19-4-000</t>
+  </si>
+  <si>
     <t>IRO-008-1</t>
   </si>
   <si>
@@ -2977,7 +2980,7 @@
     <t>Perform analyses and assessments to prevent instability, uncontrolled separation, or Cascading.</t>
   </si>
   <si>
-    <t>IRO-008-2 replaces IRO-008-1</t>
+    <t>Filing/Order Docket No. RM15-16-000</t>
   </si>
   <si>
     <t>5/21/2018</t>
@@ -3031,6 +3034,9 @@
     <t>IRO-010-4</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD21-5-000</t>
+  </si>
+  <si>
     <t>IRO-010-5</t>
   </si>
   <si>
@@ -3070,9 +3076,6 @@
     <t>To ensure that each Reliability Coordinator’s operations are coordinated such that they will not adversely impact other Reliability Coordinator Areas and to preserve the reliability benefits of interconnected operations.</t>
   </si>
   <si>
-    <t>IRO-014-3 replaces IRO-014-1</t>
-  </si>
-  <si>
     <t>Technical Rationale IRO-014-3</t>
   </si>
   <si>
@@ -3112,7 +3115,7 @@
     <t>Establish requirements for Real-time monitoring and analysis capabilities to support reliable System operations.</t>
   </si>
   <si>
-    <t>IRO-018-1(i) will be enforceable 4/1/2018, therefore IRO-018-1 will never be enforceable.</t>
+    <t>Filing/Order Docket No. RD16-6-000</t>
   </si>
   <si>
     <t>Project 2009-02</t>
@@ -3608,10 +3611,16 @@
     <t>MOD-031-2</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD16-1-000</t>
+  </si>
+  <si>
     <t>Project 2010-04.1</t>
   </si>
   <si>
     <t>MOD-031-3</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD20-4-000</t>
   </si>
   <si>
     <t>MOD-032-1</t>
@@ -3747,6 +3756,9 @@
     <t>PER-003-2</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RM18-16-000</t>
+  </si>
+  <si>
     <t>Project 2017-02</t>
   </si>
   <si>
@@ -3811,6 +3823,9 @@
     <t>To ensure that personnel are trained on specific topics essential to reliability to perform or support Real-time operations of the Bulk Electric System.</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RM16-22-000</t>
+  </si>
+  <si>
     <t>Project 2007-06.2</t>
   </si>
   <si>
@@ -3842,7 +3857,7 @@
     <t>PRC-001-1.1(ii)</t>
   </si>
   <si>
-    <t>Replaces PRC-001-1.1(i).</t>
+    <t>Filing/Order Docket No. RD15-3-000</t>
   </si>
   <si>
     <t>Project 2014-01</t>
@@ -3902,6 +3917,9 @@
     <t>PRC-002-3</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD22-2-000</t>
+  </si>
+  <si>
     <t>PRC-002-4</t>
   </si>
   <si>
@@ -3909,6 +3927,9 @@
 System (BES) Disturbances.</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD23-4-000</t>
+  </si>
+  <si>
     <t>Project 2021-04</t>
   </si>
   <si>
@@ -3916,6 +3937,9 @@
   </si>
   <si>
     <t>PRC-002-5</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD25-2-000</t>
   </si>
   <si>
     <t>PRC-002-NPCC-01</t>
@@ -4030,7 +4054,8 @@
     <t>Implementation_Plan</t>
   </si>
   <si>
-    <t>The Implementation Plan for PRC-004-4 provides that PRC-004-4 becomes enforceable on the effective date for PRC-004-3 while simultaneously retiring PRC-004-3. Because of this, PRC-004-3(i) will never become enforceable.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD14-14-001, RD15-3-001 and RD15-5-001
+</t>
   </si>
   <si>
     <t>PRC-004-4</t>
@@ -4043,10 +4068,14 @@
     <t>PRC-004-4(i)</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD14-14-001, RD15-3-001 and RD15-5-001</t>
+  </si>
+  <si>
     <t>PRC-004-5</t>
   </si>
   <si>
-    <t>PRC-004-5 was superseded by PRC-004-5(i) and will never be enforceable.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD15-5-000
+</t>
   </si>
   <si>
     <t>Project 2008-02.2</t>
@@ -4055,7 +4084,13 @@
     <t>PRC-004-5(i)</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD14-14-001, RD15-3-001 and RD15-5-001</t>
+  </si>
+  <si>
     <t>PRC-004-6</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RM19-17-000</t>
   </si>
   <si>
     <t>PRC-004-WECC-1</t>
@@ -4123,9 +4158,6 @@
     <t>PRC-005-2(i)</t>
   </si>
   <si>
-    <t>To be retired 12/31/2016 by PRC-005-6 Implementation Plan.</t>
-  </si>
-  <si>
     <t>PRC-005-2(ii)</t>
   </si>
   <si>
@@ -4181,7 +4213,8 @@
     <t>PRC-005-6</t>
   </si>
   <si>
-    <t>Due to the complex compliance requirements, please refer to the implementation plan for the phased-in details.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD16-2-000
+Due to the complex compliance requirements, please refer to the implementation plan for the phased-in details.</t>
   </si>
   <si>
     <t>Project 2007-17.4</t>
@@ -4217,7 +4250,8 @@
     <t>PRC-006-3</t>
   </si>
   <si>
-    <t>Replaces PRC-006-2. Reliability Standard PRC-006-3 revises the regional Variance for the Québec Interconnection as necessary to account for the physical characteristics and operational practices of that Interconnection. No changes</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD15-2-000
+</t>
   </si>
   <si>
     <t>PRC-006-4</t>
@@ -4226,6 +4260,9 @@
     <t>PRC-006-5</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD21-1-000</t>
+  </si>
+  <si>
     <t>PRC-006-NPCC-1</t>
   </si>
   <si>
@@ -4241,7 +4278,7 @@
     <t>The NPCC Automatic Underfrequency Load Shedding (UFLS) regional Reliability Standard establishes more stringent and specific NPCC UFLS program requirements than the NERC continent-wide PRC-006 standard. The program is designed such that declining frequency is arrested and recovered in accordance with established NPCC performance requirements stipulated in this document.</t>
   </si>
   <si>
-    <t>Filing/Order Docket No. RM12-12-000</t>
+    <t>Filing/Order Docket No. RD20-1-000</t>
   </si>
   <si>
     <t>PRC-006-SERC-01</t>
@@ -4266,7 +4303,7 @@
 Implementation Plan</t>
   </si>
   <si>
-    <t>Replaces PRC-006-SERC-01</t>
+    <t>Filing/Order Docket No. RD17-9-000</t>
   </si>
   <si>
     <t>PRC-006-SERC-03</t>
@@ -4277,6 +4314,9 @@
 programs among all SERC applicable entities.</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD22-1-000</t>
+  </si>
+  <si>
     <t>PRC-006-SPP-01</t>
   </si>
   <si>
@@ -4332,13 +4372,13 @@
     <t>To establish an integrated and coordinated approach to the design, evaluation, and reliable operation of Undervoltage Load Shedding Programs (UVLS Programs).</t>
   </si>
   <si>
-    <t>Replaces PRC-010-0</t>
+    <t>Filing/Order Docket No. RM15-12-000</t>
   </si>
   <si>
     <t>PRC-010-2</t>
   </si>
   <si>
-    <t>Replaces PRC-010-1</t>
+    <t>Filing/Order Docket No. RD15-5-000</t>
   </si>
   <si>
     <t>PRC-011-0</t>
@@ -4376,6 +4416,9 @@
   </si>
   <si>
     <t>To ensure that Remedial Action Schemes (RAS) do not introduce unintentional or unacceptable reliability risks to the Bulk Electric System (BES).</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RM16-20-000</t>
   </si>
   <si>
     <t>Project 2010-05.3</t>
@@ -4489,7 +4532,8 @@
     <t>Coordination of Generating Unit or Plant Capabilities, Voltage Regulating Controls, and Protection</t>
   </si>
   <si>
-    <t>Please see the Implementation Plan for Version 1 for specific compliance dates and timeframes.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD15-3-000
+Please see the Implementation Plan for Version 1 for specific compliance dates and timeframes.</t>
   </si>
   <si>
     <t>2/1/2023</t>
@@ -4565,9 +4609,6 @@
   </si>
   <si>
     <t>PRC-023-5</t>
-  </si>
-  <si>
-    <t>  PRC-023-6 Replaces PRC-023-5 </t>
   </si>
   <si>
     <t>PRC-023-6</t>
@@ -4579,7 +4620,8 @@
 faults.</t>
   </si>
   <si>
-    <t>November 3, 2023-NERC filed an amended petition for approval of proposed Reliability Standard PRC-023-6. The amended petition includes additional discussion on the retirement of Requirement R2 as requested by the FERC Office of El</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD23-5-000
+</t>
   </si>
   <si>
     <t>Project 2021-05</t>
@@ -4604,6 +4646,10 @@
     <t>PRC-024-2</t>
   </si>
   <si>
+    <t xml:space="preserve">Filing/Order Docket No. RD15-3-000
+</t>
+  </si>
+  <si>
     <t>1/3/2019</t>
   </si>
   <si>
@@ -4614,6 +4660,9 @@
   </si>
   <si>
     <t>To set protection such that generating resource(s) remain connected during defined frequency and voltage excursions in support of the Bulk Electric System (BES).</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD20-7-000</t>
   </si>
   <si>
     <t>Project 2018-04</t>
@@ -4651,7 +4700,7 @@
     <t>PRC-025-2</t>
   </si>
   <si>
-    <t>Will replace PRC-025-1</t>
+    <t>Filing/Order Docket No. RD18-4-000</t>
   </si>
   <si>
     <t>Project 2016-04</t>
@@ -4785,12 +4834,15 @@
     <t>TOP-001-4</t>
   </si>
   <si>
-    <t>TOP-001-4 replaces TOP-001-3</t>
+    <t>Filing/Order Docket No. RD17-4-000</t>
   </si>
   <si>
     <t>TOP-001-5</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RM19-16-000</t>
+  </si>
+  <si>
     <t>TOP-001-6</t>
   </si>
   <si>
@@ -4848,6 +4900,9 @@
     <t>TOP-002-5</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD24-1-000</t>
+  </si>
+  <si>
     <t>TOP-003-0</t>
   </si>
   <si>
@@ -4875,7 +4930,8 @@
     <t>To ensure that the Transmission Operator and Balancing Authority have data needed to fulfill their operational and planning responsibilities.</t>
   </si>
   <si>
-    <t xml:space="preserve">For the Requirement R3 and R4 VSLs only, the intent of the SDT is to start with the Severe VSL first and then to work your way to the left until you find the situation that fits. In this manner, the VSL will not be discriminatory </t>
+    <t xml:space="preserve">Filing/Order Docket No. RM15-16-000
+</t>
   </si>
   <si>
     <t>TOP-003-4</t>
@@ -4894,6 +4950,9 @@
   Transmission Operator Area or Balancing Authority Area.</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD23-6-000</t>
+  </si>
+  <si>
     <t>TOP-003-7</t>
   </si>
   <si>
@@ -4901,6 +4960,9 @@
   </si>
   <si>
     <t>To ensure that each Transmission Operator and Balancing Authority has the data and information it needs to plan, monitor, and assess the operation of its Transmission Operator Area or Balancing Authority Area.</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD25-5-000</t>
   </si>
   <si>
     <t>TOP-004-0</t>
@@ -5034,13 +5096,14 @@
     <t>Real-time Reliability Monitoring and Analysis Capabilities</t>
   </si>
   <si>
-    <t>TOP-010-1(i) will be enforceable 4/1/2018, therefore TOP-010-1 will never be enforceable.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD16-6-000
+</t>
   </si>
   <si>
     <t>TOP-010-1(i)</t>
   </si>
   <si>
-    <t>Replaces TOP-010-1</t>
+    <t>Filing/Order Docket No. RD-16-6-000</t>
   </si>
   <si>
     <t>TOP-STD-007-0</t>
@@ -5106,10 +5169,16 @@
     <t>TPL-001-5</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RM19-10-000</t>
+  </si>
+  <si>
     <t>Project 2015-10</t>
   </si>
   <si>
     <t>TPL-001-5.1</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD20-8-000</t>
   </si>
   <si>
     <t>Technical Rationale TPL-001-5.1</t>
@@ -5284,22 +5353,21 @@
     <t>TPL-007-2</t>
   </si>
   <si>
-    <t>TPL-007-3 will supersede TPL-007-2 in the U.S. All phased-in compliance dates are carried forward unchanged.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RM18-8-000
+</t>
   </si>
   <si>
     <t>TPL-007-3</t>
   </si>
   <si>
-    <t>TPL-007-3 adds a Variance for Canadian entities. Under the terms of the TPL-007-3 implementation plan, TPL-007-3 will supersede TPL-007-2 in the U.S. All phased-in compliance dates are carried forward unchanged.</t>
-  </si>
-  <si>
     <t>Project 2018-01</t>
   </si>
   <si>
     <t>TPL-007-4</t>
   </si>
   <si>
-    <t>This Variance shall be applicable in those Canadian jurisdictions where the Variance has been approved for use by the applicable governmental authority or has otherwise become effective in the jurisdiction.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD20-3-000
+This Variance shall be applicable in those Canadian jurisdictions where the Variance has been approved for use by the applicable governmental authority or has otherwise become effective in t</t>
   </si>
   <si>
     <t>Project 2019-01</t>
@@ -5315,6 +5383,9 @@
   </si>
   <si>
     <t>Establish Transmission system planning performance requirements to develop a Bulk Power System (BPS) that will operate reliably during extreme heat and extreme cold temperature events.</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD25-4-000</t>
   </si>
   <si>
     <t>Project 2023-07</t>
@@ -5372,7 +5443,8 @@
     <t>VAR-001-4.2</t>
   </si>
   <si>
-    <t xml:space="preserve">VAR-001-4.2 replaces VAR-001-4.1. VAR-001-4 became effective October 1, 2014; VAR-001-4.1 replaced VAR-001-4 on 11/13/2015 due to an errata approved by FERC; VAR-001-4.2 replaced VAR-001-4.1 on 9/26/2017 due to an errata approved </t>
+    <t xml:space="preserve">Filing/Order Docket No. RD17-7-000
+</t>
   </si>
   <si>
     <t>Project 2016-EPR-02</t>
@@ -5381,10 +5453,14 @@
     <t>VAR-001-5</t>
   </si>
   <si>
+    <t>Filing/Order Docket No. RD18-8-000</t>
+  </si>
+  <si>
     <t>VAR-001-6</t>
   </si>
   <si>
-    <t>Standard withdrawn on 5/14/2020.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RM19-16-000
+Standard withdrawn on 5/14/2020.</t>
   </si>
   <si>
     <t>VAR-002-1</t>
@@ -5432,7 +5508,8 @@
     <t>VAR-002-4.1</t>
   </si>
   <si>
-    <t>VAR-002-4.1 replaces VAR-002-4. VAR-002-4 became effective 5/29/2015; VAR-002-4.1 replaced VAR-002-4 9/26/2017 due to an errata approved by FERC.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD17-7-000
+</t>
   </si>
   <si>
     <t>VAR-002-WECC-1</t>
@@ -5468,7 +5545,8 @@
     <t>To ensure the Western Interconnection is operated in a coordinated manner under normal and abnormal conditions by establishing the performance criteria for WECC power system stabilizers.</t>
   </si>
   <si>
-    <t>Requirement R3 has an effective date of July 1, 2017 for first-time service after regulatory approval; R3 has an effective date of July 1, 2022 for units placed in service prior to final regulatory approval.</t>
+    <t xml:space="preserve">Filing/Order Docket No. RD17-5-000
+</t>
   </si>
   <si>
     <t>Regional Reliability Standards Under Development</t>
@@ -5477,13 +5555,16 @@
     <t>VAR-501-WECC-3.1</t>
   </si>
   <si>
-    <t>VAR-501-WECC-3 became effective 7/1/2017; VAR-501-WECC-3.1 replaced VAR-501-WECC-3 on 9/26/2017 due to an errata approved by FERC. Requirement R3 has an effective date of July 1, 2017 for first-time service after regulatory approv</t>
+    <t>Filing/Order Docket No. RD17-7-000</t>
   </si>
   <si>
     <t>Technical Rationale VAR-501-WECC-3.1</t>
   </si>
   <si>
     <t>VAR-501-WECC-4</t>
+  </si>
+  <si>
+    <t>Filing/Order Docket No. RD24-2-000</t>
   </si>
   <si>
     <t>VAR-STD-002a-1</t>
@@ -19992,7 +20073,9 @@
       <c r="L332" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M332" s="6"/>
+      <c r="M332" s="6" t="s">
+        <v>958</v>
+      </c>
       <c r="N332" s="8" t="s">
         <v>68</v>
       </c>
@@ -20006,13 +20089,13 @@
         <v>18</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E333" s="15">
         <v>39738</v>
@@ -20052,13 +20135,13 @@
         <v>18</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E334" s="9">
         <v>41956</v>
@@ -20083,7 +20166,7 @@
         <v>11</v>
       </c>
       <c r="M334" s="6" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N334" s="8" t="s">
         <v>858</v>
@@ -20094,7 +20177,7 @@
       </c>
       <c r="Q334" s="7"/>
       <c r="R334" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -20102,13 +20185,13 @@
         <v>30</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E335" s="15">
         <v>44329</v>
@@ -20137,7 +20220,7 @@
         <v>467</v>
       </c>
       <c r="O335" s="19" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P335" s="19" t="s">
         <v>729</v>
@@ -20150,13 +20233,13 @@
         <v>18</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E336" s="9">
         <v>39738</v>
@@ -20196,13 +20279,13 @@
         <v>30</v>
       </c>
       <c r="B337" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="C337" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="D337" s="18" t="s">
         <v>970</v>
-      </c>
-      <c r="C337" s="13" t="s">
-        <v>968</v>
-      </c>
-      <c r="D337" s="18" t="s">
-        <v>969</v>
       </c>
       <c r="E337" s="15">
         <v>42229</v>
@@ -20225,13 +20308,13 @@
         <v>11</v>
       </c>
       <c r="M337" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N337" s="14" t="s">
         <v>942</v>
       </c>
       <c r="O337" s="19" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P337" s="19" t="s">
         <v>34</v>
@@ -20244,13 +20327,13 @@
         <v>18</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E338" s="9">
         <v>39738</v>
@@ -20284,13 +20367,13 @@
         <v>18</v>
       </c>
       <c r="B339" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C339" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="D339" s="18" t="s">
         <v>976</v>
-      </c>
-      <c r="C339" s="13" t="s">
-        <v>974</v>
-      </c>
-      <c r="D339" s="18" t="s">
-        <v>975</v>
       </c>
       <c r="E339" s="15">
         <v>40030</v>
@@ -20330,13 +20413,13 @@
         <v>18</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E340" s="9">
         <v>41956</v>
@@ -20362,7 +20445,9 @@
       <c r="L340" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M340" s="6"/>
+      <c r="M340" s="6" t="s">
+        <v>857</v>
+      </c>
       <c r="N340" s="8" t="s">
         <v>858</v>
       </c>
@@ -20378,13 +20463,13 @@
         <v>18</v>
       </c>
       <c r="B341" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C341" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="D341" s="12" t="s">
         <v>979</v>
-      </c>
-      <c r="C341" s="13" t="s">
-        <v>974</v>
-      </c>
-      <c r="D341" s="12" t="s">
-        <v>978</v>
       </c>
       <c r="E341" s="15">
         <v>43867</v>
@@ -20426,13 +20511,13 @@
         <v>18</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E342" s="9">
         <v>44358</v>
@@ -20456,7 +20541,9 @@
       <c r="L342" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M342" s="6"/>
+      <c r="M342" s="6" t="s">
+        <v>982</v>
+      </c>
       <c r="N342" s="8" t="s">
         <v>615</v>
       </c>
@@ -20472,13 +20559,13 @@
         <v>30</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E343" s="15">
         <v>45155</v>
@@ -20501,10 +20588,10 @@
         <v>11</v>
       </c>
       <c r="M343" s="12" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="N343" s="14" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="O343" s="16"/>
       <c r="P343" s="19" t="s">
@@ -20518,13 +20605,13 @@
         <v>18</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E344" s="9">
         <v>38755</v>
@@ -20552,7 +20639,7 @@
         <v>45</v>
       </c>
       <c r="N344" s="8" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="O344" s="10"/>
       <c r="P344" s="10"/>
@@ -20564,13 +20651,13 @@
         <v>18</v>
       </c>
       <c r="B345" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="D345" s="12" t="s">
         <v>990</v>
-      </c>
-      <c r="C345" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="D345" s="12" t="s">
-        <v>988</v>
       </c>
       <c r="E345" s="15">
         <v>40759</v>
@@ -20604,13 +20691,13 @@
         <v>30</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E346" s="9">
         <v>41956</v>
@@ -20633,13 +20720,13 @@
         <v>11</v>
       </c>
       <c r="M346" s="6" t="s">
-        <v>994</v>
+        <v>857</v>
       </c>
       <c r="N346" s="8" t="s">
         <v>858</v>
       </c>
       <c r="O346" s="17" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P346" s="17" t="s">
         <v>34</v>
@@ -20652,13 +20739,13 @@
         <v>18</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E347" s="15">
         <v>38755</v>
@@ -20686,7 +20773,7 @@
         <v>45</v>
       </c>
       <c r="N347" s="14" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O347" s="16"/>
       <c r="P347" s="16"/>
@@ -20698,13 +20785,13 @@
         <v>18</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E348" s="9">
         <v>38755</v>
@@ -20732,7 +20819,7 @@
         <v>45</v>
       </c>
       <c r="N348" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O348" s="10"/>
       <c r="P348" s="10"/>
@@ -20744,13 +20831,13 @@
         <v>30</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E349" s="15">
         <v>41956</v>
@@ -20779,7 +20866,7 @@
         <v>858</v>
       </c>
       <c r="O349" s="19" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P349" s="19" t="s">
         <v>34</v>
@@ -20792,13 +20879,13 @@
         <v>18</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E350" s="9">
         <v>42495</v>
@@ -20821,10 +20908,10 @@
         <v>11</v>
       </c>
       <c r="M350" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N350" s="8" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O350" s="10"/>
       <c r="P350" s="17" t="s">
@@ -20838,13 +20925,13 @@
         <v>30</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E351" s="15">
         <v>42676</v>
@@ -20867,20 +20954,20 @@
         <v>11</v>
       </c>
       <c r="M351" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N351" s="14" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O351" s="19" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="P351" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q351" s="13"/>
       <c r="R351" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -20888,13 +20975,13 @@
         <v>18</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E352" s="9">
         <v>39153</v>
@@ -20917,7 +21004,7 @@
       </c>
       <c r="L352" s="7"/>
       <c r="M352" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N352" s="7"/>
       <c r="O352" s="10"/>
@@ -20930,13 +21017,13 @@
         <v>18</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E353" s="15">
         <v>38391</v>
@@ -20951,7 +21038,7 @@
       </c>
       <c r="L353" s="13"/>
       <c r="M353" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N353" s="13"/>
       <c r="O353" s="16"/>
@@ -20964,13 +21051,13 @@
         <v>18</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E354" s="9">
         <v>39686</v>
@@ -20991,7 +21078,7 @@
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N354" s="7"/>
       <c r="O354" s="10"/>
@@ -21004,13 +21091,13 @@
         <v>18</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E355" s="15">
         <v>40122</v>
@@ -21035,10 +21122,10 @@
         <v>11</v>
       </c>
       <c r="M355" s="18" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N355" s="14" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O355" s="16"/>
       <c r="P355" s="19" t="s">
@@ -21052,13 +21139,13 @@
         <v>18</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E356" s="9">
         <v>41676</v>
@@ -21077,10 +21164,10 @@
         <v>11</v>
       </c>
       <c r="M356" s="11" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N356" s="8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O356" s="10"/>
       <c r="P356" s="17" t="s">
@@ -21094,13 +21181,13 @@
         <v>18</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D357" s="18" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E357" s="15">
         <v>38391</v>
@@ -21115,7 +21202,7 @@
       </c>
       <c r="L357" s="13"/>
       <c r="M357" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N357" s="13"/>
       <c r="O357" s="16"/>
@@ -21128,13 +21215,13 @@
         <v>18</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E358" s="9">
         <v>38391</v>
@@ -21149,7 +21236,7 @@
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N358" s="7"/>
       <c r="O358" s="10"/>
@@ -21162,13 +21249,13 @@
         <v>18</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E359" s="15">
         <v>38391</v>
@@ -21183,7 +21270,7 @@
       </c>
       <c r="L359" s="13"/>
       <c r="M359" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N359" s="13"/>
       <c r="O359" s="16"/>
@@ -21196,13 +21283,13 @@
         <v>18</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E360" s="9">
         <v>39765</v>
@@ -21227,10 +21314,10 @@
         <v>11</v>
       </c>
       <c r="M360" s="11" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N360" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O360" s="10"/>
       <c r="P360" s="17" t="s">
@@ -21244,13 +21331,13 @@
         <v>18</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E361" s="15">
         <v>38391</v>
@@ -21265,7 +21352,7 @@
       </c>
       <c r="L361" s="13"/>
       <c r="M361" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N361" s="13"/>
       <c r="O361" s="16"/>
@@ -21278,13 +21365,13 @@
         <v>18</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E362" s="9">
         <v>38391</v>
@@ -21320,13 +21407,13 @@
         <v>18</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E363" s="15">
         <v>39750</v>
@@ -21362,13 +21449,13 @@
         <v>18</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E364" s="9">
         <v>38391</v>
@@ -21404,13 +21491,13 @@
         <v>18</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D365" s="18" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E365" s="15">
         <v>38391</v>
@@ -21425,7 +21512,7 @@
       </c>
       <c r="L365" s="13"/>
       <c r="M365" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N365" s="13"/>
       <c r="O365" s="16"/>
@@ -21438,13 +21525,13 @@
         <v>18</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E366" s="9">
         <v>39686</v>
@@ -21469,10 +21556,10 @@
         <v>11</v>
       </c>
       <c r="M366" s="11" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="N366" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O366" s="10"/>
       <c r="P366" s="17" t="s">
@@ -21486,13 +21573,13 @@
         <v>18</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E367" s="15">
         <v>38391</v>
@@ -21507,7 +21594,7 @@
       </c>
       <c r="L367" s="13"/>
       <c r="M367" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N367" s="13"/>
       <c r="O367" s="16"/>
@@ -21520,13 +21607,13 @@
         <v>18</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E368" s="9">
         <v>38391</v>
@@ -21554,7 +21641,7 @@
         <v>45</v>
       </c>
       <c r="N368" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O368" s="10"/>
       <c r="P368" s="10"/>
@@ -21566,13 +21653,13 @@
         <v>18</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E369" s="15">
         <v>38391</v>
@@ -21594,7 +21681,7 @@
         <v>45</v>
       </c>
       <c r="N369" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O369" s="16"/>
       <c r="P369" s="16"/>
@@ -21606,13 +21693,13 @@
         <v>18</v>
       </c>
       <c r="B370" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D370" s="6" t="s">
         <v>1074</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D370" s="6" t="s">
-        <v>1073</v>
       </c>
       <c r="E370" s="9">
         <v>38391</v>
@@ -21640,7 +21727,7 @@
         <v>45</v>
       </c>
       <c r="N370" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O370" s="10"/>
       <c r="P370" s="10"/>
@@ -21652,13 +21739,13 @@
         <v>18</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E371" s="15">
         <v>38391</v>
@@ -21675,7 +21762,7 @@
       </c>
       <c r="L371" s="13"/>
       <c r="M371" s="18" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N371" s="13"/>
       <c r="O371" s="16"/>
@@ -21688,13 +21775,13 @@
         <v>18</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E372" s="9">
         <v>38839</v>
@@ -21716,7 +21803,7 @@
         <v>260</v>
       </c>
       <c r="N372" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O372" s="10"/>
       <c r="P372" s="10"/>
@@ -21728,13 +21815,13 @@
         <v>18</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D373" s="12" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E373" s="15">
         <v>38391</v>
@@ -21756,7 +21843,7 @@
         <v>45</v>
       </c>
       <c r="N373" s="14" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O373" s="16"/>
       <c r="P373" s="16"/>
@@ -21768,13 +21855,13 @@
         <v>18</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E374" s="9">
         <v>38391</v>
@@ -21796,7 +21883,7 @@
         <v>45</v>
       </c>
       <c r="N374" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O374" s="10"/>
       <c r="P374" s="10"/>
@@ -21808,13 +21895,13 @@
         <v>18</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D375" s="12" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E375" s="15">
         <v>39750</v>
@@ -21831,10 +21918,10 @@
         <v>11</v>
       </c>
       <c r="M375" s="12" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N375" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O375" s="16"/>
       <c r="P375" s="16"/>
@@ -21846,13 +21933,13 @@
         <v>18</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E376" s="9">
         <v>38391</v>
@@ -21867,7 +21954,7 @@
       </c>
       <c r="L376" s="7"/>
       <c r="M376" s="6" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="N376" s="7"/>
       <c r="O376" s="10"/>
@@ -21880,13 +21967,13 @@
         <v>18</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D377" s="18" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E377" s="15">
         <v>38839</v>
@@ -21922,13 +22009,13 @@
         <v>18</v>
       </c>
       <c r="B378" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D378" s="11" t="s">
         <v>1095</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D378" s="11" t="s">
-        <v>1094</v>
       </c>
       <c r="E378" s="9">
         <v>39750</v>
@@ -21956,7 +22043,7 @@
         <v>24</v>
       </c>
       <c r="N378" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O378" s="10"/>
       <c r="P378" s="10"/>
@@ -21968,13 +22055,13 @@
         <v>18</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D379" s="18" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E379" s="15">
         <v>38391</v>
@@ -22010,13 +22097,13 @@
         <v>18</v>
       </c>
       <c r="B380" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D380" s="11" t="s">
         <v>1099</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D380" s="11" t="s">
-        <v>1098</v>
       </c>
       <c r="E380" s="9">
         <v>39750</v>
@@ -22044,7 +22131,7 @@
         <v>24</v>
       </c>
       <c r="N380" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O380" s="10"/>
       <c r="P380" s="10"/>
@@ -22056,13 +22143,13 @@
         <v>18</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D381" s="18" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E381" s="15">
         <v>38391</v>
@@ -22090,7 +22177,7 @@
         <v>45</v>
       </c>
       <c r="N381" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O381" s="16"/>
       <c r="P381" s="16"/>
@@ -22102,13 +22189,13 @@
         <v>18</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E382" s="9">
         <v>38391</v>
@@ -22144,13 +22231,13 @@
         <v>18</v>
       </c>
       <c r="B383" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D383" s="18" t="s">
         <v>1106</v>
-      </c>
-      <c r="C383" s="13" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D383" s="18" t="s">
-        <v>1105</v>
       </c>
       <c r="E383" s="15">
         <v>39750</v>
@@ -22178,7 +22265,7 @@
         <v>24</v>
       </c>
       <c r="N383" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O383" s="16"/>
       <c r="P383" s="16"/>
@@ -22190,13 +22277,13 @@
         <v>18</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E384" s="9">
         <v>38391</v>
@@ -22224,7 +22311,7 @@
         <v>45</v>
       </c>
       <c r="N384" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O384" s="10"/>
       <c r="P384" s="17" t="s">
@@ -22238,13 +22325,13 @@
         <v>18</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D385" s="18" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E385" s="15">
         <v>38391</v>
@@ -22280,13 +22367,13 @@
         <v>18</v>
       </c>
       <c r="B386" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D386" s="11" t="s">
         <v>1113</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D386" s="11" t="s">
-        <v>1112</v>
       </c>
       <c r="E386" s="9">
         <v>39918</v>
@@ -22309,7 +22396,7 @@
       </c>
       <c r="L386" s="7"/>
       <c r="M386" s="6" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N386" s="7"/>
       <c r="O386" s="10"/>
@@ -22322,13 +22409,13 @@
         <v>18</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D387" s="18" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E387" s="15">
         <v>40395</v>
@@ -22368,13 +22455,13 @@
         <v>18</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E388" s="9">
         <v>38755</v>
@@ -22396,7 +22483,7 @@
         <v>45</v>
       </c>
       <c r="N388" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O388" s="10"/>
       <c r="P388" s="10"/>
@@ -22408,13 +22495,13 @@
         <v>18</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D389" s="12" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E389" s="15">
         <v>38755</v>
@@ -22436,7 +22523,7 @@
         <v>45</v>
       </c>
       <c r="N389" s="14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O389" s="16"/>
       <c r="P389" s="16"/>
@@ -22448,13 +22535,13 @@
         <v>30</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E390" s="9">
         <v>41312</v>
@@ -22477,10 +22564,10 @@
         <v>11</v>
       </c>
       <c r="M390" s="11" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N390" s="8" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O390" s="10"/>
       <c r="P390" s="17" t="s">
@@ -22494,13 +22581,13 @@
         <v>18</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E391" s="15">
         <v>40850</v>
@@ -22515,7 +22602,7 @@
       </c>
       <c r="L391" s="13"/>
       <c r="M391" s="12" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="N391" s="13"/>
       <c r="O391" s="16"/>
@@ -22528,13 +22615,13 @@
         <v>30</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E392" s="9">
         <v>41312</v>
@@ -22559,10 +22646,10 @@
         <v>11</v>
       </c>
       <c r="M392" s="11" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="N392" s="8" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O392" s="10"/>
       <c r="P392" s="17" t="s">
@@ -22576,13 +22663,13 @@
         <v>30</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D393" s="18" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E393" s="15">
         <v>41312</v>
@@ -22607,10 +22694,10 @@
         <v>11</v>
       </c>
       <c r="M393" s="12" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="N393" s="14" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O393" s="16"/>
       <c r="P393" s="19" t="s">
@@ -22624,13 +22711,13 @@
         <v>18</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E394" s="9">
         <v>39686</v>
@@ -22653,7 +22740,7 @@
       </c>
       <c r="L394" s="7"/>
       <c r="M394" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N394" s="7"/>
       <c r="O394" s="10"/>
@@ -22666,13 +22753,13 @@
         <v>18</v>
       </c>
       <c r="B395" s="14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D395" s="12" t="s">
         <v>1144</v>
-      </c>
-      <c r="C395" s="13" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D395" s="12" t="s">
-        <v>1143</v>
       </c>
       <c r="E395" s="15">
         <v>40948</v>
@@ -22697,10 +22784,10 @@
         <v>11</v>
       </c>
       <c r="M395" s="18" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="N395" s="14" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O395" s="16"/>
       <c r="P395" s="19" t="s">
@@ -22714,13 +22801,13 @@
         <v>18</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E396" s="9">
         <v>39686</v>
@@ -22741,7 +22828,7 @@
       </c>
       <c r="L396" s="7"/>
       <c r="M396" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N396" s="7"/>
       <c r="O396" s="10"/>
@@ -22754,13 +22841,13 @@
         <v>18</v>
       </c>
       <c r="B397" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C397" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D397" s="12" t="s">
         <v>1150</v>
-      </c>
-      <c r="C397" s="13" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D397" s="12" t="s">
-        <v>1149</v>
       </c>
       <c r="E397" s="15">
         <v>40122</v>
@@ -22785,10 +22872,10 @@
         <v>11</v>
       </c>
       <c r="M397" s="12" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="N397" s="14" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O397" s="16"/>
       <c r="P397" s="16"/>
@@ -22800,13 +22887,13 @@
         <v>18</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E398" s="9">
         <v>41956</v>
@@ -22848,13 +22935,13 @@
         <v>18</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D399" s="12" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E399" s="15">
         <v>39686</v>
@@ -22871,7 +22958,7 @@
       </c>
       <c r="L399" s="13"/>
       <c r="M399" s="18" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="N399" s="13"/>
       <c r="O399" s="16"/>
@@ -22884,13 +22971,13 @@
         <v>18</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E400" s="9">
         <v>39854</v>
@@ -22915,10 +23002,10 @@
         <v>11</v>
       </c>
       <c r="M400" s="6" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N400" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O400" s="10"/>
       <c r="P400" s="10"/>
@@ -22930,13 +23017,13 @@
         <v>18</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D401" s="12" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E401" s="15">
         <v>41956</v>
@@ -22961,7 +23048,7 @@
         <v>11</v>
       </c>
       <c r="M401" s="18" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="N401" s="14" t="s">
         <v>187</v>
@@ -22978,13 +23065,13 @@
         <v>18</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E402" s="9">
         <v>41766</v>
@@ -23009,10 +23096,10 @@
         <v>436</v>
       </c>
       <c r="M402" s="6" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="N402" s="8" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="O402" s="10"/>
       <c r="P402" s="10"/>
@@ -23024,13 +23111,13 @@
         <v>18</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E403" s="15">
         <v>42313</v>
@@ -23054,9 +23141,11 @@
       <c r="L403" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M403" s="12"/>
+      <c r="M403" s="12" t="s">
+        <v>1168</v>
+      </c>
       <c r="N403" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="O403" s="16"/>
       <c r="P403" s="19" t="s">
@@ -23070,13 +23159,13 @@
         <v>30</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E404" s="9">
         <v>43867</v>
@@ -23098,7 +23187,9 @@
       <c r="L404" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M404" s="6"/>
+      <c r="M404" s="6" t="s">
+        <v>1171</v>
+      </c>
       <c r="N404" s="8" t="s">
         <v>659</v>
       </c>
@@ -23114,13 +23205,13 @@
         <v>30</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="E405" s="15">
         <v>41676</v>
@@ -23145,10 +23236,10 @@
         <v>11</v>
       </c>
       <c r="M405" s="18" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="N405" s="14" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="O405" s="16"/>
       <c r="P405" s="19" t="s">
@@ -23162,13 +23253,13 @@
         <v>18</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="E406" s="9">
         <v>41676</v>
@@ -23193,10 +23284,10 @@
         <v>11</v>
       </c>
       <c r="M406" s="6" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="N406" s="8" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="O406" s="10"/>
       <c r="P406" s="17" t="s">
@@ -23204,7 +23295,7 @@
       </c>
       <c r="Q406" s="7"/>
       <c r="R406" s="21" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -23212,13 +23303,13 @@
         <v>30</v>
       </c>
       <c r="B407" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C407" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D407" s="12" t="s">
         <v>1179</v>
-      </c>
-      <c r="C407" s="13" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D407" s="12" t="s">
-        <v>1176</v>
       </c>
       <c r="E407" s="15">
         <v>43867</v>
@@ -23240,7 +23331,9 @@
       <c r="L407" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M407" s="12"/>
+      <c r="M407" s="12" t="s">
+        <v>1171</v>
+      </c>
       <c r="N407" s="14" t="s">
         <v>659</v>
       </c>
@@ -23256,13 +23349,13 @@
         <v>18</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E408" s="9">
         <v>39204</v>
@@ -23283,7 +23376,7 @@
       </c>
       <c r="L408" s="7"/>
       <c r="M408" s="6" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="N408" s="7"/>
       <c r="O408" s="10"/>
@@ -23296,13 +23389,13 @@
         <v>18</v>
       </c>
       <c r="B409" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C409" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="C409" s="13" t="s">
-        <v>1181</v>
-      </c>
       <c r="D409" s="12" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E409" s="15">
         <v>40030</v>
@@ -23325,7 +23418,7 @@
       </c>
       <c r="L409" s="13"/>
       <c r="M409" s="12" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="N409" s="13"/>
       <c r="O409" s="16"/>
@@ -23338,13 +23431,13 @@
         <v>18</v>
       </c>
       <c r="B410" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D410" s="6" t="s">
         <v>1185</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D410" s="6" t="s">
-        <v>1182</v>
       </c>
       <c r="E410" s="9">
         <v>41010</v>
@@ -23367,10 +23460,10 @@
         <v>11</v>
       </c>
       <c r="M410" s="6" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="N410" s="8" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="O410" s="10"/>
       <c r="P410" s="10"/>
@@ -23382,13 +23475,13 @@
         <v>18</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D411" s="12" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E411" s="15">
         <v>41956</v>
@@ -23416,13 +23509,13 @@
         <v>18</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E412" s="9">
         <v>41865</v>
@@ -23447,10 +23540,10 @@
         <v>11</v>
       </c>
       <c r="M412" s="6" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="N412" s="8" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="O412" s="10"/>
       <c r="P412" s="17" t="s">
@@ -23464,13 +23557,13 @@
         <v>30</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E413" s="15">
         <v>43867</v>
@@ -23492,7 +23585,9 @@
       <c r="L413" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M413" s="12"/>
+      <c r="M413" s="12" t="s">
+        <v>658</v>
+      </c>
       <c r="N413" s="14" t="s">
         <v>659</v>
       </c>
@@ -23508,13 +23603,13 @@
         <v>18</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E414" s="9">
         <v>38391</v>
@@ -23542,7 +23637,7 @@
         <v>45</v>
       </c>
       <c r="N414" s="8" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O414" s="10"/>
       <c r="P414" s="10"/>
@@ -23554,13 +23649,13 @@
         <v>18</v>
       </c>
       <c r="B415" s="14" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C415" s="13" t="s">
         <v>1197</v>
       </c>
-      <c r="C415" s="13" t="s">
-        <v>1194</v>
-      </c>
       <c r="D415" s="12" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E415" s="15">
         <v>39918</v>
@@ -23596,13 +23691,13 @@
         <v>18</v>
       </c>
       <c r="B416" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D416" s="6" t="s">
         <v>1198</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D416" s="6" t="s">
-        <v>1195</v>
       </c>
       <c r="E416" s="9">
         <v>40976</v>
@@ -23630,7 +23725,7 @@
         <v>118</v>
       </c>
       <c r="N416" s="8" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="O416" s="10"/>
       <c r="P416" s="10"/>
@@ -23642,13 +23737,13 @@
         <v>18</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D417" s="12" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="E417" s="15">
         <v>38391</v>
@@ -23684,13 +23779,13 @@
         <v>18</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E418" s="9">
         <v>38391</v>
@@ -23712,13 +23807,13 @@
         <v>41182</v>
       </c>
       <c r="L418" s="8" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="M418" s="6" t="s">
         <v>45</v>
       </c>
       <c r="N418" s="8" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="O418" s="10"/>
       <c r="P418" s="10"/>
@@ -23730,13 +23825,13 @@
         <v>18</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D419" s="18" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E419" s="15">
         <v>40591</v>
@@ -23758,13 +23853,13 @@
         <v>43646</v>
       </c>
       <c r="L419" s="25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M419" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N419" s="14" t="s">
         <v>1210</v>
-      </c>
-      <c r="M419" s="12" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N419" s="14" t="s">
-        <v>1207</v>
       </c>
       <c r="O419" s="16"/>
       <c r="P419" s="19" t="s">
@@ -23778,13 +23873,13 @@
         <v>30</v>
       </c>
       <c r="B420" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D420" s="11" t="s">
         <v>1212</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D420" s="11" t="s">
-        <v>1209</v>
       </c>
       <c r="E420" s="9">
         <v>43230</v>
@@ -23806,9 +23901,11 @@
       <c r="L420" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M420" s="6"/>
+      <c r="M420" s="6" t="s">
+        <v>1216</v>
+      </c>
       <c r="N420" s="8" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="O420" s="10"/>
       <c r="P420" s="17" t="s">
@@ -23822,13 +23919,13 @@
         <v>18</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="D421" s="12" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="E421" s="15">
         <v>38391</v>
@@ -23845,7 +23942,7 @@
       </c>
       <c r="L421" s="13"/>
       <c r="M421" s="18" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="N421" s="13"/>
       <c r="O421" s="16"/>
@@ -23858,13 +23955,13 @@
         <v>18</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="E422" s="9">
         <v>39022</v>
@@ -23900,13 +23997,13 @@
         <v>18</v>
       </c>
       <c r="B423" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C423" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="C423" s="13" t="s">
-        <v>1215</v>
-      </c>
       <c r="D423" s="12" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="E423" s="15">
         <v>39854</v>
@@ -23931,10 +24028,10 @@
         <v>11</v>
       </c>
       <c r="M423" s="12" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="N423" s="14" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O423" s="16"/>
       <c r="P423" s="19" t="s">
@@ -23948,13 +24045,13 @@
         <v>18</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="E424" s="9">
         <v>39854</v>
@@ -23979,10 +24076,10 @@
         <v>11</v>
       </c>
       <c r="M424" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N424" s="8" t="s">
         <v>1225</v>
-      </c>
-      <c r="N424" s="8" t="s">
-        <v>1221</v>
       </c>
       <c r="O424" s="10"/>
       <c r="P424" s="10"/>
@@ -23994,13 +24091,13 @@
         <v>30</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D425" s="12" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="E425" s="15">
         <v>41676</v>
@@ -24023,10 +24120,10 @@
         <v>11</v>
       </c>
       <c r="M425" s="12" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="N425" s="14" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="O425" s="16"/>
       <c r="P425" s="19" t="s">
@@ -24040,13 +24137,13 @@
         <v>30</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E426" s="9">
         <v>42593</v>
@@ -24068,9 +24165,11 @@
       <c r="L426" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M426" s="6"/>
+      <c r="M426" s="6" t="s">
+        <v>1238</v>
+      </c>
       <c r="N426" s="8" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="O426" s="10"/>
       <c r="P426" s="17" t="s">
@@ -24084,13 +24183,13 @@
         <v>18</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="D427" s="12" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="E427" s="15">
         <v>38391</v>
@@ -24107,10 +24206,10 @@
       </c>
       <c r="L427" s="13"/>
       <c r="M427" s="18" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="N427" s="14" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="O427" s="16"/>
       <c r="P427" s="16"/>
@@ -24122,13 +24221,13 @@
         <v>18</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="E428" s="9">
         <v>39022</v>
@@ -24154,7 +24253,7 @@
         <v>479</v>
       </c>
       <c r="N428" s="8" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="O428" s="10"/>
       <c r="P428" s="10"/>
@@ -24166,13 +24265,13 @@
         <v>18</v>
       </c>
       <c r="B429" s="14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C429" s="13" t="s">
         <v>1241</v>
       </c>
-      <c r="C429" s="13" t="s">
-        <v>1236</v>
-      </c>
       <c r="D429" s="12" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="E429" s="15">
         <v>41010</v>
@@ -24195,10 +24294,10 @@
         <v>11</v>
       </c>
       <c r="M429" s="12" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="N429" s="14" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="O429" s="19" t="s">
         <v>14</v>
@@ -24212,13 +24311,13 @@
         <v>18</v>
       </c>
       <c r="B430" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D430" s="6" t="s">
         <v>1242</v>
-      </c>
-      <c r="C430" s="7" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D430" s="6" t="s">
-        <v>1237</v>
       </c>
       <c r="E430" s="9">
         <v>41956</v>
@@ -24258,13 +24357,13 @@
         <v>18</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="D431" s="12" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="E431" s="15">
         <v>42047</v>
@@ -24291,10 +24390,10 @@
         <v>11</v>
       </c>
       <c r="M431" s="12" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="N431" s="14" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O431" s="16"/>
       <c r="P431" s="19" t="s">
@@ -24308,13 +24407,13 @@
         <v>18</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="E432" s="9">
         <v>41038</v>
@@ -24333,10 +24432,10 @@
         <v>11</v>
       </c>
       <c r="M432" s="6" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="N432" s="8" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O432" s="10"/>
       <c r="P432" s="10"/>
@@ -24348,13 +24447,13 @@
         <v>18</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="D433" s="12" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E433" s="15">
         <v>38391</v>
@@ -24373,10 +24472,10 @@
         <v>11</v>
       </c>
       <c r="M433" s="18" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="N433" s="14" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="O433" s="16"/>
       <c r="P433" s="16"/>
@@ -24388,13 +24487,13 @@
         <v>18</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="E434" s="9">
         <v>38931</v>
@@ -24413,10 +24512,10 @@
         <v>11</v>
       </c>
       <c r="M434" s="11" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="N434" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O434" s="10"/>
       <c r="P434" s="10"/>
@@ -24428,13 +24527,13 @@
         <v>18</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="E435" s="15">
         <v>41956</v>
@@ -24461,10 +24560,10 @@
         <v>11</v>
       </c>
       <c r="M435" s="18" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="N435" s="14" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="O435" s="16"/>
       <c r="P435" s="19" t="s">
@@ -24480,13 +24579,13 @@
         <v>18</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="E436" s="9">
         <v>44329</v>
@@ -24510,7 +24609,9 @@
       <c r="L436" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M436" s="6"/>
+      <c r="M436" s="6" t="s">
+        <v>1268</v>
+      </c>
       <c r="N436" s="8" t="s">
         <v>467</v>
       </c>
@@ -24524,13 +24625,13 @@
         <v>18</v>
       </c>
       <c r="B437" s="14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C437" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="C437" s="13" t="s">
-        <v>1258</v>
-      </c>
       <c r="D437" s="18" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="E437" s="15">
         <v>44973</v>
@@ -24554,12 +24655,14 @@
       <c r="L437" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M437" s="12"/>
+      <c r="M437" s="12" t="s">
+        <v>1271</v>
+      </c>
       <c r="N437" s="14" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="O437" s="19" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="P437" s="19" t="s">
         <v>729</v>
@@ -24572,13 +24675,13 @@
         <v>30</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="E438" s="9">
         <v>45573</v>
@@ -24600,9 +24703,11 @@
       <c r="L438" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M438" s="6"/>
+      <c r="M438" s="6" t="s">
+        <v>1275</v>
+      </c>
       <c r="N438" s="8" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="O438" s="10"/>
       <c r="P438" s="10"/>
@@ -24614,13 +24719,13 @@
         <v>18</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="E439" s="15">
         <v>40486</v>
@@ -24645,7 +24750,7 @@
         <v>11</v>
       </c>
       <c r="M439" s="12" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="N439" s="13"/>
       <c r="O439" s="16"/>
@@ -24658,13 +24763,13 @@
         <v>18</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="E440" s="9">
         <v>38391</v>
@@ -24679,7 +24784,7 @@
       </c>
       <c r="L440" s="7"/>
       <c r="M440" s="6" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="N440" s="7"/>
       <c r="O440" s="10"/>
@@ -24692,13 +24797,13 @@
         <v>18</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="E441" s="15">
         <v>38755</v>
@@ -24720,7 +24825,7 @@
         <v>45</v>
       </c>
       <c r="N441" s="14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O441" s="16"/>
       <c r="P441" s="16"/>
@@ -24732,13 +24837,13 @@
         <v>18</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="E442" s="9">
         <v>38391</v>
@@ -24768,13 +24873,13 @@
         <v>18</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E443" s="15">
         <v>38755</v>
@@ -24800,7 +24905,7 @@
         <v>45</v>
       </c>
       <c r="N443" s="14" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="O443" s="16"/>
       <c r="P443" s="16"/>
@@ -24812,13 +24917,13 @@
         <v>18</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E444" s="9">
         <v>40591</v>
@@ -24843,10 +24948,10 @@
         <v>11</v>
       </c>
       <c r="M444" s="6" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="N444" s="8" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="O444" s="10"/>
       <c r="P444" s="10"/>
@@ -24858,13 +24963,13 @@
         <v>18</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="D445" s="12" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E445" s="15">
         <v>40395</v>
@@ -24884,13 +24989,13 @@
         <v>40811</v>
       </c>
       <c r="L445" s="14" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="M445" s="12" t="s">
         <v>47</v>
       </c>
       <c r="N445" s="14" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="O445" s="16"/>
       <c r="P445" s="16"/>
@@ -24902,13 +25007,13 @@
         <v>18</v>
       </c>
       <c r="B446" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D446" s="6" t="s">
         <v>1291</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D446" s="6" t="s">
-        <v>1283</v>
       </c>
       <c r="E446" s="9">
         <v>40948</v>
@@ -24933,10 +25038,10 @@
         <v>11</v>
       </c>
       <c r="M446" s="6" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="N446" s="8" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O446" s="10"/>
       <c r="P446" s="10"/>
@@ -24948,13 +25053,13 @@
         <v>18</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="D447" s="12" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E447" s="15">
         <v>41956</v>
@@ -24979,10 +25084,10 @@
         <v>11</v>
       </c>
       <c r="M447" s="12" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="N447" s="14" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O447" s="16"/>
       <c r="P447" s="16"/>
@@ -24994,13 +25099,13 @@
         <v>18</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E448" s="9">
         <v>40591</v>
@@ -25022,10 +25127,10 @@
         <v>41602</v>
       </c>
       <c r="L448" s="8" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="M448" s="6" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="N448" s="8" t="s">
         <v>48</v>
@@ -25040,13 +25145,13 @@
         <v>18</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D449" s="12" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E449" s="15">
         <v>41865</v>
@@ -25071,28 +25176,28 @@
         <v>11</v>
       </c>
       <c r="M449" s="18" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="N449" s="14" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="O449" s="16"/>
       <c r="P449" s="16"/>
       <c r="Q449" s="13"/>
       <c r="R449" s="13"/>
     </row>
-    <row r="450" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="450" s="1" customFormat="1" ht="41.0641" customHeight="1">
       <c r="A450" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E450" s="9">
         <v>42177</v>
@@ -25114,10 +25219,10 @@
         <v>42551</v>
       </c>
       <c r="L450" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="M450" s="6" t="s">
-        <v>1305</v>
+        <v>1312</v>
+      </c>
+      <c r="M450" s="11" t="s">
+        <v>1313</v>
       </c>
       <c r="N450" s="8" t="s">
         <v>13</v>
@@ -25132,13 +25237,13 @@
         <v>18</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D451" s="12" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E451" s="15">
         <v>41956</v>
@@ -25161,10 +25266,10 @@
         <v>11</v>
       </c>
       <c r="M451" s="18" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="N451" s="14" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O451" s="16"/>
       <c r="P451" s="16"/>
@@ -25176,13 +25281,13 @@
         <v>18</v>
       </c>
       <c r="B452" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D452" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D452" s="6" t="s">
-        <v>1300</v>
       </c>
       <c r="E452" s="9">
         <v>42177</v>
@@ -25206,9 +25311,11 @@
       <c r="L452" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M452" s="6"/>
+      <c r="M452" s="6" t="s">
+        <v>1317</v>
+      </c>
       <c r="N452" s="8" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O452" s="10"/>
       <c r="P452" s="10"/>
@@ -25220,13 +25327,13 @@
         <v>18</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>1309</v>
+        <v>1318</v>
       </c>
       <c r="C453" s="13" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D453" s="12" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E453" s="15">
         <v>42131</v>
@@ -25250,11 +25357,11 @@
       <c r="L453" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M453" s="12" t="s">
-        <v>1310</v>
+      <c r="M453" s="18" t="s">
+        <v>1319</v>
       </c>
       <c r="N453" s="14" t="s">
-        <v>1311</v>
+        <v>1320</v>
       </c>
       <c r="O453" s="16"/>
       <c r="P453" s="16"/>
@@ -25266,13 +25373,13 @@
         <v>18</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>1312</v>
+        <v>1321</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E454" s="9">
         <v>42177</v>
@@ -25296,9 +25403,11 @@
       <c r="L454" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M454" s="6"/>
+      <c r="M454" s="6" t="s">
+        <v>1322</v>
+      </c>
       <c r="N454" s="8" t="s">
-        <v>1311</v>
+        <v>1320</v>
       </c>
       <c r="O454" s="10"/>
       <c r="P454" s="17" t="s">
@@ -25312,13 +25421,13 @@
         <v>30</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>1313</v>
+        <v>1323</v>
       </c>
       <c r="C455" s="13" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D455" s="12" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E455" s="15">
         <v>43594</v>
@@ -25340,7 +25449,9 @@
       <c r="L455" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M455" s="12"/>
+      <c r="M455" s="12" t="s">
+        <v>1324</v>
+      </c>
       <c r="N455" s="14" t="s">
         <v>705</v>
       </c>
@@ -25356,13 +25467,13 @@
         <v>18</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="E456" s="9">
         <v>39750</v>
@@ -25400,13 +25511,13 @@
         <v>18</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
       <c r="C457" s="13" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="D457" s="12" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="E457" s="15">
         <v>41956</v>
@@ -25446,13 +25557,13 @@
         <v>18</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="D458" s="11" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="E458" s="9">
         <v>38391</v>
@@ -25467,7 +25578,7 @@
       </c>
       <c r="L458" s="7"/>
       <c r="M458" s="6" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="N458" s="7"/>
       <c r="O458" s="10"/>
@@ -25480,13 +25591,13 @@
         <v>18</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
       <c r="C459" s="13" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="E459" s="15">
         <v>38755</v>
@@ -25522,13 +25633,13 @@
         <v>18</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="E460" s="9">
         <v>41038</v>
@@ -25553,7 +25664,7 @@
         <v>11</v>
       </c>
       <c r="M460" s="6" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="N460" s="8" t="s">
         <v>639</v>
@@ -25570,13 +25681,13 @@
         <v>18</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="D461" s="12" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="E461" s="15">
         <v>40591</v>
@@ -25599,7 +25710,7 @@
       </c>
       <c r="L461" s="13"/>
       <c r="M461" s="12" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="N461" s="13"/>
       <c r="O461" s="16"/>
@@ -25612,13 +25723,13 @@
         <v>18</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="E462" s="9">
         <v>40122</v>
@@ -25641,7 +25752,7 @@
       </c>
       <c r="L462" s="7"/>
       <c r="M462" s="6" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="N462" s="7"/>
       <c r="O462" s="10"/>
@@ -25654,13 +25765,13 @@
         <v>18</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="E463" s="15">
         <v>41220</v>
@@ -25685,10 +25796,10 @@
         <v>11</v>
       </c>
       <c r="M463" s="12" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="N463" s="14" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="O463" s="16"/>
       <c r="P463" s="16"/>
@@ -25700,13 +25811,13 @@
         <v>18</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="E464" s="9">
         <v>41956</v>
@@ -25731,10 +25842,10 @@
         <v>11</v>
       </c>
       <c r="M464" s="6" t="s">
-        <v>1335</v>
+        <v>1249</v>
       </c>
       <c r="N464" s="8" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O464" s="10"/>
       <c r="P464" s="10"/>
@@ -25746,13 +25857,13 @@
         <v>18</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>1336</v>
+        <v>1346</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="D465" s="12" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="E465" s="15">
         <v>41956</v>
@@ -25775,7 +25886,7 @@
         <v>11</v>
       </c>
       <c r="M465" s="12" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
       <c r="N465" s="14" t="s">
         <v>187</v>
@@ -25790,13 +25901,13 @@
         <v>18</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="E466" s="9">
         <v>41585</v>
@@ -25815,10 +25926,10 @@
         <v>11</v>
       </c>
       <c r="M466" s="6" t="s">
-        <v>1341</v>
+        <v>1351</v>
       </c>
       <c r="N466" s="8" t="s">
-        <v>1342</v>
+        <v>1352</v>
       </c>
       <c r="O466" s="10"/>
       <c r="P466" s="10"/>
@@ -25830,13 +25941,13 @@
         <v>18</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="D467" s="12" t="s">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="E467" s="15">
         <v>41956</v>
@@ -25855,10 +25966,10 @@
         <v>11</v>
       </c>
       <c r="M467" s="18" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="N467" s="14" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O467" s="16"/>
       <c r="P467" s="16"/>
@@ -25870,13 +25981,13 @@
         <v>18</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="E468" s="9">
         <v>41956</v>
@@ -25899,10 +26010,10 @@
         <v>11</v>
       </c>
       <c r="M468" s="11" t="s">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="N468" s="8" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O468" s="10"/>
       <c r="P468" s="10"/>
@@ -25914,13 +26025,13 @@
         <v>18</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>1346</v>
+        <v>1356</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>1347</v>
+        <v>1357</v>
       </c>
       <c r="D469" s="12" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="E469" s="15">
         <v>41956</v>
@@ -25939,10 +26050,10 @@
         <v>11</v>
       </c>
       <c r="M469" s="12" t="s">
-        <v>1349</v>
+        <v>1359</v>
       </c>
       <c r="N469" s="14" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O469" s="16"/>
       <c r="P469" s="16"/>
@@ -25954,13 +26065,13 @@
         <v>18</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>1350</v>
+        <v>1360</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="E470" s="9">
         <v>42131</v>
@@ -25981,10 +26092,10 @@
         <v>11</v>
       </c>
       <c r="M470" s="6" t="s">
-        <v>1352</v>
+        <v>1362</v>
       </c>
       <c r="N470" s="8" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O470" s="10"/>
       <c r="P470" s="10"/>
@@ -25996,13 +26107,13 @@
         <v>30</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>1353</v>
+        <v>1363</v>
       </c>
       <c r="C471" s="13" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="D471" s="12" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="E471" s="15">
         <v>42313</v>
@@ -26026,11 +26137,11 @@
       <c r="L471" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M471" s="12" t="s">
-        <v>1354</v>
+      <c r="M471" s="18" t="s">
+        <v>1364</v>
       </c>
       <c r="N471" s="14" t="s">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="O471" s="16"/>
       <c r="P471" s="19" t="s">
@@ -26038,7 +26149,7 @@
       </c>
       <c r="Q471" s="13"/>
       <c r="R471" s="14" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="472" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -26046,13 +26157,13 @@
         <v>18</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>1356</v>
+        <v>1366</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="E472" s="9">
         <v>38391</v>
@@ -26082,13 +26193,13 @@
         <v>18</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
       <c r="C473" s="13" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D473" s="12" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="E473" s="15">
         <v>40486</v>
@@ -26128,13 +26239,13 @@
         <v>18</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>1362</v>
+        <v>1372</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="E474" s="9">
         <v>41956</v>
@@ -26159,10 +26270,10 @@
         <v>11</v>
       </c>
       <c r="M474" s="6" t="s">
-        <v>1363</v>
+        <v>1373</v>
       </c>
       <c r="N474" s="8" t="s">
-        <v>1364</v>
+        <v>1374</v>
       </c>
       <c r="O474" s="10"/>
       <c r="P474" s="10"/>
@@ -26174,13 +26285,13 @@
         <v>18</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>1365</v>
+        <v>1375</v>
       </c>
       <c r="C475" s="13" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D475" s="12" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="E475" s="15">
         <v>42957</v>
@@ -26204,8 +26315,8 @@
       <c r="L475" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M475" s="12" t="s">
-        <v>1366</v>
+      <c r="M475" s="18" t="s">
+        <v>1376</v>
       </c>
       <c r="N475" s="14" t="s">
         <v>68</v>
@@ -26222,13 +26333,13 @@
         <v>18</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>1367</v>
+        <v>1377</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="E476" s="9">
         <v>43867</v>
@@ -26246,7 +26357,9 @@
       <c r="L476" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M476" s="6"/>
+      <c r="M476" s="6" t="s">
+        <v>658</v>
+      </c>
       <c r="N476" s="8" t="s">
         <v>659</v>
       </c>
@@ -26260,13 +26373,13 @@
         <v>30</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>1368</v>
+        <v>1378</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D477" s="12" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="E477" s="15">
         <v>44063</v>
@@ -26288,7 +26401,9 @@
       <c r="L477" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M477" s="12"/>
+      <c r="M477" s="12" t="s">
+        <v>1379</v>
+      </c>
       <c r="N477" s="14" t="s">
         <v>68</v>
       </c>
@@ -26304,13 +26419,13 @@
         <v>18</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="E478" s="9">
         <v>40948</v>
@@ -26338,7 +26453,7 @@
       </c>
       <c r="M478" s="6"/>
       <c r="N478" s="8" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="O478" s="10"/>
       <c r="P478" s="10"/>
@@ -26350,13 +26465,13 @@
         <v>30</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>1373</v>
+        <v>1384</v>
       </c>
       <c r="E479" s="15">
         <v>43785</v>
@@ -26381,10 +26496,10 @@
         <v>11</v>
       </c>
       <c r="M479" s="12" t="s">
-        <v>1374</v>
+        <v>1385</v>
       </c>
       <c r="N479" s="14" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="O479" s="16"/>
       <c r="P479" s="16"/>
@@ -26396,13 +26511,13 @@
         <v>18</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>1375</v>
+        <v>1386</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="E480" s="9">
         <v>40850</v>
@@ -26427,10 +26542,10 @@
         <v>11</v>
       </c>
       <c r="M480" s="6" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="N480" s="8" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="O480" s="10"/>
       <c r="P480" s="10"/>
@@ -26442,13 +26557,13 @@
         <v>18</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="C481" s="13" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="E481" s="15">
         <v>42957</v>
@@ -26470,13 +26585,13 @@
         <v>44651</v>
       </c>
       <c r="L481" s="13" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="M481" s="12" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="N481" s="14" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="O481" s="16"/>
       <c r="P481" s="19" t="s">
@@ -26490,13 +26605,13 @@
         <v>30</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>1383</v>
+        <v>1394</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="D482" s="11" t="s">
-        <v>1384</v>
+        <v>1395</v>
       </c>
       <c r="E482" s="9">
         <v>44504</v>
@@ -26518,9 +26633,11 @@
       <c r="L482" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M482" s="6"/>
+      <c r="M482" s="6" t="s">
+        <v>1396</v>
+      </c>
       <c r="N482" s="8" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="O482" s="10"/>
       <c r="P482" s="17" t="s">
@@ -26534,13 +26651,13 @@
         <v>18</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="C483" s="13" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="D483" s="12" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="E483" s="15">
         <v>41220</v>
@@ -26559,10 +26676,10 @@
         <v>11</v>
       </c>
       <c r="M483" s="18" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="N483" s="14" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="O483" s="16"/>
       <c r="P483" s="16"/>
@@ -26574,13 +26691,13 @@
         <v>18</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="E484" s="9">
         <v>38391</v>
@@ -26620,13 +26737,13 @@
         <v>30</v>
       </c>
       <c r="B485" s="14" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="D485" s="12" t="s">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="E485" s="15">
         <v>38391</v>
@@ -26654,7 +26771,7 @@
         <v>45</v>
       </c>
       <c r="N485" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O485" s="16"/>
       <c r="P485" s="19" t="s">
@@ -26668,13 +26785,13 @@
         <v>18</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="E486" s="9">
         <v>38391</v>
@@ -26702,7 +26819,7 @@
         <v>45</v>
       </c>
       <c r="N486" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O486" s="10"/>
       <c r="P486" s="10"/>
@@ -26714,13 +26831,13 @@
         <v>18</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="C487" s="13" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
       <c r="D487" s="12" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="E487" s="15">
         <v>38391</v>
@@ -26748,7 +26865,7 @@
         <v>45</v>
       </c>
       <c r="N487" s="14" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O487" s="16"/>
       <c r="P487" s="16"/>
@@ -26760,13 +26877,13 @@
         <v>18</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="E488" s="9">
         <v>41956</v>
@@ -26791,10 +26908,10 @@
         <v>11</v>
       </c>
       <c r="M488" s="6" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="N488" s="8" t="s">
-        <v>1364</v>
+        <v>1374</v>
       </c>
       <c r="O488" s="10"/>
       <c r="P488" s="10"/>
@@ -26806,13 +26923,13 @@
         <v>30</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="C489" s="13" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="D489" s="12" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="E489" s="15">
         <v>42131</v>
@@ -26835,10 +26952,10 @@
         <v>11</v>
       </c>
       <c r="M489" s="12" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="N489" s="14" t="s">
-        <v>1311</v>
+        <v>1320</v>
       </c>
       <c r="O489" s="16"/>
       <c r="P489" s="19" t="s">
@@ -26852,13 +26969,13 @@
         <v>30</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="E490" s="9">
         <v>38391</v>
@@ -26886,7 +27003,7 @@
         <v>45</v>
       </c>
       <c r="N490" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O490" s="10"/>
       <c r="P490" s="17" t="s">
@@ -26900,13 +27017,13 @@
         <v>18</v>
       </c>
       <c r="B491" s="14" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="D491" s="18" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="E491" s="15">
         <v>38391</v>
@@ -26928,7 +27045,7 @@
         <v>45</v>
       </c>
       <c r="N491" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O491" s="16"/>
       <c r="P491" s="16"/>
@@ -26940,13 +27057,13 @@
         <v>18</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="E492" s="9">
         <v>41956</v>
@@ -26982,13 +27099,13 @@
         <v>30</v>
       </c>
       <c r="B493" s="14" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="C493" s="13" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
       <c r="D493" s="12" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="E493" s="15">
         <v>42495</v>
@@ -27010,9 +27127,11 @@
       <c r="L493" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M493" s="12"/>
+      <c r="M493" s="12" t="s">
+        <v>1430</v>
+      </c>
       <c r="N493" s="14" t="s">
-        <v>1418</v>
+        <v>1431</v>
       </c>
       <c r="O493" s="16"/>
       <c r="P493" s="19" t="s">
@@ -27026,13 +27145,13 @@
         <v>18</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
       <c r="E494" s="9">
         <v>38391</v>
@@ -27054,7 +27173,7 @@
         <v>45</v>
       </c>
       <c r="N494" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O494" s="10"/>
       <c r="P494" s="10"/>
@@ -27066,13 +27185,13 @@
         <v>18</v>
       </c>
       <c r="B495" s="14" t="s">
-        <v>1422</v>
+        <v>1435</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1423</v>
+        <v>1436</v>
       </c>
       <c r="D495" s="12" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="E495" s="15">
         <v>41956</v>
@@ -27108,13 +27227,13 @@
         <v>18</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>1427</v>
+        <v>1440</v>
       </c>
       <c r="E496" s="9">
         <v>38391</v>
@@ -27136,7 +27255,7 @@
         <v>45</v>
       </c>
       <c r="N496" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O496" s="10"/>
       <c r="P496" s="10"/>
@@ -27148,13 +27267,13 @@
         <v>18</v>
       </c>
       <c r="B497" s="14" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
       <c r="C497" s="13" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
       <c r="D497" s="18" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="E497" s="15">
         <v>41956</v>
@@ -27190,13 +27309,13 @@
         <v>18</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1431</v>
+        <v>1444</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="E498" s="9">
         <v>38391</v>
@@ -27224,7 +27343,7 @@
         <v>45</v>
       </c>
       <c r="N498" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O498" s="10"/>
       <c r="P498" s="10"/>
@@ -27236,13 +27355,13 @@
         <v>18</v>
       </c>
       <c r="B499" s="14" t="s">
-        <v>1433</v>
+        <v>1446</v>
       </c>
       <c r="C499" s="13" t="s">
-        <v>1434</v>
+        <v>1447</v>
       </c>
       <c r="D499" s="18" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="E499" s="15">
         <v>41956</v>
@@ -27284,13 +27403,13 @@
         <v>18</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
       <c r="D500" s="11" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="E500" s="9">
         <v>38391</v>
@@ -27326,13 +27445,13 @@
         <v>18</v>
       </c>
       <c r="B501" s="14" t="s">
-        <v>1437</v>
+        <v>1450</v>
       </c>
       <c r="C501" s="13" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
       <c r="D501" s="18" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="E501" s="15">
         <v>39750</v>
@@ -27360,7 +27479,7 @@
         <v>24</v>
       </c>
       <c r="N501" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O501" s="16"/>
       <c r="P501" s="16"/>
@@ -27372,13 +27491,13 @@
         <v>18</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>1438</v>
+        <v>1451</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1439</v>
+        <v>1452</v>
       </c>
       <c r="D502" s="11" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="E502" s="9">
         <v>41956</v>
@@ -27420,13 +27539,13 @@
         <v>18</v>
       </c>
       <c r="B503" s="14" t="s">
-        <v>1440</v>
+        <v>1453</v>
       </c>
       <c r="C503" s="13" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
       <c r="D503" s="18" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="E503" s="15">
         <v>38391</v>
@@ -27454,7 +27573,7 @@
         <v>45</v>
       </c>
       <c r="N503" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O503" s="16"/>
       <c r="P503" s="16"/>
@@ -27466,13 +27585,13 @@
         <v>30</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1442</v>
+        <v>1455</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1443</v>
+        <v>1456</v>
       </c>
       <c r="D504" s="11" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="E504" s="9">
         <v>41956</v>
@@ -27514,13 +27633,13 @@
         <v>18</v>
       </c>
       <c r="B505" s="14" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="C505" s="13" t="s">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="D505" s="12" t="s">
-        <v>1446</v>
+        <v>1459</v>
       </c>
       <c r="E505" s="15">
         <v>38931</v>
@@ -27548,7 +27667,7 @@
         <v>260</v>
       </c>
       <c r="N505" s="14" t="s">
-        <v>1447</v>
+        <v>1460</v>
       </c>
       <c r="O505" s="16"/>
       <c r="P505" s="19" t="s">
@@ -27562,13 +27681,13 @@
         <v>18</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
       <c r="E506" s="9">
         <v>41312</v>
@@ -27593,28 +27712,28 @@
         <v>11</v>
       </c>
       <c r="M506" s="11" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
       <c r="N506" s="8" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O506" s="10"/>
       <c r="P506" s="10"/>
       <c r="Q506" s="7"/>
       <c r="R506" s="7"/>
     </row>
-    <row r="507" s="1" customFormat="1" ht="52.2634" customHeight="1">
+    <row r="507" s="1" customFormat="1" ht="62.9294" customHeight="1">
       <c r="A507" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B507" s="14" t="s">
-        <v>1452</v>
+        <v>1465</v>
       </c>
       <c r="C507" s="13" t="s">
-        <v>1453</v>
+        <v>1466</v>
       </c>
       <c r="D507" s="12" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
       <c r="E507" s="15">
         <v>42047</v>
@@ -27636,11 +27755,11 @@
       <c r="L507" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M507" s="12" t="s">
-        <v>1454</v>
+      <c r="M507" s="18" t="s">
+        <v>1467</v>
       </c>
       <c r="N507" s="14" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O507" s="16"/>
       <c r="P507" s="19" t="s">
@@ -27648,7 +27767,7 @@
       </c>
       <c r="Q507" s="13"/>
       <c r="R507" s="14" t="s">
-        <v>1455</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="508" s="1" customFormat="1" ht="84.2614" customHeight="1">
@@ -27656,13 +27775,13 @@
         <v>18</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1456</v>
+        <v>1469</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
       <c r="D508" s="11" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="E508" s="9">
         <v>38755</v>
@@ -27682,7 +27801,7 @@
         <v>45</v>
       </c>
       <c r="N508" s="8" t="s">
-        <v>1447</v>
+        <v>1460</v>
       </c>
       <c r="O508" s="10"/>
       <c r="P508" s="10"/>
@@ -27694,13 +27813,13 @@
         <v>18</v>
       </c>
       <c r="B509" s="14" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
       <c r="C509" s="13" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
       <c r="D509" s="18" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="E509" s="15">
         <v>41956</v>
@@ -27732,13 +27851,13 @@
         <v>18</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
       <c r="D510" s="6" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
       <c r="E510" s="9">
         <v>38755</v>
@@ -27764,7 +27883,7 @@
         <v>45</v>
       </c>
       <c r="N510" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O510" s="10"/>
       <c r="P510" s="10"/>
@@ -27776,13 +27895,13 @@
         <v>18</v>
       </c>
       <c r="B511" s="14" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
       <c r="C511" s="13" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
       <c r="D511" s="12" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
       <c r="E511" s="15">
         <v>41956</v>
@@ -27814,13 +27933,13 @@
         <v>18</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1464</v>
+        <v>1477</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1465</v>
+        <v>1478</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>1466</v>
+        <v>1479</v>
       </c>
       <c r="E512" s="9">
         <v>38755</v>
@@ -27846,7 +27965,7 @@
         <v>45</v>
       </c>
       <c r="N512" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O512" s="10"/>
       <c r="P512" s="10"/>
@@ -27858,13 +27977,13 @@
         <v>18</v>
       </c>
       <c r="B513" s="14" t="s">
-        <v>1467</v>
+        <v>1480</v>
       </c>
       <c r="C513" s="13" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="D513" s="18" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="E513" s="15">
         <v>39490</v>
@@ -27889,10 +28008,10 @@
         <v>11</v>
       </c>
       <c r="M513" s="12" t="s">
-        <v>1470</v>
+        <v>1483</v>
       </c>
       <c r="N513" s="14" t="s">
-        <v>1471</v>
+        <v>1484</v>
       </c>
       <c r="O513" s="16"/>
       <c r="P513" s="16"/>
@@ -27904,13 +28023,13 @@
         <v>18</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1472</v>
+        <v>1485</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="D514" s="11" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="E514" s="9">
         <v>40612</v>
@@ -27935,10 +28054,10 @@
         <v>11</v>
       </c>
       <c r="M514" s="6" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
       <c r="N514" s="8" t="s">
-        <v>1474</v>
+        <v>1487</v>
       </c>
       <c r="O514" s="10"/>
       <c r="P514" s="10"/>
@@ -27950,13 +28069,13 @@
         <v>18</v>
       </c>
       <c r="B515" s="14" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="C515" s="13" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="D515" s="18" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="E515" s="15">
         <v>41585</v>
@@ -27981,10 +28100,10 @@
         <v>11</v>
       </c>
       <c r="M515" s="12" t="s">
-        <v>1476</v>
+        <v>1489</v>
       </c>
       <c r="N515" s="14" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="O515" s="16"/>
       <c r="P515" s="16"/>
@@ -27996,13 +28115,13 @@
         <v>18</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1478</v>
+        <v>1491</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="D516" s="11" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="E516" s="9">
         <v>41956</v>
@@ -28038,7 +28157,7 @@
       </c>
       <c r="Q516" s="7"/>
       <c r="R516" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="517" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -28046,13 +28165,13 @@
         <v>18</v>
       </c>
       <c r="B517" s="14" t="s">
-        <v>1479</v>
+        <v>1492</v>
       </c>
       <c r="C517" s="13" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="D517" s="18" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="E517" s="15">
         <v>44329</v>
@@ -28077,7 +28196,7 @@
         <v>11</v>
       </c>
       <c r="M517" s="12" t="s">
-        <v>1480</v>
+        <v>1268</v>
       </c>
       <c r="N517" s="14" t="s">
         <v>467</v>
@@ -28092,13 +28211,13 @@
         <v>30</v>
       </c>
       <c r="B518" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C518" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="C518" s="7" t="s">
-        <v>1468</v>
-      </c>
       <c r="D518" s="11" t="s">
-        <v>1482</v>
+        <v>1494</v>
       </c>
       <c r="E518" s="9">
         <v>44973</v>
@@ -28120,14 +28239,14 @@
       <c r="L518" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M518" s="6" t="s">
-        <v>1483</v>
+      <c r="M518" s="11" t="s">
+        <v>1495</v>
       </c>
       <c r="N518" s="8" t="s">
-        <v>1484</v>
+        <v>1496</v>
       </c>
       <c r="O518" s="17" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="P518" s="17" t="s">
         <v>729</v>
@@ -28142,13 +28261,13 @@
         <v>18</v>
       </c>
       <c r="B519" s="14" t="s">
-        <v>1486</v>
+        <v>1498</v>
       </c>
       <c r="C519" s="13" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="D519" s="12" t="s">
-        <v>1488</v>
+        <v>1500</v>
       </c>
       <c r="E519" s="15">
         <v>41403</v>
@@ -28173,10 +28292,10 @@
         <v>11</v>
       </c>
       <c r="M519" s="18" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="N519" s="14" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="O519" s="16"/>
       <c r="P519" s="16"/>
@@ -28188,13 +28307,13 @@
         <v>18</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1490</v>
+        <v>1502</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="D520" s="6" t="s">
-        <v>1488</v>
+        <v>1500</v>
       </c>
       <c r="E520" s="9">
         <v>42047</v>
@@ -28218,11 +28337,11 @@
       <c r="L520" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M520" s="6" t="s">
-        <v>1454</v>
+      <c r="M520" s="11" t="s">
+        <v>1503</v>
       </c>
       <c r="N520" s="8" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O520" s="10"/>
       <c r="P520" s="17" t="s">
@@ -28230,7 +28349,7 @@
       </c>
       <c r="Q520" s="7"/>
       <c r="R520" s="8" t="s">
-        <v>1491</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="521" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -28238,13 +28357,13 @@
         <v>30</v>
       </c>
       <c r="B521" s="14" t="s">
-        <v>1492</v>
+        <v>1505</v>
       </c>
       <c r="C521" s="13" t="s">
-        <v>1493</v>
+        <v>1506</v>
       </c>
       <c r="D521" s="12" t="s">
-        <v>1494</v>
+        <v>1507</v>
       </c>
       <c r="E521" s="15">
         <v>43867</v>
@@ -28268,9 +28387,11 @@
       <c r="L521" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M521" s="12"/>
+      <c r="M521" s="12" t="s">
+        <v>1508</v>
+      </c>
       <c r="N521" s="14" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
       <c r="O521" s="16"/>
       <c r="P521" s="19" t="s">
@@ -28284,13 +28405,13 @@
         <v>140</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="E522" s="9">
         <v>45573</v>
@@ -28313,10 +28434,10 @@
         <v>11</v>
       </c>
       <c r="M522" s="11" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="N522" s="8" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="O522" s="10"/>
       <c r="P522" s="10"/>
@@ -28328,13 +28449,13 @@
         <v>18</v>
       </c>
       <c r="B523" s="14" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="C523" s="13" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="E523" s="15">
         <v>41501</v>
@@ -28359,10 +28480,10 @@
         <v>11</v>
       </c>
       <c r="M523" s="18" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="N523" s="14" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="O523" s="16"/>
       <c r="P523" s="19" t="s">
@@ -28376,13 +28497,13 @@
         <v>30</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="E524" s="9">
         <v>43139</v>
@@ -28407,10 +28528,10 @@
         <v>11</v>
       </c>
       <c r="M524" s="6" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
       <c r="N524" s="8" t="s">
-        <v>1507</v>
+        <v>1521</v>
       </c>
       <c r="O524" s="10"/>
       <c r="P524" s="17" t="s">
@@ -28424,13 +28545,13 @@
         <v>18</v>
       </c>
       <c r="B525" s="14" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="C525" s="13" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="D525" s="12" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="E525" s="15">
         <v>41990</v>
@@ -28457,10 +28578,10 @@
         <v>11</v>
       </c>
       <c r="M525" s="18" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="N525" s="14" t="s">
-        <v>1474</v>
+        <v>1487</v>
       </c>
       <c r="O525" s="16"/>
       <c r="P525" s="19" t="s">
@@ -28474,13 +28595,13 @@
         <v>30</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="E526" s="9">
         <v>44329</v>
@@ -28504,7 +28625,9 @@
       <c r="L526" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M526" s="6"/>
+      <c r="M526" s="6" t="s">
+        <v>1268</v>
+      </c>
       <c r="N526" s="8" t="s">
         <v>467</v>
       </c>
@@ -28520,13 +28643,13 @@
         <v>30</v>
       </c>
       <c r="B527" s="14" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="C527" s="13" t="s">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>1515</v>
+        <v>1529</v>
       </c>
       <c r="E527" s="15">
         <v>42313</v>
@@ -28548,9 +28671,11 @@
       <c r="L527" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M527" s="12"/>
+      <c r="M527" s="12" t="s">
+        <v>1238</v>
+      </c>
       <c r="N527" s="14" t="s">
-        <v>1516</v>
+        <v>1530</v>
       </c>
       <c r="O527" s="16"/>
       <c r="P527" s="19" t="s">
@@ -28564,13 +28689,13 @@
         <v>30</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1517</v>
+        <v>1531</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1518</v>
+        <v>1532</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>1519</v>
+        <v>1533</v>
       </c>
       <c r="E528" s="9">
         <v>45573</v>
@@ -28594,9 +28719,11 @@
       <c r="L528" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M528" s="6"/>
+      <c r="M528" s="6" t="s">
+        <v>1275</v>
+      </c>
       <c r="N528" s="8" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="O528" s="10"/>
       <c r="P528" s="10"/>
@@ -28608,13 +28735,13 @@
         <v>140</v>
       </c>
       <c r="B529" s="14" t="s">
-        <v>1520</v>
+        <v>1534</v>
       </c>
       <c r="C529" s="13" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>1522</v>
+        <v>1536</v>
       </c>
       <c r="E529" s="15">
         <v>45573</v>
@@ -28639,10 +28766,10 @@
         <v>11</v>
       </c>
       <c r="M529" s="18" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="N529" s="14" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="O529" s="16"/>
       <c r="P529" s="16"/>
@@ -28654,13 +28781,13 @@
         <v>140</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1523</v>
+        <v>1537</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1524</v>
+        <v>1538</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>1525</v>
+        <v>1539</v>
       </c>
       <c r="E530" s="9">
         <v>45573</v>
@@ -28685,10 +28812,10 @@
         <v>11</v>
       </c>
       <c r="M530" s="11" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="N530" s="8" t="s">
-        <v>1527</v>
+        <v>1541</v>
       </c>
       <c r="O530" s="10"/>
       <c r="P530" s="10"/>
@@ -28700,13 +28827,13 @@
         <v>18</v>
       </c>
       <c r="B531" s="14" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="C531" s="13" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
       <c r="D531" s="12" t="s">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="E531" s="15">
         <v>39153</v>
@@ -28729,7 +28856,7 @@
       </c>
       <c r="L531" s="13"/>
       <c r="M531" s="12" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N531" s="13"/>
       <c r="O531" s="16"/>
@@ -28742,13 +28869,13 @@
         <v>18</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="D532" s="11" t="s">
-        <v>1533</v>
+        <v>1547</v>
       </c>
       <c r="E532" s="9">
         <v>39153</v>
@@ -28771,7 +28898,7 @@
       </c>
       <c r="L532" s="7"/>
       <c r="M532" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N532" s="7"/>
       <c r="O532" s="10"/>
@@ -28784,13 +28911,13 @@
         <v>18</v>
       </c>
       <c r="B533" s="14" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="C533" s="13" t="s">
-        <v>1535</v>
+        <v>1549</v>
       </c>
       <c r="D533" s="12" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="E533" s="15">
         <v>39153</v>
@@ -28813,7 +28940,7 @@
       </c>
       <c r="L533" s="13"/>
       <c r="M533" s="12" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N533" s="13"/>
       <c r="O533" s="16"/>
@@ -28826,13 +28953,13 @@
         <v>18</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>1537</v>
+        <v>1551</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="E534" s="9">
         <v>38391</v>
@@ -28862,13 +28989,13 @@
         <v>18</v>
       </c>
       <c r="B535" s="14" t="s">
-        <v>1540</v>
+        <v>1554</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="D535" s="12" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="E535" s="15">
         <v>39022</v>
@@ -28904,13 +29031,13 @@
         <v>18</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1541</v>
+        <v>1555</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="E536" s="9">
         <v>40310</v>
@@ -28933,10 +29060,10 @@
       </c>
       <c r="L536" s="7"/>
       <c r="M536" s="6" t="s">
-        <v>1542</v>
+        <v>1556</v>
       </c>
       <c r="N536" s="8" t="s">
-        <v>1543</v>
+        <v>1557</v>
       </c>
       <c r="O536" s="10"/>
       <c r="P536" s="10"/>
@@ -28948,13 +29075,13 @@
         <v>18</v>
       </c>
       <c r="B537" s="14" t="s">
-        <v>1544</v>
+        <v>1558</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D537" s="12" t="s">
-        <v>1546</v>
+        <v>1560</v>
       </c>
       <c r="E537" s="15">
         <v>41038</v>
@@ -28973,10 +29100,10 @@
         <v>11</v>
       </c>
       <c r="M537" s="12" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="N537" s="14" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O537" s="16"/>
       <c r="P537" s="16"/>
@@ -28988,13 +29115,13 @@
         <v>18</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>1547</v>
+        <v>1561</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="E538" s="9">
         <v>42047</v>
@@ -29018,7 +29145,9 @@
       <c r="L538" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M538" s="6"/>
+      <c r="M538" s="6" t="s">
+        <v>857</v>
+      </c>
       <c r="N538" s="8" t="s">
         <v>858</v>
       </c>
@@ -29028,7 +29157,7 @@
       </c>
       <c r="Q538" s="7"/>
       <c r="R538" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="539" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -29036,13 +29165,13 @@
         <v>18</v>
       </c>
       <c r="B539" s="14" t="s">
-        <v>1549</v>
+        <v>1563</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="E539" s="15">
         <v>42775</v>
@@ -29067,7 +29196,7 @@
         <v>11</v>
       </c>
       <c r="M539" s="12" t="s">
-        <v>1550</v>
+        <v>1564</v>
       </c>
       <c r="N539" s="14" t="s">
         <v>878</v>
@@ -29086,13 +29215,13 @@
         <v>18</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="E540" s="9">
         <v>43594</v>
@@ -29116,7 +29245,9 @@
       <c r="L540" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M540" s="6"/>
+      <c r="M540" s="6" t="s">
+        <v>1566</v>
+      </c>
       <c r="N540" s="8" t="s">
         <v>705</v>
       </c>
@@ -29132,13 +29263,13 @@
         <v>30</v>
       </c>
       <c r="B541" s="14" t="s">
-        <v>1552</v>
+        <v>1567</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="E541" s="15">
         <v>44329</v>
@@ -29160,12 +29291,14 @@
       <c r="L541" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M541" s="12"/>
+      <c r="M541" s="12" t="s">
+        <v>1268</v>
+      </c>
       <c r="N541" s="14" t="s">
         <v>467</v>
       </c>
       <c r="O541" s="19" t="s">
-        <v>1553</v>
+        <v>1568</v>
       </c>
       <c r="P541" s="19" t="s">
         <v>729</v>
@@ -29178,13 +29311,13 @@
         <v>18</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>1554</v>
+        <v>1569</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="E542" s="9">
         <v>38391</v>
@@ -29214,13 +29347,13 @@
         <v>18</v>
       </c>
       <c r="B543" s="14" t="s">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D543" s="12" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="E543" s="15">
         <v>38931</v>
@@ -29235,7 +29368,7 @@
       </c>
       <c r="L543" s="13"/>
       <c r="M543" s="12" t="s">
-        <v>1558</v>
+        <v>1573</v>
       </c>
       <c r="N543" s="13"/>
       <c r="O543" s="16"/>
@@ -29248,13 +29381,13 @@
         <v>18</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1559</v>
+        <v>1574</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="E544" s="9">
         <v>39022</v>
@@ -29290,13 +29423,13 @@
         <v>18</v>
       </c>
       <c r="B545" s="14" t="s">
-        <v>1560</v>
+        <v>1575</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D545" s="12" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="E545" s="15">
         <v>41010</v>
@@ -29322,7 +29455,7 @@
         <v>118</v>
       </c>
       <c r="N545" s="14" t="s">
-        <v>1543</v>
+        <v>1557</v>
       </c>
       <c r="O545" s="16"/>
       <c r="P545" s="16"/>
@@ -29334,13 +29467,13 @@
         <v>18</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>1561</v>
+        <v>1576</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D546" s="6" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="E546" s="9">
         <v>39854</v>
@@ -29376,13 +29509,13 @@
         <v>18</v>
       </c>
       <c r="B547" s="14" t="s">
-        <v>1562</v>
+        <v>1577</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D547" s="12" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="E547" s="15">
         <v>40486</v>
@@ -29405,7 +29538,7 @@
       </c>
       <c r="L547" s="13"/>
       <c r="M547" s="12" t="s">
-        <v>1563</v>
+        <v>1578</v>
       </c>
       <c r="N547" s="13"/>
       <c r="O547" s="16"/>
@@ -29418,13 +29551,13 @@
         <v>18</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>1564</v>
+        <v>1579</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>1566</v>
+        <v>1581</v>
       </c>
       <c r="E548" s="9">
         <v>41038</v>
@@ -29443,10 +29576,10 @@
         <v>11</v>
       </c>
       <c r="M548" s="6" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="N548" s="8" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O548" s="10"/>
       <c r="P548" s="10"/>
@@ -29458,13 +29591,13 @@
         <v>18</v>
       </c>
       <c r="B549" s="14" t="s">
-        <v>1567</v>
+        <v>1582</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="D549" s="12" t="s">
-        <v>1568</v>
+        <v>1583</v>
       </c>
       <c r="E549" s="15">
         <v>41956</v>
@@ -29489,13 +29622,13 @@
         <v>11</v>
       </c>
       <c r="M549" s="12" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="N549" s="14" t="s">
         <v>858</v>
       </c>
       <c r="O549" s="19" t="s">
-        <v>1569</v>
+        <v>1584</v>
       </c>
       <c r="P549" s="19" t="s">
         <v>34</v>
@@ -29508,13 +29641,13 @@
         <v>30</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1570</v>
+        <v>1585</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>1568</v>
+        <v>1583</v>
       </c>
       <c r="E550" s="9">
         <v>45222</v>
@@ -29536,7 +29669,9 @@
       <c r="L550" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M550" s="6"/>
+      <c r="M550" s="6" t="s">
+        <v>1586</v>
+      </c>
       <c r="N550" s="8" t="s">
         <v>619</v>
       </c>
@@ -29552,13 +29687,13 @@
         <v>18</v>
       </c>
       <c r="B551" s="14" t="s">
-        <v>1571</v>
+        <v>1587</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1572</v>
+        <v>1588</v>
       </c>
       <c r="D551" s="12" t="s">
-        <v>1573</v>
+        <v>1589</v>
       </c>
       <c r="E551" s="15">
         <v>38391</v>
@@ -29594,13 +29729,13 @@
         <v>18</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1574</v>
+        <v>1590</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1572</v>
+        <v>1588</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>1573</v>
+        <v>1589</v>
       </c>
       <c r="E552" s="9">
         <v>39738</v>
@@ -29640,13 +29775,13 @@
         <v>18</v>
       </c>
       <c r="B553" s="14" t="s">
-        <v>1575</v>
+        <v>1591</v>
       </c>
       <c r="C553" s="13" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="D553" s="12" t="s">
-        <v>1577</v>
+        <v>1593</v>
       </c>
       <c r="E553" s="15">
         <v>41038</v>
@@ -29665,28 +29800,28 @@
         <v>11</v>
       </c>
       <c r="M553" s="12" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="N553" s="14" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O553" s="16"/>
       <c r="P553" s="16"/>
       <c r="Q553" s="13"/>
       <c r="R553" s="13"/>
     </row>
-    <row r="554" s="1" customFormat="1" ht="52.2634" customHeight="1">
+    <row r="554" s="1" customFormat="1" ht="41.0641" customHeight="1">
       <c r="A554" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>1578</v>
+        <v>1594</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>1579</v>
+        <v>1595</v>
       </c>
       <c r="E554" s="9">
         <v>41956</v>
@@ -29712,8 +29847,8 @@
       <c r="L554" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M554" s="6" t="s">
-        <v>1580</v>
+      <c r="M554" s="11" t="s">
+        <v>1596</v>
       </c>
       <c r="N554" s="8" t="s">
         <v>858</v>
@@ -29730,13 +29865,13 @@
         <v>18</v>
       </c>
       <c r="B555" s="14" t="s">
-        <v>1581</v>
+        <v>1597</v>
       </c>
       <c r="C555" s="13" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>1579</v>
+        <v>1595</v>
       </c>
       <c r="E555" s="15">
         <v>43867</v>
@@ -29760,7 +29895,9 @@
       <c r="L555" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M555" s="12"/>
+      <c r="M555" s="12" t="s">
+        <v>1171</v>
+      </c>
       <c r="N555" s="14" t="s">
         <v>659</v>
       </c>
@@ -29776,13 +29913,13 @@
         <v>18</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1582</v>
+        <v>1598</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>1579</v>
+        <v>1595</v>
       </c>
       <c r="E556" s="9">
         <v>44358</v>
@@ -29806,7 +29943,9 @@
       <c r="L556" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M556" s="6"/>
+      <c r="M556" s="6" t="s">
+        <v>982</v>
+      </c>
       <c r="N556" s="8" t="s">
         <v>615</v>
       </c>
@@ -29822,13 +29961,13 @@
         <v>30</v>
       </c>
       <c r="B557" s="14" t="s">
-        <v>1583</v>
+        <v>1599</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1584</v>
+        <v>1600</v>
       </c>
       <c r="D557" s="18" t="s">
-        <v>1585</v>
+        <v>1601</v>
       </c>
       <c r="E557" s="15">
         <v>45161</v>
@@ -29852,9 +29991,11 @@
       <c r="L557" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M557" s="12"/>
+      <c r="M557" s="12" t="s">
+        <v>1602</v>
+      </c>
       <c r="N557" s="14" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="O557" s="16"/>
       <c r="P557" s="19" t="s">
@@ -29868,13 +30009,13 @@
         <v>140</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1587</v>
+        <v>1604</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>1588</v>
+        <v>1605</v>
       </c>
       <c r="E558" s="9">
         <v>45636</v>
@@ -29896,7 +30037,9 @@
       <c r="L558" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M558" s="6"/>
+      <c r="M558" s="6" t="s">
+        <v>1606</v>
+      </c>
       <c r="N558" s="8" t="s">
         <v>145</v>
       </c>
@@ -29910,13 +30053,13 @@
         <v>18</v>
       </c>
       <c r="B559" s="14" t="s">
-        <v>1589</v>
+        <v>1607</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D559" s="12" t="s">
-        <v>1590</v>
+        <v>1608</v>
       </c>
       <c r="E559" s="15">
         <v>38391</v>
@@ -29933,7 +30076,7 @@
       </c>
       <c r="L559" s="13"/>
       <c r="M559" s="18" t="s">
-        <v>1591</v>
+        <v>1609</v>
       </c>
       <c r="N559" s="13"/>
       <c r="O559" s="16"/>
@@ -29946,13 +30089,13 @@
         <v>18</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>1592</v>
+        <v>1610</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>1590</v>
+        <v>1608</v>
       </c>
       <c r="E560" s="9">
         <v>39022</v>
@@ -29988,13 +30131,13 @@
         <v>18</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>1593</v>
+        <v>1611</v>
       </c>
       <c r="C561" s="13" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="D561" s="12" t="s">
-        <v>1590</v>
+        <v>1608</v>
       </c>
       <c r="E561" s="15">
         <v>39022</v>
@@ -30020,7 +30163,7 @@
       </c>
       <c r="M561" s="12"/>
       <c r="N561" s="14" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="O561" s="16"/>
       <c r="P561" s="16"/>
@@ -30032,13 +30175,13 @@
         <v>18</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>1594</v>
+        <v>1612</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E562" s="9">
         <v>38391</v>
@@ -30053,7 +30196,7 @@
       </c>
       <c r="L562" s="7"/>
       <c r="M562" s="6" t="s">
-        <v>1597</v>
+        <v>1615</v>
       </c>
       <c r="N562" s="7"/>
       <c r="O562" s="10"/>
@@ -30066,13 +30209,13 @@
         <v>18</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>1598</v>
+        <v>1616</v>
       </c>
       <c r="C563" s="13" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D563" s="12" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E563" s="15">
         <v>38755</v>
@@ -30108,13 +30251,13 @@
         <v>18</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>1599</v>
+        <v>1617</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E564" s="9">
         <v>39750</v>
@@ -30150,13 +30293,13 @@
         <v>18</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>1600</v>
+        <v>1618</v>
       </c>
       <c r="C565" s="13" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D565" s="12" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E565" s="15">
         <v>40122</v>
@@ -30192,13 +30335,13 @@
         <v>18</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1601</v>
+        <v>1619</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E566" s="9">
         <v>39738</v>
@@ -30232,13 +30375,13 @@
         <v>18</v>
       </c>
       <c r="B567" s="14" t="s">
-        <v>1602</v>
+        <v>1620</v>
       </c>
       <c r="C567" s="13" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D567" s="12" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E567" s="15">
         <v>39738</v>
@@ -30278,13 +30421,13 @@
         <v>18</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1603</v>
+        <v>1621</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="E568" s="9">
         <v>41956</v>
@@ -30316,13 +30459,13 @@
         <v>18</v>
       </c>
       <c r="B569" s="14" t="s">
-        <v>1604</v>
+        <v>1622</v>
       </c>
       <c r="C569" s="13" t="s">
-        <v>1605</v>
+        <v>1623</v>
       </c>
       <c r="D569" s="12" t="s">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="E569" s="15">
         <v>38391</v>
@@ -30341,7 +30484,7 @@
         <v>11</v>
       </c>
       <c r="M569" s="18" t="s">
-        <v>1607</v>
+        <v>1625</v>
       </c>
       <c r="N569" s="13"/>
       <c r="O569" s="16"/>
@@ -30354,13 +30497,13 @@
         <v>18</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1608</v>
+        <v>1626</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1605</v>
+        <v>1623</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="E570" s="9">
         <v>39022</v>
@@ -30388,7 +30531,7 @@
         <v>479</v>
       </c>
       <c r="N570" s="8" t="s">
-        <v>1609</v>
+        <v>1627</v>
       </c>
       <c r="O570" s="10"/>
       <c r="P570" s="10"/>
@@ -30400,13 +30543,13 @@
         <v>18</v>
       </c>
       <c r="B571" s="14" t="s">
-        <v>1610</v>
+        <v>1628</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1605</v>
+        <v>1623</v>
       </c>
       <c r="D571" s="12" t="s">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="E571" s="15">
         <v>39738</v>
@@ -30428,7 +30571,7 @@
         <v>42825</v>
       </c>
       <c r="L571" s="14" t="s">
-        <v>1611</v>
+        <v>1629</v>
       </c>
       <c r="M571" s="12" t="s">
         <v>568</v>
@@ -30446,13 +30589,13 @@
         <v>18</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1612</v>
+        <v>1630</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1605</v>
+        <v>1623</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="E572" s="9">
         <v>41220</v>
@@ -30471,10 +30614,10 @@
         <v>11</v>
       </c>
       <c r="M572" s="6" t="s">
-        <v>1613</v>
+        <v>1631</v>
       </c>
       <c r="N572" s="8" t="s">
-        <v>1614</v>
+        <v>1632</v>
       </c>
       <c r="O572" s="10"/>
       <c r="P572" s="10"/>
@@ -30486,13 +30629,13 @@
         <v>18</v>
       </c>
       <c r="B573" s="14" t="s">
-        <v>1615</v>
+        <v>1633</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1616</v>
+        <v>1634</v>
       </c>
       <c r="D573" s="12" t="s">
-        <v>1617</v>
+        <v>1635</v>
       </c>
       <c r="E573" s="15">
         <v>38391</v>
@@ -30514,13 +30657,13 @@
         <v>42825</v>
       </c>
       <c r="L573" s="14" t="s">
-        <v>1611</v>
+        <v>1629</v>
       </c>
       <c r="M573" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N573" s="14" t="s">
-        <v>1618</v>
+        <v>1636</v>
       </c>
       <c r="O573" s="16"/>
       <c r="P573" s="16"/>
@@ -30532,13 +30675,13 @@
         <v>18</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>1619</v>
+        <v>1637</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1620</v>
+        <v>1638</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>1621</v>
+        <v>1639</v>
       </c>
       <c r="E574" s="9">
         <v>39750</v>
@@ -30561,7 +30704,7 @@
       </c>
       <c r="L574" s="7"/>
       <c r="M574" s="6" t="s">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="N574" s="7"/>
       <c r="O574" s="10"/>
@@ -30574,13 +30717,13 @@
         <v>18</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>1623</v>
+        <v>1641</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1620</v>
+        <v>1638</v>
       </c>
       <c r="D575" s="12" t="s">
-        <v>1621</v>
+        <v>1639</v>
       </c>
       <c r="E575" s="15">
         <v>41676</v>
@@ -30603,7 +30746,7 @@
       </c>
       <c r="L575" s="13"/>
       <c r="M575" s="12" t="s">
-        <v>1624</v>
+        <v>1642</v>
       </c>
       <c r="N575" s="14" t="s">
         <v>68</v>
@@ -30618,13 +30761,13 @@
         <v>18</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>1625</v>
+        <v>1643</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>1626</v>
+        <v>1644</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>1627</v>
+        <v>1645</v>
       </c>
       <c r="E576" s="9">
         <v>38391</v>
@@ -30644,7 +30787,7 @@
         <v>45</v>
       </c>
       <c r="N576" s="8" t="s">
-        <v>1628</v>
+        <v>1646</v>
       </c>
       <c r="O576" s="10"/>
       <c r="P576" s="10"/>
@@ -30656,13 +30799,13 @@
         <v>18</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>1629</v>
+        <v>1647</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1626</v>
+        <v>1644</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>1627</v>
+        <v>1645</v>
       </c>
       <c r="E577" s="15">
         <v>39022</v>
@@ -30698,13 +30841,13 @@
         <v>18</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>1630</v>
+        <v>1648</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>1631</v>
+        <v>1649</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E578" s="9">
         <v>42495</v>
@@ -30726,11 +30869,11 @@
       <c r="L578" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M578" s="6" t="s">
-        <v>1632</v>
+      <c r="M578" s="11" t="s">
+        <v>1650</v>
       </c>
       <c r="N578" s="8" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O578" s="10"/>
       <c r="P578" s="17" t="s">
@@ -30744,13 +30887,13 @@
         <v>30</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>1633</v>
+        <v>1651</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1631</v>
+        <v>1649</v>
       </c>
       <c r="D579" s="12" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E579" s="15">
         <v>42676</v>
@@ -30773,10 +30916,10 @@
         <v>11</v>
       </c>
       <c r="M579" s="12" t="s">
-        <v>1634</v>
+        <v>1652</v>
       </c>
       <c r="N579" s="14" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O579" s="16"/>
       <c r="P579" s="19" t="s">
@@ -30784,7 +30927,7 @@
       </c>
       <c r="Q579" s="13"/>
       <c r="R579" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="580" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -30792,13 +30935,13 @@
         <v>18</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>1635</v>
+        <v>1653</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1636</v>
+        <v>1654</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>1637</v>
+        <v>1655</v>
       </c>
       <c r="E580" s="9">
         <v>39153</v>
@@ -30821,7 +30964,7 @@
       </c>
       <c r="L580" s="7"/>
       <c r="M580" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N580" s="7"/>
       <c r="O580" s="10"/>
@@ -30834,13 +30977,13 @@
         <v>18</v>
       </c>
       <c r="B581" s="14" t="s">
-        <v>1638</v>
+        <v>1656</v>
       </c>
       <c r="C581" s="13" t="s">
-        <v>1639</v>
+        <v>1657</v>
       </c>
       <c r="D581" s="18" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E581" s="15">
         <v>38391</v>
@@ -30876,13 +31019,13 @@
         <v>18</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>1641</v>
+        <v>1659</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1639</v>
+        <v>1657</v>
       </c>
       <c r="D582" s="11" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E582" s="9">
         <v>39750</v>
@@ -30908,7 +31051,7 @@
         <v>24</v>
       </c>
       <c r="N582" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O582" s="10"/>
       <c r="P582" s="10"/>
@@ -30920,13 +31063,13 @@
         <v>18</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>1642</v>
+        <v>1660</v>
       </c>
       <c r="C583" s="13" t="s">
-        <v>1639</v>
+        <v>1657</v>
       </c>
       <c r="D583" s="18" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E583" s="15">
         <v>41956</v>
@@ -30964,13 +31107,13 @@
         <v>18</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>1643</v>
+        <v>1661</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>1639</v>
+        <v>1657</v>
       </c>
       <c r="D584" s="11" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E584" s="9">
         <v>40591</v>
@@ -30991,7 +31134,7 @@
       </c>
       <c r="L584" s="7"/>
       <c r="M584" s="6" t="s">
-        <v>1644</v>
+        <v>1662</v>
       </c>
       <c r="N584" s="7"/>
       <c r="O584" s="10"/>
@@ -31004,13 +31147,13 @@
         <v>18</v>
       </c>
       <c r="B585" s="14" t="s">
-        <v>1645</v>
+        <v>1663</v>
       </c>
       <c r="C585" s="13" t="s">
-        <v>1646</v>
+        <v>1664</v>
       </c>
       <c r="D585" s="12" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="E585" s="15">
         <v>40759</v>
@@ -31026,10 +31169,10 @@
         <v>41631</v>
       </c>
       <c r="L585" s="14" t="s">
-        <v>1611</v>
+        <v>1629</v>
       </c>
       <c r="M585" s="12" t="s">
-        <v>1648</v>
+        <v>1666</v>
       </c>
       <c r="N585" s="14" t="s">
         <v>13</v>
@@ -31044,13 +31187,13 @@
         <v>18</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>1649</v>
+        <v>1667</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>1639</v>
+        <v>1657</v>
       </c>
       <c r="D586" s="11" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E586" s="9">
         <v>41312</v>
@@ -31066,10 +31209,10 @@
         <v>42004</v>
       </c>
       <c r="L586" s="8" t="s">
-        <v>1611</v>
+        <v>1629</v>
       </c>
       <c r="M586" s="6" t="s">
-        <v>1650</v>
+        <v>1668</v>
       </c>
       <c r="N586" s="8" t="s">
         <v>13</v>
@@ -31084,13 +31227,13 @@
         <v>18</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>1651</v>
+        <v>1669</v>
       </c>
       <c r="C587" s="13" t="s">
-        <v>1646</v>
+        <v>1664</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="E587" s="15">
         <v>41312</v>
@@ -31115,10 +31258,10 @@
         <v>11</v>
       </c>
       <c r="M587" s="12" t="s">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="N587" s="14" t="s">
-        <v>1653</v>
+        <v>1671</v>
       </c>
       <c r="O587" s="16"/>
       <c r="P587" s="19" t="s">
@@ -31126,7 +31269,7 @@
       </c>
       <c r="Q587" s="13"/>
       <c r="R587" s="14" t="s">
-        <v>1654</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="588" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -31134,13 +31277,13 @@
         <v>18</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>1655</v>
+        <v>1673</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>1646</v>
+        <v>1664</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="E588" s="9">
         <v>43411</v>
@@ -31162,9 +31305,11 @@
       <c r="L588" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M588" s="6"/>
+      <c r="M588" s="6" t="s">
+        <v>1674</v>
+      </c>
       <c r="N588" s="8" t="s">
-        <v>1656</v>
+        <v>1675</v>
       </c>
       <c r="O588" s="10"/>
       <c r="P588" s="17" t="s">
@@ -31178,13 +31323,13 @@
         <v>30</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>1657</v>
+        <v>1676</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1646</v>
+        <v>1664</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="E589" s="15">
         <v>43411</v>
@@ -31208,12 +31353,14 @@
       <c r="L589" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M589" s="12"/>
+      <c r="M589" s="12" t="s">
+        <v>1677</v>
+      </c>
       <c r="N589" s="14" t="s">
-        <v>1656</v>
+        <v>1675</v>
       </c>
       <c r="O589" s="19" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="P589" s="27" t="s">
         <v>34</v>
@@ -31226,13 +31373,13 @@
         <v>18</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D590" s="11" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E590" s="9">
         <v>38391</v>
@@ -31272,13 +31419,13 @@
         <v>18</v>
       </c>
       <c r="B591" s="14" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C591" s="13" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D591" s="18" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E591" s="15">
         <v>39659</v>
@@ -31301,7 +31448,7 @@
       </c>
       <c r="L591" s="13"/>
       <c r="M591" s="12" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="N591" s="13"/>
       <c r="O591" s="16"/>
@@ -31314,13 +31461,13 @@
         <v>18</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E592" s="9">
         <v>40122</v>
@@ -31343,13 +31490,13 @@
       </c>
       <c r="L592" s="7"/>
       <c r="M592" s="6" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="N592" s="8" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="O592" s="17" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="P592" s="10"/>
       <c r="Q592" s="7"/>
@@ -31360,13 +31507,13 @@
         <v>18</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C593" s="13" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D593" s="18" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E593" s="15">
         <v>41956</v>
@@ -31404,13 +31551,13 @@
         <v>18</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E594" s="9">
         <v>40591</v>
@@ -31431,10 +31578,10 @@
       </c>
       <c r="L594" s="7"/>
       <c r="M594" s="6" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="N594" s="8" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="O594" s="10"/>
       <c r="P594" s="10"/>
@@ -31446,13 +31593,13 @@
         <v>18</v>
       </c>
       <c r="B595" s="14" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C595" s="13" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D595" s="18" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="E595" s="15">
         <v>41312</v>
@@ -31471,10 +31618,10 @@
         <v>11</v>
       </c>
       <c r="M595" s="12" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="N595" s="14" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="O595" s="16"/>
       <c r="P595" s="16"/>
@@ -31486,13 +31633,13 @@
         <v>18</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D596" s="11" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E596" s="9">
         <v>38391</v>
@@ -31514,13 +31661,13 @@
         <v>40290</v>
       </c>
       <c r="L596" s="8" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="M596" s="6" t="s">
         <v>45</v>
       </c>
       <c r="N596" s="8" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="O596" s="10"/>
       <c r="P596" s="10"/>
@@ -31532,13 +31679,13 @@
         <v>18</v>
       </c>
       <c r="B597" s="14" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="C597" s="13" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D597" s="18" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E597" s="15">
         <v>39659</v>
@@ -31560,13 +31707,13 @@
         <v>41444</v>
       </c>
       <c r="L597" s="25" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="M597" s="12" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="N597" s="14" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="O597" s="16"/>
       <c r="P597" s="16"/>
@@ -31578,13 +31725,13 @@
         <v>18</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D598" s="11" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E598" s="9">
         <v>41312</v>
@@ -31609,10 +31756,10 @@
         <v>11</v>
       </c>
       <c r="M598" s="11" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="N598" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O598" s="10"/>
       <c r="P598" s="10"/>
@@ -31624,13 +31771,13 @@
         <v>18</v>
       </c>
       <c r="B599" s="14" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="C599" s="13" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D599" s="18" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E599" s="15">
         <v>41956</v>
@@ -31668,13 +31815,13 @@
         <v>18</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D600" s="11" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E600" s="9">
         <v>40591</v>
@@ -31695,10 +31842,10 @@
       </c>
       <c r="L600" s="7"/>
       <c r="M600" s="6" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="N600" s="8" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="O600" s="17" t="s">
         <v>14</v>
@@ -31712,13 +31859,13 @@
         <v>18</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="C601" s="13" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D601" s="18" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E601" s="15">
         <v>41312</v>
@@ -31735,10 +31882,10 @@
       </c>
       <c r="L601" s="13"/>
       <c r="M601" s="12" t="s">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="N601" s="14" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="O601" s="16"/>
       <c r="P601" s="16"/>
@@ -31750,13 +31897,13 @@
         <v>18</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="D602" s="11" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E602" s="9">
         <v>41312</v>
@@ -31773,10 +31920,10 @@
       </c>
       <c r="L602" s="7"/>
       <c r="M602" s="11" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="N602" s="8" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="O602" s="10"/>
       <c r="P602" s="10"/>
@@ -31788,13 +31935,13 @@
         <v>18</v>
       </c>
       <c r="B603" s="14" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="C603" s="13" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D603" s="18" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E603" s="15">
         <v>38391</v>
@@ -31816,13 +31963,13 @@
         <v>41444</v>
       </c>
       <c r="L603" s="14" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="M603" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N603" s="14" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="O603" s="16"/>
       <c r="P603" s="16"/>
@@ -31834,13 +31981,13 @@
         <v>18</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D604" s="11" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E604" s="9">
         <v>41312</v>
@@ -31862,13 +32009,13 @@
         <v>42369</v>
       </c>
       <c r="L604" s="8" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="M604" s="11" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="N604" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O604" s="10"/>
       <c r="P604" s="10"/>
@@ -31880,13 +32027,13 @@
         <v>18</v>
       </c>
       <c r="B605" s="14" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="C605" s="13" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D605" s="18" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E605" s="15">
         <v>41956</v>
@@ -31924,13 +32071,13 @@
         <v>18</v>
       </c>
       <c r="B606" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D606" s="11" t="s">
         <v>1695</v>
-      </c>
-      <c r="C606" s="7" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D606" s="11" t="s">
-        <v>1675</v>
       </c>
       <c r="E606" s="9">
         <v>40591</v>
@@ -31951,7 +32098,7 @@
       </c>
       <c r="L606" s="7"/>
       <c r="M606" s="6" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="N606" s="7"/>
       <c r="O606" s="10"/>
@@ -31964,13 +32111,13 @@
         <v>18</v>
       </c>
       <c r="B607" s="14" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C607" s="13" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D607" s="18" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E607" s="15">
         <v>41312</v>
@@ -31987,7 +32134,7 @@
       </c>
       <c r="L607" s="13"/>
       <c r="M607" s="12" t="s">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="N607" s="13"/>
       <c r="O607" s="16"/>
@@ -32000,13 +32147,13 @@
         <v>18</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D608" s="11" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="E608" s="9">
         <v>41312</v>
@@ -32023,13 +32170,13 @@
       </c>
       <c r="L608" s="7"/>
       <c r="M608" s="11" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="N608" s="8" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="O608" s="17" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="P608" s="10"/>
       <c r="Q608" s="7"/>
@@ -32040,13 +32187,13 @@
         <v>18</v>
       </c>
       <c r="B609" s="14" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="C609" s="13" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="E609" s="15">
         <v>38391</v>
@@ -32062,7 +32209,7 @@
         <v>42004</v>
       </c>
       <c r="L609" s="14" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="M609" s="12" t="s">
         <v>45</v>
@@ -32080,13 +32227,13 @@
         <v>18</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="D610" s="6" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="E610" s="9">
         <v>38391</v>
@@ -32102,7 +32249,7 @@
         <v>39918</v>
       </c>
       <c r="L610" s="8" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="M610" s="6" t="s">
         <v>45</v>
@@ -32120,13 +32267,13 @@
         <v>18</v>
       </c>
       <c r="B611" s="14" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="C611" s="13" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="E611" s="15">
         <v>39918</v>
@@ -32141,10 +32288,10 @@
       </c>
       <c r="L611" s="13"/>
       <c r="M611" s="12" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="N611" s="14" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="O611" s="16"/>
       <c r="P611" s="16"/>
@@ -32156,13 +32303,13 @@
         <v>18</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="D612" s="6" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="E612" s="9">
         <v>41990</v>
@@ -32189,7 +32336,7 @@
         <v>11</v>
       </c>
       <c r="M612" s="6" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="N612" s="8" t="s">
         <v>605</v>
@@ -32200,7 +32347,7 @@
       </c>
       <c r="Q612" s="7"/>
       <c r="R612" s="8" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="613" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -32208,13 +32355,13 @@
         <v>18</v>
       </c>
       <c r="B613" s="14" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="C613" s="13" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="E613" s="15">
         <v>43048</v>
@@ -32240,8 +32387,8 @@
       <c r="L613" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M613" s="12" t="s">
-        <v>1715</v>
+      <c r="M613" s="18" t="s">
+        <v>1735</v>
       </c>
       <c r="N613" s="14" t="s">
         <v>605</v>
@@ -32253,18 +32400,18 @@
       <c r="Q613" s="13"/>
       <c r="R613" s="13"/>
     </row>
-    <row r="614" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="614" s="1" customFormat="1" ht="52.2634" customHeight="1">
       <c r="A614" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="D614" s="6" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="E614" s="9">
         <v>43503</v>
@@ -32290,11 +32437,11 @@
       <c r="L614" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M614" s="6" t="s">
-        <v>1717</v>
+      <c r="M614" s="11" t="s">
+        <v>1735</v>
       </c>
       <c r="N614" s="8" t="s">
-        <v>1718</v>
+        <v>1737</v>
       </c>
       <c r="O614" s="10"/>
       <c r="P614" s="17" t="s">
@@ -32303,18 +32450,18 @@
       <c r="Q614" s="7"/>
       <c r="R614" s="7"/>
     </row>
-    <row r="615" s="1" customFormat="1" ht="52.2634" customHeight="1">
+    <row r="615" s="1" customFormat="1" ht="84.2614" customHeight="1">
       <c r="A615" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B615" s="14" t="s">
-        <v>1719</v>
+        <v>1738</v>
       </c>
       <c r="C615" s="13" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="D615" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="E615" s="15">
         <v>43867</v>
@@ -32338,14 +32485,14 @@
       <c r="L615" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M615" s="12" t="s">
-        <v>1720</v>
+      <c r="M615" s="18" t="s">
+        <v>1739</v>
       </c>
       <c r="N615" s="14" t="s">
-        <v>1721</v>
+        <v>1740</v>
       </c>
       <c r="O615" s="19" t="s">
-        <v>1722</v>
+        <v>1741</v>
       </c>
       <c r="P615" s="19" t="s">
         <v>34</v>
@@ -32358,13 +32505,13 @@
         <v>140</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>1723</v>
+        <v>1742</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1724</v>
+        <v>1743</v>
       </c>
       <c r="D616" s="6" t="s">
-        <v>1725</v>
+        <v>1744</v>
       </c>
       <c r="E616" s="9">
         <v>45636</v>
@@ -32386,9 +32533,11 @@
       <c r="L616" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M616" s="6"/>
+      <c r="M616" s="6" t="s">
+        <v>1745</v>
+      </c>
       <c r="N616" s="8" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="O616" s="10"/>
       <c r="P616" s="10"/>
@@ -32400,13 +32549,13 @@
         <v>18</v>
       </c>
       <c r="B617" s="14" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="C617" s="13" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="E617" s="15">
         <v>38391</v>
@@ -32423,7 +32572,7 @@
       </c>
       <c r="L617" s="13"/>
       <c r="M617" s="18" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="N617" s="13"/>
       <c r="O617" s="16"/>
@@ -32436,13 +32585,13 @@
         <v>18</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D618" s="6" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="E618" s="9">
         <v>38931</v>
@@ -32478,13 +32627,13 @@
         <v>18</v>
       </c>
       <c r="B619" s="14" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="C619" s="13" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D619" s="12" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="E619" s="15">
         <v>39533</v>
@@ -32499,7 +32648,7 @@
       </c>
       <c r="L619" s="13"/>
       <c r="M619" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="N619" s="13"/>
       <c r="O619" s="16"/>
@@ -32512,13 +32661,13 @@
         <v>18</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="E620" s="9">
         <v>40395</v>
@@ -32558,13 +32707,13 @@
         <v>18</v>
       </c>
       <c r="B621" s="14" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="C621" s="13" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D621" s="12" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="E621" s="15">
         <v>41038</v>
@@ -32589,7 +32738,7 @@
         <v>11</v>
       </c>
       <c r="M621" s="12" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="N621" s="14" t="s">
         <v>48</v>
@@ -32604,13 +32753,13 @@
         <v>18</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D622" s="6" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E622" s="9">
         <v>41676</v>
@@ -32635,10 +32784,10 @@
         <v>11</v>
       </c>
       <c r="M622" s="6" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="N622" s="8" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="O622" s="10"/>
       <c r="P622" s="10"/>
@@ -32650,13 +32799,13 @@
         <v>18</v>
       </c>
       <c r="B623" s="14" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="C623" s="13" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E623" s="15">
         <v>41676</v>
@@ -32684,25 +32833,25 @@
         <v>487</v>
       </c>
       <c r="N623" s="14" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="O623" s="16"/>
       <c r="P623" s="16"/>
       <c r="Q623" s="13"/>
       <c r="R623" s="13"/>
     </row>
-    <row r="624" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="624" s="1" customFormat="1" ht="52.2634" customHeight="1">
       <c r="A624" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E624" s="9">
         <v>42957</v>
@@ -32726,11 +32875,11 @@
       <c r="L624" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M624" s="6" t="s">
-        <v>1744</v>
+      <c r="M624" s="11" t="s">
+        <v>1764</v>
       </c>
       <c r="N624" s="8" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="O624" s="10"/>
       <c r="P624" s="17" t="s">
@@ -32744,13 +32893,13 @@
         <v>30</v>
       </c>
       <c r="B625" s="14" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C625" s="13" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E625" s="15">
         <v>43328</v>
@@ -32772,7 +32921,9 @@
       <c r="L625" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M625" s="12"/>
+      <c r="M625" s="12" t="s">
+        <v>1767</v>
+      </c>
       <c r="N625" s="14" t="s">
         <v>68</v>
       </c>
@@ -32788,13 +32939,13 @@
         <v>18</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>1747</v>
+        <v>1768</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E626" s="9">
         <v>43594</v>
@@ -32812,8 +32963,8 @@
       <c r="L626" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M626" s="6" t="s">
-        <v>1748</v>
+      <c r="M626" s="11" t="s">
+        <v>1769</v>
       </c>
       <c r="N626" s="8" t="s">
         <v>705</v>
@@ -32830,13 +32981,13 @@
         <v>18</v>
       </c>
       <c r="B627" s="14" t="s">
-        <v>1749</v>
+        <v>1770</v>
       </c>
       <c r="C627" s="13" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1751</v>
+        <v>1772</v>
       </c>
       <c r="E627" s="15">
         <v>38931</v>
@@ -32872,13 +33023,13 @@
         <v>18</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>1752</v>
+        <v>1773</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>1751</v>
+        <v>1772</v>
       </c>
       <c r="E628" s="9">
         <v>39750</v>
@@ -32914,13 +33065,13 @@
         <v>18</v>
       </c>
       <c r="B629" s="14" t="s">
-        <v>1753</v>
+        <v>1774</v>
       </c>
       <c r="C629" s="13" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D629" s="12" t="s">
-        <v>1751</v>
+        <v>1772</v>
       </c>
       <c r="E629" s="15">
         <v>39854</v>
@@ -32943,10 +33094,10 @@
       </c>
       <c r="L629" s="13"/>
       <c r="M629" s="12" t="s">
-        <v>1754</v>
+        <v>1775</v>
       </c>
       <c r="N629" s="14" t="s">
-        <v>1755</v>
+        <v>1776</v>
       </c>
       <c r="O629" s="16"/>
       <c r="P629" s="16"/>
@@ -32958,13 +33109,13 @@
         <v>18</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>1756</v>
+        <v>1777</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D630" s="6" t="s">
-        <v>1751</v>
+        <v>1772</v>
       </c>
       <c r="E630" s="9">
         <v>39295</v>
@@ -32987,7 +33138,7 @@
       </c>
       <c r="L630" s="7"/>
       <c r="M630" s="6" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="N630" s="7"/>
       <c r="O630" s="10"/>
@@ -33000,13 +33151,13 @@
         <v>18</v>
       </c>
       <c r="B631" s="14" t="s">
-        <v>1757</v>
+        <v>1778</v>
       </c>
       <c r="C631" s="13" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D631" s="12" t="s">
-        <v>1751</v>
+        <v>1772</v>
       </c>
       <c r="E631" s="15">
         <v>41137</v>
@@ -33031,10 +33182,10 @@
         <v>11</v>
       </c>
       <c r="M631" s="12" t="s">
-        <v>1758</v>
+        <v>1779</v>
       </c>
       <c r="N631" s="14" t="s">
-        <v>1759</v>
+        <v>1780</v>
       </c>
       <c r="O631" s="16"/>
       <c r="P631" s="16"/>
@@ -33046,13 +33197,13 @@
         <v>18</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>1760</v>
+        <v>1781</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D632" s="6" t="s">
-        <v>1761</v>
+        <v>1782</v>
       </c>
       <c r="E632" s="9">
         <v>41765</v>
@@ -33077,10 +33228,10 @@
         <v>11</v>
       </c>
       <c r="M632" s="6" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="N632" s="8" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="O632" s="10"/>
       <c r="P632" s="10"/>
@@ -33092,13 +33243,13 @@
         <v>18</v>
       </c>
       <c r="B633" s="14" t="s">
-        <v>1762</v>
+        <v>1783</v>
       </c>
       <c r="C633" s="13" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D633" s="12" t="s">
-        <v>1761</v>
+        <v>1782</v>
       </c>
       <c r="E633" s="15">
         <v>41956</v>
@@ -33123,10 +33274,10 @@
         <v>11</v>
       </c>
       <c r="M633" s="12" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="N633" s="14" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O633" s="16"/>
       <c r="P633" s="16"/>
@@ -33138,13 +33289,13 @@
         <v>30</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>1763</v>
+        <v>1784</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>1761</v>
+        <v>1782</v>
       </c>
       <c r="E634" s="9">
         <v>42957</v>
@@ -33166,11 +33317,11 @@
       <c r="L634" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M634" s="6" t="s">
-        <v>1764</v>
+      <c r="M634" s="11" t="s">
+        <v>1785</v>
       </c>
       <c r="N634" s="8" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="O634" s="10"/>
       <c r="P634" s="17" t="s">
@@ -33184,13 +33335,13 @@
         <v>18</v>
       </c>
       <c r="B635" s="14" t="s">
-        <v>1765</v>
+        <v>1786</v>
       </c>
       <c r="C635" s="13" t="s">
-        <v>1766</v>
+        <v>1787</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="E635" s="15">
         <v>39750</v>
@@ -33228,13 +33379,13 @@
         <v>18</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>1768</v>
+        <v>1789</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1766</v>
+        <v>1787</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="E636" s="9">
         <v>41956</v>
@@ -33259,7 +33410,7 @@
         <v>11</v>
       </c>
       <c r="M636" s="6" t="s">
-        <v>1769</v>
+        <v>1790</v>
       </c>
       <c r="N636" s="8" t="s">
         <v>68</v>
@@ -33274,13 +33425,13 @@
         <v>18</v>
       </c>
       <c r="B637" s="14" t="s">
-        <v>1770</v>
+        <v>1791</v>
       </c>
       <c r="C637" s="13" t="s">
-        <v>1771</v>
+        <v>1792</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1772</v>
+        <v>1793</v>
       </c>
       <c r="E637" s="15">
         <v>39750</v>
@@ -33318,13 +33469,13 @@
         <v>18</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>1773</v>
+        <v>1794</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1771</v>
+        <v>1792</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>1772</v>
+        <v>1793</v>
       </c>
       <c r="E638" s="9">
         <v>41956</v>
@@ -33349,7 +33500,7 @@
         <v>11</v>
       </c>
       <c r="M638" s="6" t="s">
-        <v>1769</v>
+        <v>1790</v>
       </c>
       <c r="N638" s="8" t="s">
         <v>68</v>
@@ -33364,13 +33515,13 @@
         <v>18</v>
       </c>
       <c r="B639" s="14" t="s">
-        <v>1774</v>
+        <v>1795</v>
       </c>
       <c r="C639" s="13" t="s">
-        <v>1771</v>
+        <v>1792</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1775</v>
+        <v>1796</v>
       </c>
       <c r="E639" s="15">
         <v>42775</v>
@@ -33394,29 +33545,29 @@
       <c r="L639" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M639" s="12" t="s">
-        <v>1776</v>
+      <c r="M639" s="18" t="s">
+        <v>1797</v>
       </c>
       <c r="N639" s="14" t="s">
-        <v>1777</v>
+        <v>1798</v>
       </c>
       <c r="O639" s="16"/>
       <c r="P639" s="16"/>
       <c r="Q639" s="13"/>
       <c r="R639" s="13"/>
     </row>
-    <row r="640" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="640" s="1" customFormat="1" ht="52.2634" customHeight="1">
       <c r="A640" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>1778</v>
+        <v>1799</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1771</v>
+        <v>1792</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>1775</v>
+        <v>1796</v>
       </c>
       <c r="E640" s="9">
         <v>42957</v>
@@ -33439,13 +33590,13 @@
       </c>
       <c r="L640" s="7"/>
       <c r="M640" s="6" t="s">
-        <v>1779</v>
+        <v>1800</v>
       </c>
       <c r="N640" s="8" t="s">
         <v>68</v>
       </c>
       <c r="O640" s="17" t="s">
-        <v>1780</v>
+        <v>1801</v>
       </c>
       <c r="P640" s="10"/>
       <c r="Q640" s="7"/>
@@ -33456,13 +33607,13 @@
         <v>30</v>
       </c>
       <c r="B641" s="14" t="s">
-        <v>1781</v>
+        <v>1802</v>
       </c>
       <c r="C641" s="13" t="s">
-        <v>1771</v>
+        <v>1792</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>1775</v>
+        <v>1796</v>
       </c>
       <c r="E641" s="15">
         <v>45272</v>
@@ -33482,7 +33633,9 @@
       <c r="J641" s="16"/>
       <c r="K641" s="15"/>
       <c r="L641" s="13"/>
-      <c r="M641" s="12"/>
+      <c r="M641" s="12" t="s">
+        <v>1803</v>
+      </c>
       <c r="N641" s="14" t="s">
         <v>68</v>
       </c>
@@ -33496,13 +33649,13 @@
         <v>18</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1783</v>
+        <v>1805</v>
       </c>
       <c r="D642" s="11" t="s">
-        <v>1784</v>
+        <v>1806</v>
       </c>
       <c r="E642" s="9">
         <v>39153</v>
@@ -33525,7 +33678,7 @@
       </c>
       <c r="L642" s="7"/>
       <c r="M642" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N642" s="7"/>
       <c r="O642" s="10"/>
@@ -33538,13 +33691,13 @@
         <v>18</v>
       </c>
       <c r="B643" s="14" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="C643" s="13" t="s">
-        <v>1786</v>
+        <v>1808</v>
       </c>
       <c r="D643" s="18" t="s">
-        <v>1787</v>
+        <v>1809</v>
       </c>
       <c r="E643" s="15">
         <v>39153</v>
@@ -33567,7 +33720,7 @@
       </c>
       <c r="L643" s="13"/>
       <c r="M643" s="12" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N643" s="13"/>
       <c r="O643" s="16"/>
@@ -35452,13 +35605,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752CB4-4792-4A4A-8984-42325103CA01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A1C8DB-286F-4E2A-AB16-C2B46115DC35}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8AC7F9B-1648-4A9F-9A8E-7EECD030DEEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10A58C5-F4F0-4C5F-9C89-08FF42EE4111}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B3E151-BE3B-4A21-AB49-8A837901ABCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BA0A811-C985-4863-BBDD-615BC5C2287E}"/>
 </file>